--- a/Scripts/CBA_kehikko.xlsx
+++ b/Scripts/CBA_kehikko.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr codeName="TämäTyökirja"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="TämäTyökirja" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samia\code\helmet-model-system\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\helmet-model-system\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46AAA1C-1AFD-42D9-A4A0-827977EB73DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="13380" windowHeight="10605" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="1" r:id="rId1"/>
@@ -18,19 +17,22 @@
     <sheet name="Kayttajahyodyt" sheetId="3" r:id="rId3"/>
     <sheet name="ha_tyo" sheetId="8" state="hidden" r:id="rId4"/>
     <sheet name="ha_muu" sheetId="11" state="hidden" r:id="rId5"/>
-    <sheet name="jl_tyo" sheetId="10" state="hidden" r:id="rId6"/>
-    <sheet name="jl_muu" sheetId="12" state="hidden" r:id="rId7"/>
-    <sheet name="pp_tyo" sheetId="13" state="hidden" r:id="rId8"/>
-    <sheet name="pp_muu" sheetId="14" state="hidden" r:id="rId9"/>
-    <sheet name="ka" sheetId="15" state="hidden" r:id="rId10"/>
-    <sheet name="yhd" sheetId="16" state="hidden" r:id="rId11"/>
-    <sheet name="pa" sheetId="9" state="hidden" r:id="rId12"/>
-    <sheet name="Tuottajahyodyt" sheetId="4" r:id="rId13"/>
-    <sheet name="Ulkoisvaikutukset" sheetId="5" r:id="rId14"/>
-    <sheet name="Julkistaloudelliset" sheetId="6" r:id="rId15"/>
-    <sheet name="Investointikustannus" sheetId="7" r:id="rId16"/>
+    <sheet name="juna" sheetId="17" state="hidden" r:id="rId6"/>
+    <sheet name="lento" sheetId="18" state="hidden" r:id="rId7"/>
+    <sheet name="kaukob" sheetId="19" state="hidden" r:id="rId8"/>
+    <sheet name="jl_tyo" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="jl_muu" sheetId="12" state="hidden" r:id="rId10"/>
+    <sheet name="pp_tyo" sheetId="13" state="hidden" r:id="rId11"/>
+    <sheet name="pp_muu" sheetId="14" state="hidden" r:id="rId12"/>
+    <sheet name="ka" sheetId="15" state="hidden" r:id="rId13"/>
+    <sheet name="yhd" sheetId="16" state="hidden" r:id="rId14"/>
+    <sheet name="pa" sheetId="9" state="hidden" r:id="rId15"/>
+    <sheet name="Tuottajahyodyt" sheetId="4" r:id="rId16"/>
+    <sheet name="Ulkoisvaikutukset" sheetId="5" r:id="rId17"/>
+    <sheet name="Julkistaloudelliset" sheetId="6" r:id="rId18"/>
+    <sheet name="Investointikustannus" sheetId="7" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="224">
   <si>
     <t>Nettohyöty</t>
   </si>
@@ -737,11 +739,20 @@
   <si>
     <t xml:space="preserve">    Kunnossapitokustannukset</t>
   </si>
+  <si>
+    <t>Juna</t>
+  </si>
+  <si>
+    <t>Lento</t>
+  </si>
+  <si>
+    <t>Kaukobussi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0\ %"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2255,9 +2266,9 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Prosenttia" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2534,10 +2545,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2656,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="277">
-        <f ca="1">Kayttajahyodyt!M18/1000000</f>
+        <f ca="1">Kayttajahyodyt!P21/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -2669,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="277">
-        <f ca="1">Kayttajahyodyt!M31/1000000</f>
+        <f ca="1">Kayttajahyodyt!P34/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -2682,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="219">
-        <f ca="1">Kayttajahyodyt!M46/1000000</f>
+        <f ca="1">Kayttajahyodyt!P49/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -2894,7 +2905,1705 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="256">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="C4" s="257">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D4" s="258">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="193"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B8" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="63">
+        <f>B9/B$4+C9/C$4+D9/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="83">
+        <f>E9/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="245" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
+        <f>B10/B$4+C10/C$4+D10/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="84">
+        <f>E10/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="239">
+        <f>B9+B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="240">
+        <f>C9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="240">
+        <f>D9+D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="241">
+        <f>B11/B$4+C11/C$4+D11/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="242">
+        <f>E11/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="247"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B13" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="63">
+        <f>B14/B$4+C14/C$4+D14/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="83">
+        <f>E14/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
+        <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="84">
+        <f>E15/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="239">
+        <f>B14+B15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="240">
+        <f>C14+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="240">
+        <f>D14+D15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="241">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="242">
+        <f>E16/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="186"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B21" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="63">
+        <f t="shared" ref="E22:E24" si="1">B22/B$4+C22/C$4+D22/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="83">
+        <f>E22*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="250" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="84">
+        <f>E23*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="239">
+        <f>B22+B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="240">
+        <f>C22+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="240">
+        <f>D22+D23</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="242">
+        <f>E24*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="251"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B26" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="63">
+        <f t="shared" ref="E27:E29" si="2">B27/B$4+C27/C$4+D27/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="83">
+        <f>E27*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="84">
+        <f>E28*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="239">
+        <f>B27+B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="240">
+        <f>C27+C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="240">
+        <f>D27+D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="241">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="242">
+        <f>E29*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="186"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="252">
+        <v>2030</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="63">
+        <f t="shared" ref="E37:E39" si="3">B37/B$4+C37/C$4+D37/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="83">
+        <f>E37*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="84">
+        <f>E38*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="255" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="239">
+        <f>B37+B38</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="240">
+        <f>C37+C38</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="240">
+        <f>D37+D38</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="242">
+        <f>E39*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="251"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="252">
+        <v>2050</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="63">
+        <f t="shared" ref="E42:E44" si="4">B42/B$4+C42/C$4+D42/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="83">
+        <f>E42*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="84">
+        <f>E43*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="239">
+        <f>B42+B43</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="240">
+        <f>C42+C43</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="240">
+        <f>D42+D43</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="241">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="242">
+        <f>E44*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="256">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="C4" s="257">
+        <v>0.109</v>
+      </c>
+      <c r="D4" s="258">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="193"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B8" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="63">
+        <f>B9/B$4+C9/C$4+D9/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="83">
+        <f>E9/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="245" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
+        <f>B10/B$4+C10/C$4+D10/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="84">
+        <f>E10/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="239">
+        <f>B9+B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="240">
+        <f>C9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="240">
+        <f>D9+D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="241">
+        <f>B11/B$4+C11/C$4+D11/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="242">
+        <f>E11/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="247"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B13" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="63">
+        <f>B14/B$4+C14/C$4+D14/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="83">
+        <f>E14/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
+        <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="84">
+        <f>E15/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="239">
+        <f>B14+B15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="240">
+        <f>C14+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="240">
+        <f>D14+D15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="241">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="242">
+        <f>E16/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="186"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B21" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="63">
+        <f t="shared" ref="E22:E24" si="1">B22/B$4+C22/C$4+D22/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="83">
+        <f>E22*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="250" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="84">
+        <f>E23*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="239">
+        <f>B22+B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="240">
+        <f>C22+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="240">
+        <f>D22+D23</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="242">
+        <f>E24*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="251"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B26" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="63">
+        <f t="shared" ref="E27:E29" si="2">B27/B$4+C27/C$4+D27/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="83">
+        <f>E27*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="84">
+        <f>E28*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="239">
+        <f>B27+B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="240">
+        <f>C27+C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="240">
+        <f>D27+D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="241">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="242">
+        <f>E29*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="186"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="252">
+        <v>2030</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="63">
+        <f t="shared" ref="E37:E39" si="3">B37/B$4+C37/C$4+D37/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="83">
+        <f>E37*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="84">
+        <f>E38*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="255" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="239">
+        <f>B37+B38</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="240">
+        <f>C37+C38</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="240">
+        <f>D37+D38</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="242">
+        <f>E39*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="251"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="252">
+        <v>2050</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="63">
+        <f t="shared" ref="E42:E44" si="4">B42/B$4+C42/C$4+D42/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="83">
+        <f>E42*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="84">
+        <f>E43*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="239">
+        <f>B42+B43</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="240">
+        <f>C42+C43</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="240">
+        <f>D42+D43</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="241">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="242">
+        <f>E44*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="256">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="C4" s="257">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D4" s="258">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="193"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B8" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="63">
+        <f>B9/B$4+C9/C$4+D9/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="83">
+        <f>E9/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="245" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
+        <f>B10/B$4+C10/C$4+D10/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="84">
+        <f>E10/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="239">
+        <f>B9+B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="240">
+        <f>C9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="240">
+        <f>D9+D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="241">
+        <f>B11/B$4+C11/C$4+D11/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="242">
+        <f>E11/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="247"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B13" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="63">
+        <f>B14/B$4+C14/C$4+D14/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="83">
+        <f>E14/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
+        <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="84">
+        <f>E15/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="239">
+        <f>B14+B15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="240">
+        <f>C14+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="240">
+        <f>D14+D15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="241">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="242">
+        <f>E16/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="186"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B21" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="63">
+        <f t="shared" ref="E22:E24" si="1">B22/B$4+C22/C$4+D22/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="83">
+        <f>E22*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="250" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="84">
+        <f>E23*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="239">
+        <f>B22+B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="240">
+        <f>C22+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="240">
+        <f>D22+D23</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="242">
+        <f>E24*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="251"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B26" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="63">
+        <f t="shared" ref="E27:E29" si="2">B27/B$4+C27/C$4+D27/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="83">
+        <f>E27*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="84">
+        <f>E28*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="239">
+        <f>B27+B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="240">
+        <f>C27+C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="240">
+        <f>D27+D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="241">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="242">
+        <f>E29*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="186"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="252">
+        <v>2030</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="63">
+        <f t="shared" ref="E37:E39" si="3">B37/B$4+C37/C$4+D37/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="83">
+        <f>E37*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="84">
+        <f>E38*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="255" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="239">
+        <f>B37+B38</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="240">
+        <f>C37+C38</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="240">
+        <f>D37+D38</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="242">
+        <f>E39*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="251"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="252">
+        <v>2050</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="63">
+        <f t="shared" ref="E42:E44" si="4">B42/B$4+C42/C$4+D42/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="83">
+        <f>E42*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="84">
+        <f>E43*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="239">
+        <f>B42+B43</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="240">
+        <f>C42+C43</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="240">
+        <f>D42+D43</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="241">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="242">
+        <f>E44*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,8 +5165,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4019,8 +5728,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4582,8 +6291,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Taul2"/>
   <dimension ref="A5:U105"/>
   <sheetViews>
@@ -6056,8 +7765,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Taul3"/>
   <dimension ref="B2:P91"/>
   <sheetViews>
@@ -7890,8 +9599,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7954,7 +9663,7 @@
         <v>133</v>
       </c>
       <c r="C7" s="122">
-        <f>Kayttajahyodyt!I75</f>
+        <f>Kayttajahyodyt!I78</f>
         <v>0</v>
       </c>
       <c r="F7" s="232">
@@ -8026,7 +9735,7 @@
         <v>133</v>
       </c>
       <c r="C12" s="122">
-        <f>Kayttajahyodyt!I82</f>
+        <f>Kayttajahyodyt!I85</f>
         <v>0</v>
       </c>
       <c r="F12" s="232">
@@ -8153,8 +9862,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -10152,12 +11861,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Taul1"/>
   <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11594,7 +13303,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f>IF(Kayttajahyodyt!M16=0,"Ennuste 2 puuttuu",Kayttajahyodyt!M16/Kayttajahyodyt!M11*100)</f>
+        <f>IF(Kayttajahyodyt!P19=0,"Ennuste 2 puuttuu",Kayttajahyodyt!P19/Kayttajahyodyt!P14*100)</f>
         <v>Ennuste 2 puuttuu</v>
       </c>
       <c r="L16">
@@ -12146,7 +13855,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="str">
-        <f>IF(Tuottajahyodyt!L68=0,"Ennuste 2 puuttuu",(Kayttajahyodyt!M29+Kayttajahyodyt!M44+Tuottajahyodyt!F46-Tuottajahyodyt!L68-Julkistaloudelliset!C14)/(Kayttajahyodyt!M24+Kayttajahyodyt!M39+Tuottajahyodyt!F43-Tuottajahyodyt!L60-Julkistaloudelliset!C9)*100)</f>
+        <f>IF(Tuottajahyodyt!L68=0,"Ennuste 2 puuttuu",(Kayttajahyodyt!P32+Kayttajahyodyt!P47+Tuottajahyodyt!F46-Tuottajahyodyt!L68-Julkistaloudelliset!C14)/(Kayttajahyodyt!P27+Kayttajahyodyt!P42+Tuottajahyodyt!F43-Tuottajahyodyt!L60-Julkistaloudelliset!C9)*100)</f>
         <v>Ennuste 2 puuttuu</v>
       </c>
       <c r="L23">
@@ -15175,10 +16884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:XFD98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15188,15 +16899,16 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -15211,7 +16923,7 @@
       <c r="C1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>165</v>
       </c>
     </row>
@@ -15231,10 +16943,10 @@
       <c r="F2" s="203" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="K2" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="L2" s="51" t="s">
         <v>159</v>
       </c>
     </row>
@@ -15257,10 +16969,10 @@
       <c r="F3" s="213">
         <v>40.22</v>
       </c>
-      <c r="H3" s="206">
+      <c r="K3" s="206">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I3" s="207">
+      <c r="L3" s="207">
         <v>1.6</v>
       </c>
     </row>
@@ -15299,413 +17011,336 @@
       <c r="E5" s="197"/>
       <c r="F5" s="199"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="204">
+        <v>1</v>
+      </c>
+      <c r="C6" s="204"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="204">
+        <v>1</v>
+      </c>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="204">
+        <v>1</v>
+      </c>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+    </row>
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="186"/>
-      <c r="R7" s="186"/>
-      <c r="S7" s="186"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="186"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="186"/>
-      <c r="Z7" s="186"/>
-      <c r="AA7" s="186"/>
-      <c r="AB7" s="186"/>
-      <c r="AC7" s="186"/>
-      <c r="AD7" s="186"/>
-      <c r="AE7" s="186"/>
-      <c r="AF7" s="186"/>
-      <c r="AG7" s="186"/>
-    </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="87">
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="186"/>
+      <c r="Z10" s="186"/>
+      <c r="AA10" s="186"/>
+      <c r="AB10" s="186"/>
+      <c r="AC10" s="186"/>
+      <c r="AD10" s="186"/>
+      <c r="AE10" s="186"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="186"/>
+    </row>
+    <row r="11" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="87">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C11" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D11" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E11" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F11" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G11" s="186" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="186" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="186" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="K11" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="L11" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="M11" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="N11" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="87" t="s">
+      <c r="P11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="186"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="187"/>
-      <c r="Q8" s="187"/>
-      <c r="R8" s="187"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="186"/>
-      <c r="U8" s="186"/>
-      <c r="V8" s="189"/>
-      <c r="W8" s="189"/>
-      <c r="X8" s="189"/>
-      <c r="Y8" s="186"/>
-      <c r="Z8" s="186"/>
-      <c r="AA8" s="186"/>
-      <c r="AB8" s="189"/>
-      <c r="AC8" s="189"/>
-      <c r="AD8" s="189"/>
-      <c r="AE8" s="186"/>
-      <c r="AF8" s="186"/>
-      <c r="AG8" s="186"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+      <c r="Q11" s="187"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="188"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="189"/>
+      <c r="W11" s="189"/>
+      <c r="X11" s="189"/>
+      <c r="Y11" s="186"/>
+      <c r="Z11" s="186"/>
+      <c r="AA11" s="186"/>
+      <c r="AB11" s="189"/>
+      <c r="AC11" s="189"/>
+      <c r="AD11" s="189"/>
+      <c r="AE11" s="186"/>
+      <c r="AF11" s="186"/>
+      <c r="AG11" s="186"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="105">
-        <f>-ha_tyo!F9*B3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="105">
-        <f>-ha_muu!F9*C3*I3</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="123">
+      <c r="C12" s="105">
+        <f>-ha_tyo!F9*B3*K3</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="105">
+        <f>-ha_muu!F9*C3*L3</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="123">
         <f>-jl_tyo!F9*B4</f>
         <v>0</v>
       </c>
-      <c r="F9" s="123">
+      <c r="F12" s="123">
         <f>-jl_muu!F9*C4</f>
         <v>0</v>
       </c>
-      <c r="G9" s="123">
+      <c r="G12">
+        <f>-juna!F9*$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>-lento!F9*$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>-kaukob!F9*$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="123">
         <f>-pp_tyo!F9*B5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="123">
+      <c r="K12" s="123">
         <f>-pp_muu!F9*C5</f>
         <v>0</v>
       </c>
-      <c r="I9" s="105">
+      <c r="L12" s="105">
         <f>-ka!F9*E3</f>
         <v>0</v>
       </c>
-      <c r="J9" s="105">
+      <c r="M12" s="105">
         <f>-yhd!F9*F3</f>
         <v>0</v>
       </c>
-      <c r="K9" s="81">
+      <c r="N12" s="81">
         <f>-pa!F9*D3</f>
         <v>0</v>
       </c>
-      <c r="M9" s="219">
-        <f>SUM(C9:L9)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="190"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="190"/>
-      <c r="X9" s="190"/>
-      <c r="Y9" s="190"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="190"/>
-      <c r="AC9" s="190"/>
-      <c r="AD9" s="190"/>
-      <c r="AE9" s="190"/>
-      <c r="AF9" s="190"/>
-      <c r="AG9" s="186"/>
-    </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="P12" s="219">
+        <f>SUM(C12:O12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="188"/>
+      <c r="R12" s="188"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="190"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="190"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="190"/>
+      <c r="Y12" s="190"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="190"/>
+      <c r="AE12" s="190"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="186"/>
+    </row>
+    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="105">
-        <f>-ha_tyo!F10*B3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="105">
-        <f>-ha_muu!F10*C3*I3</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="124">
+      <c r="C13" s="105">
+        <f>-ha_tyo!F10*B3*K3</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="105">
+        <f>-ha_muu!F10*C3*L3</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="124">
         <f>-jl_tyo!F10*B4</f>
         <v>0</v>
       </c>
-      <c r="F10" s="124">
+      <c r="F13" s="124">
         <f>-jl_muu!F10*C4</f>
         <v>0</v>
       </c>
-      <c r="G10" s="123">
+      <c r="G13">
+        <f>-juna!F10*$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>-lento!F10*$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>-kaukob!F10*$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="123">
         <f>-pp_tyo!F10*B5</f>
         <v>0</v>
       </c>
-      <c r="H10" s="123">
+      <c r="K13" s="123">
         <f>-pp_muu!F10*C5</f>
         <v>0</v>
       </c>
-      <c r="I10" s="106">
+      <c r="L13" s="106">
         <f>-ka!F10*E3</f>
         <v>0</v>
       </c>
-      <c r="J10" s="106">
+      <c r="M13" s="106">
         <f>-yhd!F10*F3</f>
         <v>0</v>
       </c>
-      <c r="K10" s="122">
+      <c r="N13" s="122">
         <f>-pa!F10*D3</f>
         <v>0</v>
       </c>
-      <c r="M10" s="220">
-        <f>SUM(C10:L10)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="188"/>
-      <c r="R10" s="188"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="190"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="190"/>
-      <c r="X10" s="190"/>
-      <c r="Y10" s="190"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="190"/>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="190"/>
-      <c r="AF10" s="190"/>
-      <c r="AG10" s="186"/>
-    </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57" t="s">
+      <c r="P13" s="220">
+        <f>SUM(C13:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="190"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="190"/>
+      <c r="W13" s="190"/>
+      <c r="X13" s="190"/>
+      <c r="Y13" s="190"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="186"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="190"/>
+      <c r="AD13" s="190"/>
+      <c r="AE13" s="190"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="186"/>
+    </row>
+    <row r="14" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="64">
-        <f t="shared" ref="C11:K11" si="0">SUM(C9:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="64">
+      <c r="C14" s="64">
+        <f t="shared" ref="C14:K14" si="0">SUM(C12:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="65">
+      <c r="E14" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F14" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G14" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H14" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I14" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="221">
-        <f>SUM(C11:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="190"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="186"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="186"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="190"/>
-      <c r="AF11" s="190"/>
-      <c r="AG11" s="186"/>
-    </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N12" s="186"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="186"/>
-      <c r="AG12" s="186"/>
-    </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="87">
-        <f>Diskonttaus!B6</f>
-        <v>2050</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="186"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="187"/>
-      <c r="Q13" s="187"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="188"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="189"/>
-      <c r="W13" s="189"/>
-      <c r="X13" s="189"/>
-      <c r="Y13" s="186"/>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="189"/>
-      <c r="AC13" s="189"/>
-      <c r="AD13" s="189"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="186"/>
-      <c r="AG13" s="186"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="105">
-        <f>-ha_tyo!F14*B3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="105">
-        <f>-ha_muu!F14*C3*I3</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="123">
-        <f>-jl_tyo!F14*B4</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="123">
-        <f>-jl_muu!F14*C4</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="123">
-        <f>-pp_tyo!F14*B5</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="123">
-        <f>-pp_muu!F14*C5</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="105">
-        <f>-ka!F14*E3</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="105">
-        <f>-yhd!F14*F3</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="81">
-        <f>-pa!F14*D3</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="219">
-        <f>SUM(C14:L14)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="186"/>
-      <c r="O14" s="186"/>
-      <c r="P14" s="188"/>
-      <c r="Q14" s="188"/>
-      <c r="R14" s="188"/>
-      <c r="S14" s="188"/>
+      <c r="J14" s="65">
+        <f>SUM(J12:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="65">
+        <f>SUM(K12:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="64">
+        <f>SUM(L12:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="64">
+        <f>SUM(M12:M13)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="76">
+        <f>SUM(N12:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="221">
+        <f>SUM(C14:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
       <c r="T14" s="190"/>
       <c r="U14" s="186"/>
       <c r="V14" s="190"/>
@@ -15721,231 +17356,310 @@
       <c r="AF14" s="190"/>
       <c r="AG14" s="186"/>
     </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="186"/>
+      <c r="R15" s="186"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="186"/>
+      <c r="AA15" s="186"/>
+      <c r="AB15" s="186"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="186"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="186"/>
+    </row>
+    <row r="16" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="87">
+        <f>Diskonttaus!B6</f>
+        <v>2050</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="186" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="186" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="186" t="s">
+        <v>223</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="187"/>
+      <c r="R16" s="187"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="189"/>
+      <c r="W16" s="189"/>
+      <c r="X16" s="189"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="189"/>
+      <c r="AC16" s="189"/>
+      <c r="AD16" s="189"/>
+      <c r="AE16" s="186"/>
+      <c r="AF16" s="186"/>
+      <c r="AG16" s="186"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="105">
+        <f>-ha_tyo!F14*B3*K3</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="105">
+        <f>-ha_muu!F14*C3*L3</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="123">
+        <f>-jl_tyo!F14*B4</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="123">
+        <f>-jl_muu!F14*C4</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>-juna!F14*$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>-lento!F14*$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>-kaukob!F14*$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="123">
+        <f>-pp_tyo!F14*B5</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="123">
+        <f>-pp_muu!F14*C5</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="105">
+        <f>-ka!F14*E3</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="105">
+        <f>-yhd!F14*F3</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="81">
+        <f>-pa!F14*D3</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="219">
+        <f>SUM(C17:O17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="188"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="188"/>
+      <c r="T17" s="190"/>
+      <c r="U17" s="186"/>
+      <c r="V17" s="190"/>
+      <c r="W17" s="190"/>
+      <c r="X17" s="190"/>
+      <c r="Y17" s="190"/>
+      <c r="Z17" s="190"/>
+      <c r="AA17" s="186"/>
+      <c r="AB17" s="190"/>
+      <c r="AC17" s="190"/>
+      <c r="AD17" s="190"/>
+      <c r="AE17" s="190"/>
+      <c r="AF17" s="190"/>
+      <c r="AG17" s="186"/>
+    </row>
+    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="105">
-        <f>-ha_tyo!F15*B3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="105">
-        <f>-ha_muu!F15*C3*I3</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="124">
+      <c r="C18" s="105">
+        <f>-ha_tyo!F15*B3*K3</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="105">
+        <f>-ha_muu!F15*C3*L3</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="124">
         <f>-jl_tyo!F15*B4</f>
         <v>0</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F18" s="124">
         <f>-jl_muu!F15*C4</f>
         <v>0</v>
       </c>
-      <c r="G15" s="123">
+      <c r="G18">
+        <f>-juna!F15*$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>-lento!F15*$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>-kaukob!F15*$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="123">
         <f>-pp_tyo!F15*B5</f>
         <v>0</v>
       </c>
-      <c r="H15" s="123">
+      <c r="K18" s="123">
         <f>-pp_muu!F15*C5</f>
         <v>0</v>
       </c>
-      <c r="I15" s="106">
+      <c r="L18" s="106">
         <f>-ka!F15*E3</f>
         <v>0</v>
       </c>
-      <c r="J15" s="106">
+      <c r="M18" s="106">
         <f>-yhd!F15*F3</f>
         <v>0</v>
       </c>
-      <c r="K15" s="81">
+      <c r="N18" s="81">
         <f>-pa!F15*D3</f>
         <v>0</v>
       </c>
-      <c r="M15" s="220">
-        <f>SUM(C15:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="186"/>
-      <c r="O15" s="186"/>
-      <c r="P15" s="188"/>
-      <c r="Q15" s="188"/>
-      <c r="R15" s="188"/>
-      <c r="S15" s="188"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="186"/>
-      <c r="V15" s="190"/>
-      <c r="W15" s="190"/>
-      <c r="X15" s="190"/>
-      <c r="Y15" s="190"/>
-      <c r="Z15" s="190"/>
-      <c r="AA15" s="186"/>
-      <c r="AB15" s="190"/>
-      <c r="AC15" s="190"/>
-      <c r="AD15" s="190"/>
-      <c r="AE15" s="190"/>
-      <c r="AF15" s="190"/>
-      <c r="AG15" s="186"/>
-    </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57" t="s">
+      <c r="P18" s="220">
+        <f>SUM(C18:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="188"/>
+      <c r="T18" s="190"/>
+      <c r="U18" s="186"/>
+      <c r="V18" s="190"/>
+      <c r="W18" s="190"/>
+      <c r="X18" s="190"/>
+      <c r="Y18" s="190"/>
+      <c r="Z18" s="190"/>
+      <c r="AA18" s="186"/>
+      <c r="AB18" s="190"/>
+      <c r="AC18" s="190"/>
+      <c r="AD18" s="190"/>
+      <c r="AE18" s="190"/>
+      <c r="AF18" s="190"/>
+      <c r="AG18" s="186"/>
+    </row>
+    <row r="19" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="64">
-        <f t="shared" ref="C16:K16" si="1">SUM(C14:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="64">
+      <c r="C19" s="64">
+        <f t="shared" ref="C19:K19" si="1">SUM(C17:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E19" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F19" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G19" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H19" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="64">
-        <f t="shared" ref="I16" si="2">SUM(I14:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="64">
-        <f t="shared" ref="J16" si="3">SUM(J14:J15)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="182">
+      <c r="I19" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="221">
-        <f>SUM(C16:L16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="190"/>
-      <c r="Q16" s="190"/>
-      <c r="R16" s="190"/>
-      <c r="S16" s="190"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="190"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="190"/>
-      <c r="Z16" s="190"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="190"/>
-      <c r="AC16" s="190"/>
-      <c r="AD16" s="190"/>
-      <c r="AE16" s="190"/>
-      <c r="AF16" s="190"/>
-      <c r="AG16" s="186"/>
-    </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N17" s="186"/>
-      <c r="O17" s="186"/>
-      <c r="P17" s="186"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="186"/>
-      <c r="S17" s="186"/>
-      <c r="T17" s="186"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="186"/>
-      <c r="W17" s="186"/>
-      <c r="X17" s="186"/>
-      <c r="Y17" s="186"/>
-      <c r="Z17" s="186"/>
-      <c r="AA17" s="186"/>
-      <c r="AB17" s="186"/>
-      <c r="AC17" s="186"/>
-      <c r="AD17" s="186"/>
-      <c r="AE17" s="186"/>
-      <c r="AF17" s="186"/>
-      <c r="AG17" s="186"/>
-    </row>
-    <row r="18" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="134" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="M18" s="222">
-        <f ca="1">IF(ISNUMBER(Diskonttaus!B20),Diskonttaus!B19*Kayttajahyodyt!M11+Diskonttaus!B20*Kayttajahyodyt!M16,Diskonttaus!B19*Kayttajahyodyt!M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="186"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="186"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="186"/>
-      <c r="T18" s="186"/>
-      <c r="U18" s="186"/>
-      <c r="V18" s="186"/>
-      <c r="W18" s="186"/>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="186"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="186"/>
-      <c r="AB18" s="186"/>
-      <c r="AC18" s="186"/>
-      <c r="AD18" s="186"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="186"/>
-      <c r="AG18" s="186"/>
-    </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N19" s="186"/>
-      <c r="O19" s="186"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
+      <c r="J19" s="65">
+        <f>SUM(J17:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="65">
+        <f>SUM(K17:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="64">
+        <f t="shared" ref="L19" si="2">SUM(L17:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="64">
+        <f t="shared" ref="M19" si="3">SUM(M17:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="182">
+        <f>SUM(N17:N18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="221">
+        <f>SUM(C19:O19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="190"/>
+      <c r="S19" s="190"/>
+      <c r="T19" s="190"/>
       <c r="U19" s="186"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="186"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="186"/>
+      <c r="V19" s="190"/>
+      <c r="W19" s="190"/>
+      <c r="X19" s="190"/>
+      <c r="Y19" s="190"/>
+      <c r="Z19" s="190"/>
       <c r="AA19" s="186"/>
-      <c r="AB19" s="186"/>
-      <c r="AC19" s="186"/>
-      <c r="AD19" s="186"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="186"/>
+      <c r="AB19" s="190"/>
+      <c r="AC19" s="190"/>
+      <c r="AD19" s="190"/>
+      <c r="AE19" s="190"/>
+      <c r="AF19" s="190"/>
       <c r="AG19" s="186"/>
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="186"/>
-      <c r="P20" s="186"/>
       <c r="Q20" s="186"/>
       <c r="R20" s="186"/>
       <c r="S20" s="186"/>
@@ -15964,43 +17678,30 @@
       <c r="AF20" s="186"/>
       <c r="AG20" s="186"/>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="87">
-        <f>Diskonttaus!B4</f>
-        <v>2030</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="168" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="K21" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="186"/>
-      <c r="O21" s="186"/>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="189"/>
+    <row r="21" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="134" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="P21" s="222">
+        <f ca="1">IF(ISNUMBER(Diskonttaus!B20),Diskonttaus!B19*Kayttajahyodyt!P14+Diskonttaus!B20*Kayttajahyodyt!P19,Diskonttaus!B19*Kayttajahyodyt!P14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="186"/>
       <c r="S21" s="186"/>
       <c r="T21" s="186"/>
       <c r="U21" s="186"/>
-      <c r="V21" s="189"/>
-      <c r="W21" s="189"/>
-      <c r="X21" s="189"/>
+      <c r="V21" s="186"/>
+      <c r="W21" s="186"/>
+      <c r="X21" s="186"/>
       <c r="Y21" s="186"/>
       <c r="Z21" s="186"/>
       <c r="AA21" s="186"/>
@@ -16011,51 +17712,17 @@
       <c r="AF21" s="186"/>
       <c r="AG21" s="186"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B22" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="69">
-        <f>-E61*ha_tyo!F22</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="104">
-        <f>-E61*ha_muu!F22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="224">
-        <f>-E64*ka!F22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="70">
-        <f>-E65*yhd!F22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="104">
-        <f>-E62*pa!F22</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="219">
-        <f>SUM(C22:L22)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="186"/>
-      <c r="O22" s="186"/>
-      <c r="P22" s="190"/>
-      <c r="Q22" s="190"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="190"/>
-      <c r="T22" s="190"/>
+    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="186"/>
+      <c r="R22" s="186"/>
+      <c r="S22" s="186"/>
+      <c r="T22" s="186"/>
       <c r="U22" s="186"/>
-      <c r="V22" s="190"/>
-      <c r="W22" s="190"/>
-      <c r="X22" s="190"/>
-      <c r="Y22" s="190"/>
-      <c r="Z22" s="190"/>
+      <c r="V22" s="186"/>
+      <c r="W22" s="186"/>
+      <c r="X22" s="186"/>
+      <c r="Y22" s="186"/>
+      <c r="Z22" s="186"/>
       <c r="AA22" s="186"/>
       <c r="AB22" s="186"/>
       <c r="AC22" s="186"/>
@@ -16064,51 +17731,27 @@
       <c r="AF22" s="186"/>
       <c r="AG22" s="186"/>
     </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="71">
-        <f>-E61*ha_tyo!F23</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="63">
-        <f>-E61*ha_muu!F23</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="92"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="184">
-        <f>-E64*ka!F23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="124">
-        <f>-E65*yhd!F23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="63">
-        <f>-E62*pa!F23</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="220">
-        <f>SUM(C23:L23)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="186"/>
-      <c r="O23" s="186"/>
-      <c r="P23" s="190"/>
-      <c r="Q23" s="190"/>
-      <c r="R23" s="190"/>
-      <c r="S23" s="190"/>
-      <c r="T23" s="190"/>
+    <row r="23" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="186"/>
+      <c r="S23" s="186"/>
+      <c r="T23" s="186"/>
       <c r="U23" s="186"/>
-      <c r="V23" s="190"/>
-      <c r="W23" s="190"/>
-      <c r="X23" s="190"/>
-      <c r="Y23" s="190"/>
-      <c r="Z23" s="190"/>
+      <c r="V23" s="186"/>
+      <c r="W23" s="186"/>
+      <c r="X23" s="186"/>
+      <c r="Y23" s="186"/>
+      <c r="Z23" s="186"/>
       <c r="AA23" s="186"/>
       <c r="AB23" s="186"/>
       <c r="AC23" s="186"/>
@@ -16118,50 +17761,41 @@
       <c r="AG23" s="186"/>
     </row>
     <row r="24" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="87">
+        <f>Diskonttaus!B4</f>
+        <v>2030</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="168" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="93">
-        <f>SUM(C22:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="182">
-        <f>SUM(D22:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="225">
-        <f>SUM(I22:I23)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="65">
-        <f>SUM(J22:J23)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="182">
-        <f>SUM(K22:K23)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="221">
-        <f>SUM(C24:L24)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="186"/>
-      <c r="O24" s="186"/>
-      <c r="P24" s="190"/>
-      <c r="Q24" s="190"/>
-      <c r="R24" s="190"/>
-      <c r="S24" s="190"/>
-      <c r="T24" s="190"/>
+      <c r="Q24" s="189"/>
+      <c r="R24" s="189"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="186"/>
       <c r="U24" s="186"/>
-      <c r="V24" s="190"/>
-      <c r="W24" s="190"/>
-      <c r="X24" s="190"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
+      <c r="V24" s="189"/>
+      <c r="W24" s="189"/>
+      <c r="X24" s="189"/>
+      <c r="Y24" s="186"/>
+      <c r="Z24" s="186"/>
       <c r="AA24" s="186"/>
       <c r="AB24" s="186"/>
       <c r="AC24" s="186"/>
@@ -16170,23 +17804,48 @@
       <c r="AF24" s="186"/>
       <c r="AG24" s="186"/>
     </row>
-    <row r="25" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="186"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="69">
+        <f>-E64*ha_tyo!F22</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="104">
+        <f>-E64*ha_muu!F22</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="92"/>
+      <c r="F25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="224">
+        <f>-E67*ka!F22</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="70">
+        <f>-E68*yhd!F22</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="104">
+        <f>-E65*pa!F22</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="219">
+        <f>SUM(C25:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="190"/>
+      <c r="R25" s="190"/>
+      <c r="S25" s="190"/>
+      <c r="T25" s="190"/>
       <c r="U25" s="186"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="186"/>
+      <c r="V25" s="190"/>
+      <c r="W25" s="190"/>
+      <c r="X25" s="190"/>
+      <c r="Y25" s="190"/>
+      <c r="Z25" s="190"/>
       <c r="AA25" s="186"/>
       <c r="AB25" s="186"/>
       <c r="AC25" s="186"/>
@@ -16195,45 +17854,48 @@
       <c r="AF25" s="186"/>
       <c r="AG25" s="186"/>
     </row>
-    <row r="26" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="87">
-        <f>Diskonttaus!B6</f>
-        <v>2050</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="195"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="168" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="M26" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="N26" s="186"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="189"/>
-      <c r="R26" s="189"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186"/>
+    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="71">
+        <f>-E64*ha_tyo!F23</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="63">
+        <f>-E64*ha_muu!F23</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="184">
+        <f>-E67*ka!F23</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="124">
+        <f>-E68*yhd!F23</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="63">
+        <f>-E65*pa!F23</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="220">
+        <f>SUM(C26:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="190"/>
+      <c r="S26" s="190"/>
+      <c r="T26" s="190"/>
       <c r="U26" s="186"/>
-      <c r="V26" s="189"/>
-      <c r="W26" s="189"/>
-      <c r="X26" s="189"/>
-      <c r="Y26" s="186"/>
-      <c r="Z26" s="186"/>
+      <c r="V26" s="190"/>
+      <c r="W26" s="190"/>
+      <c r="X26" s="190"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
       <c r="AA26" s="186"/>
       <c r="AB26" s="186"/>
       <c r="AC26" s="186"/>
@@ -16242,40 +17904,38 @@
       <c r="AF26" s="186"/>
       <c r="AG26" s="186"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B27" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="69">
-        <f>-E61*ha_tyo!F27</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="104">
-        <f>-E61*ha_muu!F27</f>
-        <v>0</v>
-      </c>
+    <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="93">
+        <f>SUM(C25:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="182">
+        <f>SUM(D25:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="92"/>
       <c r="F27" s="194"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="224">
-        <f>-E64*ka!F27</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="70">
-        <f>-E65*yhd!F27</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="104">
-        <f>-E62*pa!F27</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="219">
-        <f>SUM(C27:L27)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="186"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="190"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="225">
+        <f>SUM(L25:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="65">
+        <f>SUM(M25:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="182">
+        <f>SUM(N25:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="221">
+        <f>SUM(C27:O27)</f>
+        <v>0</v>
+      </c>
       <c r="Q27" s="190"/>
       <c r="R27" s="190"/>
       <c r="S27" s="190"/>
@@ -16294,50 +17954,20 @@
       <c r="AF27" s="186"/>
       <c r="AG27" s="186"/>
     </row>
-    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="71">
-        <f>-E61*ha_tyo!F28</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="63">
-        <f>-E61*ha_muu!F28</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="194"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="184">
-        <f>-E64*ka!F28</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="124">
-        <f>-E65*yhd!F28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="63">
-        <f>-E62*pa!F28</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="220">
-        <f>SUM(C28:L28)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="186"/>
-      <c r="O28" s="186"/>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="190"/>
-      <c r="R28" s="190"/>
-      <c r="S28" s="190"/>
-      <c r="T28" s="190"/>
+    <row r="28" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="193"/>
+      <c r="J28" s="193"/>
+      <c r="K28" s="193"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="186"/>
+      <c r="S28" s="186"/>
+      <c r="T28" s="186"/>
       <c r="U28" s="186"/>
-      <c r="V28" s="190"/>
-      <c r="W28" s="190"/>
-      <c r="X28" s="190"/>
-      <c r="Y28" s="190"/>
-      <c r="Z28" s="190"/>
+      <c r="V28" s="186"/>
+      <c r="W28" s="186"/>
+      <c r="X28" s="186"/>
+      <c r="Y28" s="186"/>
+      <c r="Z28" s="186"/>
       <c r="AA28" s="186"/>
       <c r="AB28" s="186"/>
       <c r="AC28" s="186"/>
@@ -16347,49 +17977,41 @@
       <c r="AG28" s="186"/>
     </row>
     <row r="29" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="87">
+        <f>Diskonttaus!B6</f>
+        <v>2050</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="195"/>
+      <c r="J29" s="193"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="168" t="s">
+        <v>65</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="93">
-        <f>SUM(C27:C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="182">
-        <f>SUM(D27:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="194"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="225">
-        <f>SUM(I27:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="65">
-        <f>SUM(J27:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="182">
-        <f>SUM(K27:K28)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="221">
-        <f>SUM(C29:L29)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="186"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="190"/>
-      <c r="Q29" s="190"/>
-      <c r="R29" s="190"/>
-      <c r="S29" s="190"/>
-      <c r="T29" s="190"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="189"/>
+      <c r="S29" s="186"/>
+      <c r="T29" s="186"/>
       <c r="U29" s="186"/>
-      <c r="V29" s="190"/>
-      <c r="W29" s="190"/>
-      <c r="X29" s="190"/>
-      <c r="Y29" s="190"/>
-      <c r="Z29" s="190"/>
+      <c r="V29" s="189"/>
+      <c r="W29" s="189"/>
+      <c r="X29" s="189"/>
+      <c r="Y29" s="186"/>
+      <c r="Z29" s="186"/>
       <c r="AA29" s="186"/>
       <c r="AB29" s="186"/>
       <c r="AC29" s="186"/>
@@ -16398,20 +18020,47 @@
       <c r="AF29" s="186"/>
       <c r="AG29" s="186"/>
     </row>
-    <row r="30" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N30" s="186"/>
-      <c r="O30" s="186"/>
-      <c r="P30" s="186"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="186"/>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B30" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="69">
+        <f>-E64*ha_tyo!F27</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="104">
+        <f>-E64*ha_muu!F27</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="194"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="224">
+        <f>-E67*ka!F27</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="70">
+        <f>-E68*yhd!F27</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="104">
+        <f>-E65*pa!F27</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="219">
+        <f>SUM(C30:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="190"/>
+      <c r="R30" s="190"/>
+      <c r="S30" s="190"/>
+      <c r="T30" s="190"/>
       <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="186"/>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="186"/>
-      <c r="Z30" s="186"/>
+      <c r="V30" s="190"/>
+      <c r="W30" s="190"/>
+      <c r="X30" s="190"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
       <c r="AA30" s="186"/>
       <c r="AB30" s="186"/>
       <c r="AC30" s="186"/>
@@ -16420,27 +18069,47 @@
       <c r="AF30" s="186"/>
       <c r="AG30" s="186"/>
     </row>
-    <row r="31" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="134" t="s">
-        <v>54</v>
-      </c>
-      <c r="M31" s="223">
-        <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!M24+Diskonttaus!B27*Kayttajahyodyt!M29,Diskonttaus!B26*Kayttajahyodyt!M24)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="186"/>
-      <c r="O31" s="186"/>
-      <c r="P31" s="186"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
+    <row r="31" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="71">
+        <f>-E64*ha_tyo!F28</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="63">
+        <f>-E64*ha_muu!F28</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="194"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="184">
+        <f>-E67*ka!F28</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="124">
+        <f>-E68*yhd!F28</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="63">
+        <f>-E65*pa!F28</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="220">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="190"/>
+      <c r="R31" s="190"/>
+      <c r="S31" s="190"/>
+      <c r="T31" s="190"/>
       <c r="U31" s="186"/>
-      <c r="V31" s="186"/>
-      <c r="W31" s="186"/>
-      <c r="X31" s="186"/>
-      <c r="Y31" s="186"/>
-      <c r="Z31" s="186"/>
+      <c r="V31" s="190"/>
+      <c r="W31" s="190"/>
+      <c r="X31" s="190"/>
+      <c r="Y31" s="190"/>
+      <c r="Z31" s="190"/>
       <c r="AA31" s="186"/>
       <c r="AB31" s="186"/>
       <c r="AC31" s="186"/>
@@ -16449,32 +18118,56 @@
       <c r="AF31" s="186"/>
       <c r="AG31" s="186"/>
     </row>
-    <row r="32" spans="1:33" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N32" s="191"/>
-      <c r="O32" s="191"/>
-      <c r="P32" s="191"/>
-      <c r="Q32" s="191"/>
-      <c r="R32" s="191"/>
-      <c r="S32" s="191"/>
-      <c r="T32" s="191"/>
-      <c r="U32" s="191"/>
-      <c r="V32" s="191"/>
-      <c r="W32" s="191"/>
-      <c r="X32" s="191"/>
-      <c r="Y32" s="191"/>
-      <c r="Z32" s="191"/>
-      <c r="AA32" s="191"/>
-      <c r="AB32" s="191"/>
-      <c r="AC32" s="191"/>
-      <c r="AD32" s="191"/>
-      <c r="AE32" s="191"/>
-      <c r="AF32" s="191"/>
-      <c r="AG32" s="191"/>
-    </row>
-    <row r="33" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N33" s="186"/>
-      <c r="O33" s="186"/>
-      <c r="P33" s="186"/>
+    <row r="32" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="93">
+        <f>SUM(C30:C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="182">
+        <f>SUM(D30:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="194"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="225">
+        <f>SUM(L30:L31)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="65">
+        <f>SUM(M30:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="182">
+        <f>SUM(N30:N31)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="221">
+        <f>SUM(C32:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="190"/>
+      <c r="R32" s="190"/>
+      <c r="S32" s="190"/>
+      <c r="T32" s="190"/>
+      <c r="U32" s="186"/>
+      <c r="V32" s="190"/>
+      <c r="W32" s="190"/>
+      <c r="X32" s="190"/>
+      <c r="Y32" s="190"/>
+      <c r="Z32" s="190"/>
+      <c r="AA32" s="186"/>
+      <c r="AB32" s="186"/>
+      <c r="AC32" s="186"/>
+      <c r="AD32" s="186"/>
+      <c r="AE32" s="186"/>
+      <c r="AF32" s="186"/>
+      <c r="AG32" s="186"/>
+    </row>
+    <row r="33" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q33" s="186"/>
       <c r="R33" s="186"/>
       <c r="S33" s="186"/>
@@ -16493,22 +18186,14 @@
       <c r="AF33" s="186"/>
       <c r="AG33" s="186"/>
     </row>
-    <row r="34" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="M34"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
+    <row r="34" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="134" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" s="223">
+        <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!P27+Diskonttaus!B27*Kayttajahyodyt!P32,Diskonttaus!B26*Kayttajahyodyt!P27)</f>
+        <v>0</v>
+      </c>
       <c r="Q34" s="186"/>
       <c r="R34" s="186"/>
       <c r="S34" s="186"/>
@@ -16527,404 +18212,356 @@
       <c r="AF34" s="186"/>
       <c r="AG34" s="186"/>
     </row>
-    <row r="35" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="M35"/>
-      <c r="N35" s="186"/>
-      <c r="O35" s="186"/>
-      <c r="P35" s="186"/>
-      <c r="Q35" s="186"/>
-      <c r="R35" s="186"/>
-      <c r="S35" s="186"/>
-      <c r="T35" s="186"/>
-      <c r="U35" s="186"/>
-      <c r="V35" s="186"/>
-      <c r="W35" s="186"/>
-      <c r="X35" s="186"/>
-      <c r="Y35" s="186"/>
-      <c r="Z35" s="186"/>
-      <c r="AA35" s="186"/>
-      <c r="AB35" s="186"/>
-      <c r="AC35" s="186"/>
-      <c r="AD35" s="186"/>
-      <c r="AE35" s="186"/>
-      <c r="AF35" s="186"/>
-      <c r="AG35" s="186"/>
-    </row>
-    <row r="36" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36"/>
-      <c r="B36" s="87">
-        <f>Diskonttaus!B4</f>
-        <v>2030</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="168" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="M36" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="N36" s="186"/>
-      <c r="O36" s="186"/>
-      <c r="P36" s="189"/>
-      <c r="Q36" s="189"/>
-      <c r="R36" s="189"/>
+    <row r="35" spans="1:33" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="191"/>
+      <c r="R35" s="191"/>
+      <c r="S35" s="191"/>
+      <c r="T35" s="191"/>
+      <c r="U35" s="191"/>
+      <c r="V35" s="191"/>
+      <c r="W35" s="191"/>
+      <c r="X35" s="191"/>
+      <c r="Y35" s="191"/>
+      <c r="Z35" s="191"/>
+      <c r="AA35" s="191"/>
+      <c r="AB35" s="191"/>
+      <c r="AC35" s="191"/>
+      <c r="AD35" s="191"/>
+      <c r="AE35" s="191"/>
+      <c r="AF35" s="191"/>
+      <c r="AG35" s="191"/>
+    </row>
+    <row r="36" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="186"/>
+      <c r="R36" s="186"/>
       <c r="S36" s="186"/>
       <c r="T36" s="186"/>
       <c r="U36" s="186"/>
-      <c r="V36" s="189"/>
-      <c r="W36" s="189"/>
-      <c r="X36" s="189"/>
+      <c r="V36" s="186"/>
+      <c r="W36" s="186"/>
+      <c r="X36" s="186"/>
       <c r="Y36" s="186"/>
       <c r="Z36" s="186"/>
       <c r="AA36" s="186"/>
-      <c r="AB36" s="189"/>
-      <c r="AC36" s="189"/>
-      <c r="AD36" s="189"/>
+      <c r="AB36" s="186"/>
+      <c r="AC36" s="186"/>
+      <c r="AD36" s="186"/>
       <c r="AE36" s="186"/>
       <c r="AF36" s="186"/>
       <c r="AG36" s="186"/>
     </row>
-    <row r="37" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
-      <c r="B37" s="56" t="s">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="P37"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
+      <c r="S37" s="186"/>
+      <c r="T37" s="186"/>
+      <c r="U37" s="186"/>
+      <c r="V37" s="186"/>
+      <c r="W37" s="186"/>
+      <c r="X37" s="186"/>
+      <c r="Y37" s="186"/>
+      <c r="Z37" s="186"/>
+      <c r="AA37" s="186"/>
+      <c r="AB37" s="186"/>
+      <c r="AC37" s="186"/>
+      <c r="AD37" s="186"/>
+      <c r="AE37" s="186"/>
+      <c r="AF37" s="186"/>
+      <c r="AG37" s="186"/>
+    </row>
+    <row r="38" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="P38"/>
+      <c r="Q38" s="186"/>
+      <c r="R38" s="186"/>
+      <c r="S38" s="186"/>
+      <c r="T38" s="186"/>
+      <c r="U38" s="186"/>
+      <c r="V38" s="186"/>
+      <c r="W38" s="186"/>
+      <c r="X38" s="186"/>
+      <c r="Y38" s="186"/>
+      <c r="Z38" s="186"/>
+      <c r="AA38" s="186"/>
+      <c r="AB38" s="186"/>
+      <c r="AC38" s="186"/>
+      <c r="AD38" s="186"/>
+      <c r="AE38" s="186"/>
+      <c r="AF38" s="186"/>
+      <c r="AG38" s="186"/>
+    </row>
+    <row r="39" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39" s="87">
+        <f>Diskonttaus!B4</f>
+        <v>2030</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="186" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="186" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="186" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="168" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="189"/>
+      <c r="R39" s="189"/>
+      <c r="S39" s="186"/>
+      <c r="T39" s="186"/>
+      <c r="U39" s="186"/>
+      <c r="V39" s="189"/>
+      <c r="W39" s="189"/>
+      <c r="X39" s="189"/>
+      <c r="Y39" s="186"/>
+      <c r="Z39" s="186"/>
+      <c r="AA39" s="186"/>
+      <c r="AB39" s="189"/>
+      <c r="AC39" s="189"/>
+      <c r="AD39" s="189"/>
+      <c r="AE39" s="186"/>
+      <c r="AF39" s="186"/>
+      <c r="AG39" s="186"/>
+    </row>
+    <row r="40" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="184">
+      <c r="C40" s="184">
         <f>-ha_tyo!F37</f>
         <v>0</v>
       </c>
-      <c r="D37" s="123">
+      <c r="D40" s="123">
         <f>-ha_muu!F37</f>
         <v>0</v>
       </c>
-      <c r="E37" s="123">
+      <c r="E40" s="123">
         <f>-jl_tyo!F37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="81">
+      <c r="F40" s="81">
         <f>-jl_muu!F37</f>
         <v>0</v>
       </c>
-      <c r="G37"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="224">
+      <c r="G40" s="13">
+        <f>-juna!F37</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <f>-lento!F37</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <f>-kaukob!F37</f>
+        <v>0</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40" s="194"/>
+      <c r="L40" s="224">
         <f>-ka!F37</f>
         <v>0</v>
       </c>
-      <c r="J37" s="70">
+      <c r="M40" s="70">
         <f>-yhd!F37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="192">
+      <c r="N40" s="192">
         <f>-pa!F37</f>
         <v>0</v>
       </c>
-      <c r="M37" s="219">
-        <f>SUM(C37:L37)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="186"/>
-      <c r="O37" s="186"/>
-      <c r="P37" s="190"/>
-      <c r="Q37" s="190"/>
-      <c r="R37" s="190"/>
-      <c r="S37" s="190"/>
-      <c r="T37" s="190"/>
-      <c r="U37" s="186"/>
-      <c r="V37" s="190"/>
-      <c r="W37" s="190"/>
-      <c r="X37" s="190"/>
-      <c r="Y37" s="190"/>
-      <c r="Z37" s="190"/>
-      <c r="AA37" s="186"/>
-      <c r="AB37" s="190"/>
-      <c r="AC37" s="190"/>
-      <c r="AD37" s="190"/>
-      <c r="AE37" s="190"/>
-      <c r="AF37" s="190"/>
-      <c r="AG37" s="186"/>
-    </row>
-    <row r="38" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38" s="35" t="s">
+      <c r="P40" s="219">
+        <f>SUM(C40:O40)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="190"/>
+      <c r="R40" s="190"/>
+      <c r="S40" s="190"/>
+      <c r="T40" s="190"/>
+      <c r="U40" s="186"/>
+      <c r="V40" s="190"/>
+      <c r="W40" s="190"/>
+      <c r="X40" s="190"/>
+      <c r="Y40" s="190"/>
+      <c r="Z40" s="190"/>
+      <c r="AA40" s="186"/>
+      <c r="AB40" s="190"/>
+      <c r="AC40" s="190"/>
+      <c r="AD40" s="190"/>
+      <c r="AE40" s="190"/>
+      <c r="AF40" s="190"/>
+      <c r="AG40" s="186"/>
+    </row>
+    <row r="41" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="185">
+      <c r="C41" s="185">
         <f>-ha_tyo!F38</f>
         <v>0</v>
       </c>
-      <c r="D38" s="124">
+      <c r="D41" s="124">
         <f>-ha_muu!F38</f>
         <v>0</v>
       </c>
-      <c r="E38" s="124">
+      <c r="E41" s="124">
         <f>-jl_tyo!F38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F41" s="122">
         <f>-jl_muu!F38</f>
         <v>0</v>
       </c>
-      <c r="G38"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="185">
+      <c r="G41" s="13">
+        <f>-juna!F38</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <f>-lento!F38</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <f>-kaukob!F38</f>
+        <v>0</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="185">
         <f>-ka!F38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="124">
+      <c r="M41" s="124">
         <f>-yhd!F38</f>
         <v>0</v>
       </c>
-      <c r="K38" s="122">
+      <c r="N41" s="122">
         <f>-pa!F38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="220">
-        <f>SUM(C38:L38)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="186"/>
-      <c r="O38" s="186"/>
-      <c r="P38" s="190"/>
-      <c r="Q38" s="190"/>
-      <c r="R38" s="190"/>
-      <c r="S38" s="190"/>
-      <c r="T38" s="190"/>
-      <c r="U38" s="186"/>
-      <c r="V38" s="190"/>
-      <c r="W38" s="190"/>
-      <c r="X38" s="190"/>
-      <c r="Y38" s="190"/>
-      <c r="Z38" s="190"/>
-      <c r="AA38" s="186"/>
-      <c r="AB38" s="190"/>
-      <c r="AC38" s="190"/>
-      <c r="AD38" s="190"/>
-      <c r="AE38" s="190"/>
-      <c r="AF38" s="190"/>
-      <c r="AG38" s="186"/>
-    </row>
-    <row r="39" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39"/>
-      <c r="B39" s="57" t="s">
+      <c r="P41" s="220">
+        <f>SUM(C41:O41)</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="190"/>
+      <c r="R41" s="190"/>
+      <c r="S41" s="190"/>
+      <c r="T41" s="190"/>
+      <c r="U41" s="186"/>
+      <c r="V41" s="190"/>
+      <c r="W41" s="190"/>
+      <c r="X41" s="190"/>
+      <c r="Y41" s="190"/>
+      <c r="Z41" s="190"/>
+      <c r="AA41" s="186"/>
+      <c r="AB41" s="190"/>
+      <c r="AC41" s="190"/>
+      <c r="AD41" s="190"/>
+      <c r="AE41" s="190"/>
+      <c r="AF41" s="190"/>
+      <c r="AG41" s="186"/>
+    </row>
+    <row r="42" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="225">
-        <f>SUM(C37:C38)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65">
-        <f>SUM(D37:D38)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="65">
-        <f>SUM(E37:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="76">
-        <f>SUM(F37:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="225">
-        <f>SUM(I37:I38)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="65">
-        <f>SUM(J37:J38)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="76">
-        <f>SUM(K37:K38)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="221">
-        <f>SUM(C39:L39)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="186"/>
-      <c r="O39" s="186"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="190"/>
-      <c r="S39" s="190"/>
-      <c r="T39" s="190"/>
-      <c r="U39" s="186"/>
-      <c r="V39" s="190"/>
-      <c r="W39" s="190"/>
-      <c r="X39" s="190"/>
-      <c r="Y39" s="190"/>
-      <c r="Z39" s="190"/>
-      <c r="AA39" s="186"/>
-      <c r="AB39" s="190"/>
-      <c r="AC39" s="190"/>
-      <c r="AD39" s="190"/>
-      <c r="AE39" s="190"/>
-      <c r="AF39" s="190"/>
-      <c r="AG39" s="186"/>
-    </row>
-    <row r="40" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40" s="193"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="M40"/>
-      <c r="N40" s="186"/>
-      <c r="O40" s="186"/>
-      <c r="P40" s="186"/>
-      <c r="Q40" s="186"/>
-      <c r="R40" s="186"/>
-      <c r="S40" s="186"/>
-      <c r="T40" s="186"/>
-      <c r="U40" s="186"/>
-      <c r="V40" s="186"/>
-      <c r="W40" s="186"/>
-      <c r="X40" s="186"/>
-      <c r="Y40" s="186"/>
-      <c r="Z40" s="186"/>
-      <c r="AA40" s="186"/>
-      <c r="AB40" s="186"/>
-      <c r="AC40" s="186"/>
-      <c r="AD40" s="186"/>
-      <c r="AE40" s="186"/>
-      <c r="AF40" s="186"/>
-      <c r="AG40" s="186"/>
-    </row>
-    <row r="41" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41"/>
-      <c r="B41" s="87">
-        <f>Diskonttaus!B6</f>
-        <v>2050</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="G41"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="168" t="s">
-        <v>65</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="K41" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="M41" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41" s="186"/>
-      <c r="O41" s="186"/>
-      <c r="P41" s="189"/>
-      <c r="Q41" s="189"/>
-      <c r="R41" s="189"/>
-      <c r="S41" s="186"/>
-      <c r="T41" s="186"/>
-      <c r="U41" s="186"/>
-      <c r="V41" s="189"/>
-      <c r="W41" s="189"/>
-      <c r="X41" s="189"/>
-      <c r="Y41" s="186"/>
-      <c r="Z41" s="186"/>
-      <c r="AA41" s="186"/>
-      <c r="AB41" s="189"/>
-      <c r="AC41" s="189"/>
-      <c r="AD41" s="189"/>
-      <c r="AE41" s="186"/>
-      <c r="AF41" s="186"/>
-      <c r="AG41" s="186"/>
-    </row>
-    <row r="42" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="184">
-        <f>-ha_tyo!F42</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="123">
-        <f>-ha_muu!F42</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="123">
-        <f>-jl_tyo!F42</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="81">
-        <f>-jl_muu!F42</f>
-        <v>0</v>
-      </c>
-      <c r="G42"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="224">
-        <f>-ka!F42</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="70">
-        <f>-yhd!G42</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="192">
-        <f>-pa!F42</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="219">
-        <f>SUM(C42:L42)</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="186"/>
-      <c r="O42" s="186"/>
-      <c r="P42" s="190"/>
+      <c r="C42" s="225">
+        <f>SUM(C40:C41)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="65">
+        <f>SUM(D40:D41)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="65">
+        <f>SUM(E40:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="76">
+        <f>SUM(F40:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="76">
+        <f t="shared" ref="G42:I42" si="4">SUM(G40:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42" s="194"/>
+      <c r="L42" s="225">
+        <f>SUM(L40:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="65">
+        <f>SUM(M40:M41)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="76">
+        <f>SUM(N40:N41)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="221">
+        <f>SUM(C42:O42)</f>
+        <v>0</v>
+      </c>
       <c r="Q42" s="190"/>
       <c r="R42" s="190"/>
       <c r="S42" s="190"/>
@@ -16943,248 +18580,316 @@
       <c r="AF42" s="190"/>
       <c r="AG42" s="186"/>
     </row>
-    <row r="43" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43"/>
-      <c r="B43" s="35" t="s">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="J43"/>
+      <c r="K43" s="193"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="P43"/>
+      <c r="Q43" s="186"/>
+      <c r="R43" s="186"/>
+      <c r="S43" s="186"/>
+      <c r="T43" s="186"/>
+      <c r="U43" s="186"/>
+      <c r="V43" s="186"/>
+      <c r="W43" s="186"/>
+      <c r="X43" s="186"/>
+      <c r="Y43" s="186"/>
+      <c r="Z43" s="186"/>
+      <c r="AA43" s="186"/>
+      <c r="AB43" s="186"/>
+      <c r="AC43" s="186"/>
+      <c r="AD43" s="186"/>
+      <c r="AE43" s="186"/>
+      <c r="AF43" s="186"/>
+      <c r="AG43" s="186"/>
+    </row>
+    <row r="44" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+      <c r="B44" s="87">
+        <f>Diskonttaus!B6</f>
+        <v>2050</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="186" t="s">
+        <v>221</v>
+      </c>
+      <c r="H44" s="186" t="s">
+        <v>222</v>
+      </c>
+      <c r="I44" s="186" t="s">
+        <v>223</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44" s="193"/>
+      <c r="L44" s="168" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N44" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="189"/>
+      <c r="R44" s="189"/>
+      <c r="S44" s="186"/>
+      <c r="T44" s="186"/>
+      <c r="U44" s="186"/>
+      <c r="V44" s="189"/>
+      <c r="W44" s="189"/>
+      <c r="X44" s="189"/>
+      <c r="Y44" s="186"/>
+      <c r="Z44" s="186"/>
+      <c r="AA44" s="186"/>
+      <c r="AB44" s="189"/>
+      <c r="AC44" s="189"/>
+      <c r="AD44" s="189"/>
+      <c r="AE44" s="186"/>
+      <c r="AF44" s="186"/>
+      <c r="AG44" s="186"/>
+    </row>
+    <row r="45" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="184">
+        <f>-ha_tyo!F42</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="123">
+        <f>-ha_muu!F42</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="123">
+        <f>-jl_tyo!F42</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="81">
+        <f>-jl_muu!F42</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
+        <f>-juna!F42</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <f>-lento!F42</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <f>-kaukob!F42</f>
+        <v>0</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45" s="194"/>
+      <c r="L45" s="224">
+        <f>-ka!F42</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="70">
+        <f>-yhd!G42</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="192">
+        <f>-pa!F42</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="219">
+        <f>SUM(C45:O45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="190"/>
+      <c r="R45" s="190"/>
+      <c r="S45" s="190"/>
+      <c r="T45" s="190"/>
+      <c r="U45" s="186"/>
+      <c r="V45" s="190"/>
+      <c r="W45" s="190"/>
+      <c r="X45" s="190"/>
+      <c r="Y45" s="190"/>
+      <c r="Z45" s="190"/>
+      <c r="AA45" s="186"/>
+      <c r="AB45" s="190"/>
+      <c r="AC45" s="190"/>
+      <c r="AD45" s="190"/>
+      <c r="AE45" s="190"/>
+      <c r="AF45" s="190"/>
+      <c r="AG45" s="186"/>
+    </row>
+    <row r="46" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="185">
+      <c r="C46" s="185">
         <f>-ha_tyo!F43</f>
         <v>0</v>
       </c>
-      <c r="D43" s="124">
+      <c r="D46" s="124">
         <f>-ha_muu!F43</f>
         <v>0</v>
       </c>
-      <c r="E43" s="124">
+      <c r="E46" s="124">
         <f>-jl_tyo!F43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="81">
+      <c r="F46" s="81">
         <f>-jl_muu!F43</f>
         <v>0</v>
       </c>
-      <c r="G43"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="184">
+      <c r="G46" s="13">
+        <f>-juna!F43</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <f>-lento!F43</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <f>-kaukob!F43</f>
+        <v>0</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="184">
         <f>-ka!F43</f>
         <v>0</v>
       </c>
-      <c r="J43" s="124">
+      <c r="M46" s="124">
         <f>-yhd!G43</f>
         <v>0</v>
       </c>
-      <c r="K43" s="122">
+      <c r="N46" s="122">
         <f>-pa!F43</f>
         <v>0</v>
       </c>
-      <c r="M43" s="220">
-        <f>SUM(C43:L43)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="186"/>
-      <c r="O43" s="186"/>
-      <c r="P43" s="190"/>
-      <c r="Q43" s="190"/>
-      <c r="R43" s="190"/>
-      <c r="S43" s="190"/>
-      <c r="T43" s="190"/>
-      <c r="U43" s="186"/>
-      <c r="V43" s="190"/>
-      <c r="W43" s="190"/>
-      <c r="X43" s="190"/>
-      <c r="Y43" s="190"/>
-      <c r="Z43" s="190"/>
-      <c r="AA43" s="186"/>
-      <c r="AB43" s="190"/>
-      <c r="AC43" s="190"/>
-      <c r="AD43" s="190"/>
-      <c r="AE43" s="190"/>
-      <c r="AF43" s="190"/>
-      <c r="AG43" s="186"/>
-    </row>
-    <row r="44" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44"/>
-      <c r="B44" s="57" t="s">
+      <c r="P46" s="220">
+        <f>SUM(C46:O46)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="190"/>
+      <c r="R46" s="190"/>
+      <c r="S46" s="190"/>
+      <c r="T46" s="190"/>
+      <c r="U46" s="186"/>
+      <c r="V46" s="190"/>
+      <c r="W46" s="190"/>
+      <c r="X46" s="190"/>
+      <c r="Y46" s="190"/>
+      <c r="Z46" s="190"/>
+      <c r="AA46" s="186"/>
+      <c r="AB46" s="190"/>
+      <c r="AC46" s="190"/>
+      <c r="AD46" s="190"/>
+      <c r="AE46" s="190"/>
+      <c r="AF46" s="190"/>
+      <c r="AG46" s="186"/>
+    </row>
+    <row r="47" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="53">
-        <f>SUM(C42:C43)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="46">
-        <f>SUM(D42:D43)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="65">
-        <f>SUM(E42:E43)</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="76">
-        <f>SUM(F42:F43)</f>
-        <v>0</v>
-      </c>
-      <c r="G44"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="225">
-        <f>SUM(I42:I43)</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="65">
-        <f>SUM(J42:J43)</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="76">
-        <f>SUM(K42:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="221">
-        <f>SUM(C44:L44)</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="186"/>
-      <c r="O44" s="186"/>
-      <c r="P44" s="190"/>
-      <c r="Q44" s="190"/>
-      <c r="R44" s="190"/>
-      <c r="S44" s="190"/>
-      <c r="T44" s="190"/>
-      <c r="U44" s="186"/>
-      <c r="V44" s="190"/>
-      <c r="W44" s="190"/>
-      <c r="X44" s="190"/>
-      <c r="Y44" s="190"/>
-      <c r="Z44" s="190"/>
-      <c r="AA44" s="186"/>
-      <c r="AB44" s="190"/>
-      <c r="AC44" s="190"/>
-      <c r="AD44" s="190"/>
-      <c r="AE44" s="190"/>
-      <c r="AF44" s="190"/>
-      <c r="AG44" s="186"/>
-    </row>
-    <row r="45" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193"/>
-      <c r="K45"/>
-      <c r="M45"/>
-      <c r="N45" s="186"/>
-      <c r="O45" s="186"/>
-      <c r="P45" s="186"/>
-      <c r="Q45" s="186"/>
-      <c r="R45" s="186"/>
-      <c r="S45" s="186"/>
-      <c r="T45" s="186"/>
-      <c r="U45" s="186"/>
-      <c r="V45" s="186"/>
-      <c r="W45" s="186"/>
-      <c r="X45" s="186"/>
-      <c r="Y45" s="186"/>
-      <c r="Z45" s="186"/>
-      <c r="AA45" s="186"/>
-      <c r="AB45" s="186"/>
-      <c r="AC45" s="186"/>
-      <c r="AD45" s="186"/>
-      <c r="AE45" s="186"/>
-      <c r="AF45" s="186"/>
-      <c r="AG45" s="186"/>
-    </row>
-    <row r="46" spans="1:34" s="183" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46"/>
-      <c r="B46" s="128" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="193"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="193"/>
-      <c r="F46" s="193"/>
-      <c r="G46" s="193"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="193"/>
-      <c r="K46" s="193"/>
-      <c r="M46" s="223">
-        <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!M39+Diskonttaus!B27*Kayttajahyodyt!M44,Diskonttaus!B26*Kayttajahyodyt!M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="186"/>
-      <c r="O46" s="186"/>
-      <c r="P46" s="186"/>
-      <c r="Q46" s="186"/>
-      <c r="R46" s="186"/>
-      <c r="S46" s="186"/>
-      <c r="T46" s="186"/>
-      <c r="U46" s="186"/>
-      <c r="V46" s="186"/>
-      <c r="W46" s="186"/>
-      <c r="X46" s="186"/>
-      <c r="Y46" s="186"/>
-      <c r="Z46" s="186"/>
-      <c r="AA46" s="186"/>
-      <c r="AB46" s="186"/>
-      <c r="AC46" s="186"/>
-      <c r="AD46" s="186"/>
-      <c r="AE46" s="186"/>
-      <c r="AF46" s="186"/>
-      <c r="AG46" s="186"/>
-    </row>
-    <row r="47" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
+      <c r="C47" s="53">
+        <f>SUM(C45:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="46">
+        <f>SUM(D45:D46)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="65">
+        <f>SUM(E45:E46)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="76">
+        <f>SUM(F45:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="76">
+        <f t="shared" ref="G47:I47" si="5">SUM(G45:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J47"/>
-      <c r="K47"/>
-      <c r="M47"/>
-      <c r="N47" s="186"/>
-      <c r="O47" s="186"/>
-      <c r="P47" s="186"/>
-      <c r="Q47" s="186"/>
-      <c r="R47" s="186"/>
-      <c r="S47" s="186"/>
-      <c r="T47" s="186"/>
+      <c r="K47" s="193"/>
+      <c r="L47" s="225">
+        <f>SUM(L45:L46)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="65">
+        <f>SUM(M45:M46)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="76">
+        <f>SUM(N45:N46)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="221">
+        <f>SUM(C47:O47)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="190"/>
+      <c r="R47" s="190"/>
+      <c r="S47" s="190"/>
+      <c r="T47" s="190"/>
       <c r="U47" s="186"/>
-      <c r="V47" s="186"/>
-      <c r="W47" s="186"/>
-      <c r="X47" s="186"/>
-      <c r="Y47" s="186"/>
-      <c r="Z47" s="186"/>
+      <c r="V47" s="190"/>
+      <c r="W47" s="190"/>
+      <c r="X47" s="190"/>
+      <c r="Y47" s="190"/>
+      <c r="Z47" s="190"/>
       <c r="AA47" s="186"/>
-      <c r="AB47" s="186"/>
-      <c r="AC47" s="186"/>
-      <c r="AD47" s="186"/>
-      <c r="AE47" s="186"/>
-      <c r="AF47" s="186"/>
+      <c r="AB47" s="190"/>
+      <c r="AC47" s="190"/>
+      <c r="AD47" s="190"/>
+      <c r="AE47" s="190"/>
+      <c r="AF47" s="190"/>
       <c r="AG47" s="186"/>
     </row>
-    <row r="48" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
       <c r="J48"/>
-      <c r="K48"/>
+      <c r="K48" s="193"/>
+      <c r="L48" s="193"/>
+      <c r="M48" s="193"/>
       <c r="N48"/>
-      <c r="O48" s="186"/>
-      <c r="P48" s="186"/>
+      <c r="P48"/>
       <c r="Q48" s="186"/>
       <c r="R48" s="186"/>
       <c r="S48" s="186"/>
@@ -17202,23 +18907,25 @@
       <c r="AE48" s="186"/>
       <c r="AF48" s="186"/>
       <c r="AG48" s="186"/>
-      <c r="AH48" s="186"/>
-    </row>
-    <row r="49" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:34" s="183" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="N49"/>
-      <c r="O49" s="186"/>
-      <c r="P49" s="186"/>
+      <c r="B49" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="193"/>
+      <c r="D49" s="193"/>
+      <c r="E49" s="193"/>
+      <c r="F49" s="193"/>
+      <c r="J49" s="193"/>
+      <c r="K49" s="193"/>
+      <c r="L49" s="193"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="193"/>
+      <c r="P49" s="223">
+        <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!P42+Diskonttaus!B27*Kayttajahyodyt!P47,Diskonttaus!B26*Kayttajahyodyt!P42)</f>
+        <v>0</v>
+      </c>
       <c r="Q49" s="186"/>
       <c r="R49" s="186"/>
       <c r="S49" s="186"/>
@@ -17236,11 +18943,20 @@
       <c r="AE49" s="186"/>
       <c r="AF49" s="186"/>
       <c r="AG49" s="186"/>
-      <c r="AH49" s="186"/>
     </row>
     <row r="50" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O50" s="186"/>
-      <c r="P50" s="186"/>
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="P50"/>
       <c r="Q50" s="186"/>
       <c r="R50" s="186"/>
       <c r="S50" s="186"/>
@@ -17258,531 +18974,620 @@
       <c r="AE50" s="186"/>
       <c r="AF50" s="186"/>
       <c r="AG50" s="186"/>
-      <c r="AH50" s="186"/>
-    </row>
-    <row r="57" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="121" t="s">
+    </row>
+    <row r="51" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="N51"/>
+      <c r="O51" s="186"/>
+      <c r="P51" s="186"/>
+      <c r="Q51" s="186"/>
+      <c r="R51" s="186"/>
+      <c r="S51" s="186"/>
+      <c r="T51" s="186"/>
+      <c r="U51" s="186"/>
+      <c r="V51" s="186"/>
+      <c r="W51" s="186"/>
+      <c r="X51" s="186"/>
+      <c r="Y51" s="186"/>
+      <c r="Z51" s="186"/>
+      <c r="AA51" s="186"/>
+      <c r="AB51" s="186"/>
+      <c r="AC51" s="186"/>
+      <c r="AD51" s="186"/>
+      <c r="AE51" s="186"/>
+      <c r="AF51" s="186"/>
+      <c r="AG51" s="186"/>
+      <c r="AH51" s="186"/>
+    </row>
+    <row r="52" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="N52"/>
+      <c r="O52" s="186"/>
+      <c r="P52" s="186"/>
+      <c r="Q52" s="186"/>
+      <c r="R52" s="186"/>
+      <c r="S52" s="186"/>
+      <c r="T52" s="186"/>
+      <c r="U52" s="186"/>
+      <c r="V52" s="186"/>
+      <c r="W52" s="186"/>
+      <c r="X52" s="186"/>
+      <c r="Y52" s="186"/>
+      <c r="Z52" s="186"/>
+      <c r="AA52" s="186"/>
+      <c r="AB52" s="186"/>
+      <c r="AC52" s="186"/>
+      <c r="AD52" s="186"/>
+      <c r="AE52" s="186"/>
+      <c r="AF52" s="186"/>
+      <c r="AG52" s="186"/>
+      <c r="AH52" s="186"/>
+    </row>
+    <row r="53" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="186"/>
+      <c r="P53" s="186"/>
+      <c r="Q53" s="186"/>
+      <c r="R53" s="186"/>
+      <c r="S53" s="186"/>
+      <c r="T53" s="186"/>
+      <c r="U53" s="186"/>
+      <c r="V53" s="186"/>
+      <c r="W53" s="186"/>
+      <c r="X53" s="186"/>
+      <c r="Y53" s="186"/>
+      <c r="Z53" s="186"/>
+      <c r="AA53" s="186"/>
+      <c r="AB53" s="186"/>
+      <c r="AC53" s="186"/>
+      <c r="AD53" s="186"/>
+      <c r="AE53" s="186"/>
+      <c r="AF53" s="186"/>
+      <c r="AG53" s="186"/>
+      <c r="AH53" s="186"/>
+    </row>
+    <row r="60" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="121" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="41" t="s">
+    <row r="62" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="31" t="s">
+    <row r="63" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C63" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D63" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E63" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B61" s="26" t="s">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B64" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="144">
+      <c r="C64" s="144">
         <f>0.01*6.73</f>
         <v>6.7300000000000013E-2</v>
       </c>
-      <c r="D61" s="145">
+      <c r="D64" s="145">
         <f>0.01*6.06</f>
         <v>6.0599999999999994E-2</v>
       </c>
-      <c r="E61" s="146">
-        <f>C61+D61</f>
+      <c r="E64" s="146">
+        <f>C64+D64</f>
         <v>0.12790000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B62" s="38" t="s">
+    <row r="65" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B65" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="147">
+      <c r="C65" s="147">
         <f>0.01*10.69</f>
         <v>0.1069</v>
       </c>
-      <c r="D62" s="148">
+      <c r="D65" s="148">
         <f>0.01*8.11</f>
         <v>8.1099999999999992E-2</v>
       </c>
-      <c r="E62" s="226">
-        <f>C62+D62</f>
+      <c r="E65" s="226">
+        <f>C65+D65</f>
         <v>0.188</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B63" s="38" t="s">
+    <row r="66" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B66" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="147">
+      <c r="C66" s="147">
         <f>0.01*30.9</f>
         <v>0.309</v>
       </c>
-      <c r="D63" s="148">
+      <c r="D66" s="148">
         <f>0.01*13.25</f>
         <v>0.13250000000000001</v>
       </c>
-      <c r="E63" s="226">
-        <f t="shared" ref="E63:E65" si="4">C63+D63</f>
+      <c r="E66" s="226">
+        <f t="shared" ref="E66:E68" si="6">C66+D66</f>
         <v>0.4415</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B64" s="38" t="s">
+    <row r="67" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B67" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="147">
+      <c r="C67" s="147">
         <f>0.01*22.34</f>
         <v>0.22340000000000002</v>
       </c>
-      <c r="D64" s="148">
+      <c r="D67" s="148">
         <f>0.01*9.55</f>
         <v>9.5500000000000015E-2</v>
       </c>
-      <c r="E64" s="226">
-        <f t="shared" si="4"/>
+      <c r="E67" s="226">
+        <f t="shared" si="6"/>
         <v>0.31890000000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="39" t="s">
+    <row r="68" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="149">
+      <c r="C68" s="149">
         <f>0.01*40</f>
         <v>0.4</v>
       </c>
-      <c r="D65" s="150">
+      <c r="D68" s="150">
         <f>0.01*24.74</f>
         <v>0.24739999999999998</v>
       </c>
-      <c r="E65" s="227">
-        <f t="shared" si="4"/>
+      <c r="E68" s="227">
+        <f t="shared" si="6"/>
         <v>0.64739999999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
-      <c r="XFD66" s="40"/>
-    </row>
-    <row r="68" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="31" t="s">
+    <row r="69" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD69" s="40"/>
+    </row>
+    <row r="71" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C72" s="32">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="H69" s="31" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="H72" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I69" s="32">
+      <c r="I72" s="32">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="N69" s="31" t="s">
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="N72" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="O69" s="32">
+      <c r="O72" s="32">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-    </row>
-    <row r="70" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B70" s="21" t="s">
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+    </row>
+    <row r="73" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B73" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="24">
+      <c r="C73" s="24">
         <f>300*Ulkoisvaikutukset!O19</f>
         <v>0</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="H70" s="26" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="H73" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I70" s="96">
-        <f>$D61*C70</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="97"/>
-      <c r="K70" s="175"/>
-      <c r="N70" s="26" t="s">
+      <c r="I73" s="96">
+        <f>$D64*C73</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="97"/>
+      <c r="K73" s="175"/>
+      <c r="N73" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O70" s="96">
-        <f>$C61*C70</f>
-        <v>0</v>
-      </c>
-      <c r="P70" s="97"/>
-      <c r="Q70" s="175"/>
-    </row>
-    <row r="71" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B71" s="35" t="s">
+      <c r="O73" s="96">
+        <f>$C64*C73</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="97"/>
+      <c r="Q73" s="175"/>
+    </row>
+    <row r="74" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B74" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="36">
+      <c r="C74" s="36">
         <f>300*(Ulkoisvaikutukset!O20)</f>
         <v>0</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="H71" s="38" t="s">
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="H74" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I71" s="98">
-        <f>$D62*C71</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="99"/>
-      <c r="K71" s="176"/>
-      <c r="N71" s="38" t="s">
+      <c r="I74" s="98">
+        <f>$D65*C74</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="99"/>
+      <c r="K74" s="176"/>
+      <c r="N74" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="O71" s="98">
-        <f>$C62*C71</f>
-        <v>0</v>
-      </c>
-      <c r="P71" s="99"/>
-      <c r="Q71" s="176"/>
-    </row>
-    <row r="72" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B72" s="35" t="s">
+      <c r="O74" s="98">
+        <f>$C65*C74</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="99"/>
+      <c r="Q74" s="176"/>
+    </row>
+    <row r="75" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B75" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="36">
+      <c r="C75" s="36">
         <f>300*Ulkoisvaikutukset!O15</f>
         <v>0</v>
       </c>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="H72" s="38" t="s">
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="H75" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I72" s="98">
-        <f>$D63*C72</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="99"/>
-      <c r="K72" s="176"/>
-      <c r="N72" s="38" t="s">
+      <c r="I75" s="98">
+        <f>$D66*C75</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="99"/>
+      <c r="K75" s="176"/>
+      <c r="N75" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O72" s="98">
-        <f>$C63*C72</f>
-        <v>0</v>
-      </c>
-      <c r="P72" s="99"/>
-      <c r="Q72" s="176"/>
-    </row>
-    <row r="73" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B73" s="35" t="s">
+      <c r="O75" s="98">
+        <f>$C66*C75</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="99"/>
+      <c r="Q75" s="176"/>
+    </row>
+    <row r="76" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B76" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="36">
+      <c r="C76" s="36">
         <f>300*Ulkoisvaikutukset!O21</f>
         <v>0</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="H73" s="38" t="s">
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="H76" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="I73" s="98">
-        <f>$D64*C73</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="99"/>
-      <c r="K73" s="176"/>
-      <c r="N73" s="38" t="s">
+      <c r="I76" s="98">
+        <f>$D67*C76</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="99"/>
+      <c r="K76" s="176"/>
+      <c r="N76" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="O73" s="98">
-        <f>$C64*C73</f>
-        <v>0</v>
-      </c>
-      <c r="P73" s="99"/>
-      <c r="Q73" s="176"/>
-    </row>
-    <row r="74" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="33" t="s">
+      <c r="O76" s="98">
+        <f>$C67*C76</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="99"/>
+      <c r="Q76" s="176"/>
+    </row>
+    <row r="77" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="25">
+      <c r="C77" s="25">
         <f>300*Ulkoisvaikutukset!O22</f>
         <v>0</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="H74" s="39" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="H77" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I74" s="100">
-        <f>$D65*C74</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="101"/>
-      <c r="K74" s="177"/>
-      <c r="N74" s="39" t="s">
+      <c r="I77" s="100">
+        <f>$D68*C77</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="101"/>
+      <c r="K77" s="177"/>
+      <c r="N77" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="O74" s="100">
-        <f>$C65*C74</f>
-        <v>0</v>
-      </c>
-      <c r="P74" s="101"/>
-      <c r="Q74" s="177"/>
-    </row>
-    <row r="75" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H75" s="10" t="s">
+      <c r="O77" s="100">
+        <f>$C68*C77</f>
+        <v>0</v>
+      </c>
+      <c r="P77" s="101"/>
+      <c r="Q77" s="177"/>
+    </row>
+    <row r="78" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H78" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I75" s="102">
-        <f>SUM(I70:I74)</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="102"/>
-      <c r="K75" s="102"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="10" t="s">
+      <c r="I78" s="102">
+        <f>SUM(I73:I77)</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="102"/>
+      <c r="K78" s="102"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O75" s="102">
-        <f>SUM(O70:O74)</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="102"/>
-      <c r="Q75" s="102"/>
-    </row>
-    <row r="76" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="31" t="s">
+      <c r="O78" s="102">
+        <f>SUM(O73:O77)</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="102"/>
+      <c r="Q78" s="102"/>
+    </row>
+    <row r="79" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="32">
+      <c r="C79" s="32">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="H76" s="31" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="H79" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I76" s="32">
+      <c r="I79" s="32">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="N76" s="31" t="s">
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="N79" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="O76" s="32">
+      <c r="O79" s="32">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-    </row>
-    <row r="77" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B77" s="21" t="s">
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+    </row>
+    <row r="80" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
+      <c r="B80" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C80" s="24">
         <f>300*Ulkoisvaikutukset!O32</f>
         <v>0</v>
       </c>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="H77" s="26" t="s">
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="H80" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I77" s="96">
-        <f>$D61*C77</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="97"/>
-      <c r="K77" s="175"/>
-      <c r="N77" s="26" t="s">
+      <c r="I80" s="96">
+        <f>$D64*C80</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="97"/>
+      <c r="K80" s="175"/>
+      <c r="N80" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O77" s="96">
-        <f>$C61*C77</f>
-        <v>0</v>
-      </c>
-      <c r="P77" s="97"/>
-      <c r="Q77" s="175"/>
-    </row>
-    <row r="78" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B78" s="35" t="s">
+      <c r="O80" s="96">
+        <f>$C64*C80</f>
+        <v>0</v>
+      </c>
+      <c r="P80" s="97"/>
+      <c r="Q80" s="175"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="36">
+      <c r="C81" s="36">
         <f>300*Ulkoisvaikutukset!O33</f>
         <v>0</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="H78" s="38" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="H81" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I78" s="98">
-        <f>$D62*C78</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="99"/>
-      <c r="K78" s="176"/>
-      <c r="N78" s="38" t="s">
+      <c r="I81" s="98">
+        <f>$D65*C81</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="99"/>
+      <c r="K81" s="176"/>
+      <c r="N81" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="O78" s="98">
-        <f>$C62*C78</f>
-        <v>0</v>
-      </c>
-      <c r="P78" s="99"/>
-      <c r="Q78" s="176"/>
-    </row>
-    <row r="79" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B79" s="35" t="s">
+      <c r="O81" s="98">
+        <f>$C65*C81</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="99"/>
+      <c r="Q81" s="176"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C82" s="36">
         <f>300*Ulkoisvaikutukset!O28</f>
         <v>0</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="H79" s="38" t="s">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="H82" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I79" s="98">
-        <f>$D63*C79</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="99"/>
-      <c r="K79" s="176"/>
-      <c r="N79" s="38" t="s">
+      <c r="I82" s="98">
+        <f>$D66*C82</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="99"/>
+      <c r="K82" s="176"/>
+      <c r="N82" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O79" s="98">
-        <f>$C63*C79</f>
-        <v>0</v>
-      </c>
-      <c r="P79" s="99"/>
-      <c r="Q79" s="176"/>
-    </row>
-    <row r="80" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B80" s="35" t="s">
+      <c r="O82" s="98">
+        <f>$C66*C82</f>
+        <v>0</v>
+      </c>
+      <c r="P82" s="99"/>
+      <c r="Q82" s="176"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="36">
+      <c r="C83" s="36">
         <f>300*Ulkoisvaikutukset!O34</f>
         <v>0</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="H80" s="38" t="s">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="H83" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="I80" s="98">
-        <f>$D64*C80</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="99"/>
-      <c r="K80" s="176"/>
-      <c r="N80" s="38" t="s">
+      <c r="I83" s="98">
+        <f>$D67*C83</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="99"/>
+      <c r="K83" s="176"/>
+      <c r="N83" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="O80" s="98">
-        <f>$C64*C80</f>
-        <v>0</v>
-      </c>
-      <c r="P80" s="99"/>
-      <c r="Q80" s="176"/>
-    </row>
-    <row r="81" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="33" t="s">
+      <c r="O83" s="98">
+        <f>$C67*C83</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="99"/>
+      <c r="Q83" s="176"/>
+    </row>
+    <row r="84" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="25">
+      <c r="C84" s="25">
         <f>300*Ulkoisvaikutukset!O35</f>
         <v>0</v>
       </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="H81" s="39" t="s">
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="H84" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I81" s="100">
-        <f>$D65*C81</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="101"/>
-      <c r="K81" s="177"/>
-      <c r="N81" s="39" t="s">
+      <c r="I84" s="100">
+        <f>$D68*C84</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="101"/>
+      <c r="K84" s="177"/>
+      <c r="N84" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="O81" s="100">
-        <f>$C65*C81</f>
-        <v>0</v>
-      </c>
-      <c r="P81" s="101"/>
-      <c r="Q81" s="177"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="10"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="10" t="s">
+      <c r="O84" s="100">
+        <f>$C68*C84</f>
+        <v>0</v>
+      </c>
+      <c r="P84" s="101"/>
+      <c r="Q84" s="177"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I82" s="102">
-        <f>SUM(I77:I81)</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="102"/>
-      <c r="K82" s="102"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="10" t="s">
+      <c r="I85" s="102">
+        <f>SUM(I80:I84)</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="102"/>
+      <c r="K85" s="102"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="O82" s="102">
-        <f>SUM(O77:O81)</f>
-        <v>0</v>
-      </c>
-      <c r="P82" s="102"/>
-      <c r="Q82" s="102"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
+      <c r="O85" s="102">
+        <f>SUM(O80:O84)</f>
+        <v>0</v>
+      </c>
+      <c r="P85" s="102"/>
+      <c r="Q85" s="102"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="17"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="24"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="24"/>
-    </row>
-    <row r="98" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="17"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B95" s="24"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B96" s="24"/>
+    </row>
+    <row r="101" s="110" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17790,7 +19595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18356,7 +20161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18922,7 +20727,573 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="256">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C4" s="257">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D4" s="258">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="193"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B8" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="63">
+        <f>B9/B$4+C9/C$4+D9/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="83">
+        <f>E9/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="245" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
+        <f>B10/B$4+C10/C$4+D10/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="84">
+        <f>E10/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="239">
+        <f>B9+B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="240">
+        <f>C9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="240">
+        <f>D9+D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="241">
+        <f>B11/B$4+C11/C$4+D11/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="242">
+        <f>E11/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="247"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B13" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="63">
+        <f>B14/B$4+C14/C$4+D14/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="83">
+        <f>E14/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
+        <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="84">
+        <f>E15/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="239">
+        <f>B14+B15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="240">
+        <f>C14+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="240">
+        <f>D14+D15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="241">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="242">
+        <f>E16/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="186"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B21" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="63">
+        <f t="shared" ref="E22:E24" si="1">B22/B$4+C22/C$4+D22/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="83">
+        <f>E22*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="250" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="84">
+        <f>E23*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="239">
+        <f>B22+B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="240">
+        <f>C22+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="240">
+        <f>D22+D23</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="242">
+        <f>E24*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="251"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B26" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="63">
+        <f t="shared" ref="E27:E29" si="2">B27/B$4+C27/C$4+D27/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="83">
+        <f>E27*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="84">
+        <f>E28*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="239">
+        <f>B27+B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="240">
+        <f>C27+C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="240">
+        <f>D27+D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="241">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="242">
+        <f>E29*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="186"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="252">
+        <v>2030</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="63">
+        <f t="shared" ref="E37:E39" si="3">B37/B$4+C37/C$4+D37/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="83">
+        <f>E37*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="84">
+        <f>E38*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="255" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="239">
+        <f>B37+B38</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="240">
+        <f>C37+C38</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="240">
+        <f>D37+D38</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="242">
+        <f>E39*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="251"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="252">
+        <v>2050</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="63">
+        <f t="shared" ref="E42:E44" si="4">B42/B$4+C42/C$4+D42/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="83">
+        <f>E42*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="84">
+        <f>E43*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="239">
+        <f>B42+B43</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="240">
+        <f>C42+C43</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="240">
+        <f>D42+D43</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="241">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="242">
+        <f>E44*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19487,12 +21858,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19507,7 +21878,7 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19528,13 +21899,13 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
-        <v>0.57099999999999995</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="C4" s="257">
-        <v>0.11700000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D4" s="258">
-        <v>0.373</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -20053,12 +22424,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20070,7 +22441,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>153</v>
@@ -20094,13 +22465,13 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="256">
-        <v>0.54200000000000004</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="C4" s="257">
-        <v>0.109</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D4" s="258">
-        <v>0.5</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -20619,596 +22990,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="168" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="256">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="C4" s="257">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D4" s="258">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="193"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="243">
-        <v>2030</v>
-      </c>
-      <c r="B8" s="168" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="244" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="63">
-        <f>B9/B$4+C9/C$4+D9/D$4</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="83">
-        <f>E9/60*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="245" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="236"/>
-      <c r="C10" s="237"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="238">
-        <f>B10/B$4+C10/C$4+D10/D$4</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="84">
-        <f>E10/60*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="246" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="239">
-        <f>B9+B10</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="240">
-        <f>C9+C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="240">
-        <f>D9+D10</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="241">
-        <f>B11/B$4+C11/C$4+D11/D$4</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="242">
-        <f>E11/60*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="247"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="243">
-        <v>2050</v>
-      </c>
-      <c r="B13" s="168" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="63">
-        <f>B14/B$4+C14/C$4+D14/D$4</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="83">
-        <f>E14/60*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="236"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="238">
-        <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="84">
-        <f>E15/60*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="239">
-        <f>B14+B15</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="240">
-        <f>C14+C15</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="240">
-        <f>D14+D15</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="241">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="242">
-        <f>E16/60*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="186"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="243">
-        <v>2030</v>
-      </c>
-      <c r="B21" s="168" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="244" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="63">
-        <f t="shared" ref="E22:E24" si="1">B22/B$4+C22/C$4+D22/D$4</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="83">
-        <f>E22*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="250" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="248"/>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="238">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="84">
-        <f>E23*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="246" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="239">
-        <f>B22+B23</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="240">
-        <f>C22+C23</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="240">
-        <f>D22+D23</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="242">
-        <f>E24*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="251"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="243">
-        <v>2050</v>
-      </c>
-      <c r="B26" s="168" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="63">
-        <f t="shared" ref="E27:E29" si="2">B27/B$4+C27/C$4+D27/D$4</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="83">
-        <f>E27*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="248"/>
-      <c r="C28" s="249"/>
-      <c r="D28" s="249"/>
-      <c r="E28" s="238">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="84">
-        <f>E28*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="239">
-        <f>B27+B28</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="240">
-        <f>C27+C28</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="240">
-        <f>D27+D28</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="241">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="242">
-        <f>E29*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="186"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="252">
-        <v>2030</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="253" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="137"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="63">
-        <f t="shared" ref="E37:E39" si="3">B37/B$4+C37/C$4+D37/D$4</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="83">
-        <f>E37*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="254" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="248"/>
-      <c r="C38" s="249"/>
-      <c r="D38" s="249"/>
-      <c r="E38" s="238">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="84">
-        <f>E38*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="255" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="239">
-        <f>B37+B38</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="240">
-        <f>C37+C38</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="240">
-        <f>D37+D38</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="241">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="242">
-        <f>E39*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="251"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="252">
-        <v>2050</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="253" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="137"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="63">
-        <f t="shared" ref="E42:E44" si="4">B42/B$4+C42/C$4+D42/D$4</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="83">
-        <f>E42*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="254" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="248"/>
-      <c r="C43" s="249"/>
-      <c r="D43" s="249"/>
-      <c r="E43" s="238">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="84">
-        <f>E43*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="239">
-        <f>B42+B43</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="240">
-        <f>C42+C43</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="240">
-        <f>D42+D43</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="241">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="242">
-        <f>E44*Diskonttaus!$B$11</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
-    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
-        </TermInfo>
-      </Terms>
-    </c7e7d47415304583b97cbceafb48fc9c>
-    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
-    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gbd2c824d606482d8ac0e417e142bc2f>
-    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lf2a24d45b2949218b95d66f1d0b33a8>
-    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
-      <Value>2</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21447,28 +23235,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
+    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
+        </TermInfo>
+      </Terms>
+    </c7e7d47415304583b97cbceafb48fc9c>
+    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
+    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gbd2c824d606482d8ac0e417e142bc2f>
+    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lf2a24d45b2949218b95d66f1d0b33a8>
+    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
+      <Value>2</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD55EAC-37BA-4509-9765-6FB27F6E2583}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
-    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
-    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21494,9 +23289,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD55EAC-37BA-4509-9765-6FB27F6E2583}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
+    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
+    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scripts/CBA_kehikko.xlsx
+++ b/Scripts/CBA_kehikko.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="13380" windowHeight="10605" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="13380" windowHeight="10605"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,13 @@
     <sheet name="pp_tyo" sheetId="13" state="hidden" r:id="rId11"/>
     <sheet name="pp_muu" sheetId="14" state="hidden" r:id="rId12"/>
     <sheet name="ka" sheetId="15" state="hidden" r:id="rId13"/>
-    <sheet name="yhd" sheetId="16" state="hidden" r:id="rId14"/>
-    <sheet name="pa" sheetId="9" state="hidden" r:id="rId15"/>
-    <sheet name="Tuottajahyodyt" sheetId="4" r:id="rId16"/>
-    <sheet name="Ulkoisvaikutukset" sheetId="5" r:id="rId17"/>
-    <sheet name="Julkistaloudelliset" sheetId="6" r:id="rId18"/>
-    <sheet name="Investointikustannus" sheetId="7" r:id="rId19"/>
+    <sheet name="puolip" sheetId="20" state="hidden" r:id="rId14"/>
+    <sheet name="yhd" sheetId="16" state="hidden" r:id="rId15"/>
+    <sheet name="pa" sheetId="9" state="hidden" r:id="rId16"/>
+    <sheet name="Tuottajahyodyt" sheetId="4" r:id="rId17"/>
+    <sheet name="Ulkoisvaikutukset" sheetId="5" r:id="rId18"/>
+    <sheet name="Julkistaloudelliset" sheetId="6" r:id="rId19"/>
+    <sheet name="Investointikustannus" sheetId="7" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="227">
   <si>
     <t>Nettohyöty</t>
   </si>
@@ -748,6 +749,15 @@
   <si>
     <t>Kaukobussi</t>
   </si>
+  <si>
+    <t>Puoliperävaunulliset</t>
+  </si>
+  <si>
+    <t>Yhdistelmäautot</t>
+  </si>
+  <si>
+    <t>Puoliperävaunu</t>
+  </si>
 </sst>
 </file>
 
@@ -961,7 +971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1834,13 +1844,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2264,6 +2285,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
@@ -2548,7 +2570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2667,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="277">
-        <f ca="1">Kayttajahyodyt!P21/1000000</f>
+        <f ca="1">Kayttajahyodyt!Q21/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -2680,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="277">
-        <f ca="1">Kayttajahyodyt!P34/1000000</f>
+        <f ca="1">Kayttajahyodyt!Q34/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -2693,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="219">
-        <f ca="1">Kayttajahyodyt!P49/1000000</f>
+        <f ca="1">Kayttajahyodyt!Q49/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -5169,8 +5193,569 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="256">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="257">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="258">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="193"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B8" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="63">
+        <f>B9/B$4+C9/C$4+D9/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="83">
+        <f>E9/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="245" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="238">
+        <f>B10/B$4+C10/C$4+D10/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="84">
+        <f>E10/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="239">
+        <f>B9+B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="240">
+        <f>C9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="240">
+        <f>D9+D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="241">
+        <f>B11/B$4+C11/C$4+D11/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="242">
+        <f>E11/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="247"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B13" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="63">
+        <f>B14/B$4+C14/C$4+D14/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="83">
+        <f>E14/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="236"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="238">
+        <f t="shared" ref="E15:E16" si="0">B15/B$4+C15/C$4+D15/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="84">
+        <f>E15/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="239">
+        <f>B14+B15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="240">
+        <f>C14+C15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="240">
+        <f>D14+D15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="241">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="242">
+        <f>E16/60*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="186"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="243">
+        <v>2030</v>
+      </c>
+      <c r="B21" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="63">
+        <f t="shared" ref="E22:E24" si="1">B22/B$4+C22/C$4+D22/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="83">
+        <f>E22*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="250" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="238">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="84">
+        <f>E23*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="246" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="239">
+        <f>B22+B23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="240">
+        <f>C22+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="240">
+        <f>D22+D23</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="242">
+        <f>E24*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="251"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="243">
+        <v>2050</v>
+      </c>
+      <c r="B26" s="168" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="63">
+        <f t="shared" ref="E27:E29" si="2">B27/B$4+C27/C$4+D27/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="83">
+        <f>E27*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="238">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="84">
+        <f>E28*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="239">
+        <f>B27+B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="240">
+        <f>C27+C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="240">
+        <f>D27+D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="241">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="242">
+        <f>E29*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="186"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="252">
+        <v>2030</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="63">
+        <f t="shared" ref="E37:E39" si="3">B37/B$4+C37/C$4+D37/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="83">
+        <f>E37*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="84">
+        <f>E38*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="255" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="239">
+        <f>B37+B38</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="240">
+        <f>C37+C38</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="240">
+        <f>D37+D38</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="242">
+        <f>E39*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="251"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="252">
+        <v>2050</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="63">
+        <f t="shared" ref="E42:E44" si="4">B42/B$4+C42/C$4+D42/D$4</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="83">
+        <f>E42*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="254" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="238">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="84">
+        <f>E43*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="239">
+        <f>B42+B43</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="240">
+        <f>C42+C43</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="240">
+        <f>D42+D43</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="241">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="242">
+        <f>E44*Diskonttaus!$B$11</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5182,7 +5767,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5728,7 +6313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
@@ -6291,7 +6876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Taul2"/>
   <dimension ref="A5:U105"/>
@@ -7765,7 +8350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Taul3"/>
   <dimension ref="B2:P91"/>
@@ -9599,7 +10184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -9859,2004 +10444,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AA41"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="165">
-        <f>SUM(C41:W41)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA6" s="125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="Y7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z7">
-        <f>Diskonttaus!B3+Diskonttaus!B7</f>
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <f>Diskonttaus!B3-10</f>
-        <v>2020</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:L8" si="0">C8+1</f>
-        <v>2021</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="N8">
-        <f>Diskonttaus!B5-10</f>
-        <v>2030</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ref="O8:W8" si="1">N8+1</f>
-        <v>2031</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="1"/>
-        <v>2032</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>2033</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>2034</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>2035</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>2036</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="1"/>
-        <v>2037</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="1"/>
-        <v>2038</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>2039</v>
-      </c>
-      <c r="X8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="288"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="212"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="213"/>
-      <c r="N9" s="288"/>
-      <c r="O9" s="212"/>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="212"/>
-      <c r="R9" s="212"/>
-      <c r="S9" s="212"/>
-      <c r="T9" s="212"/>
-      <c r="U9" s="212"/>
-      <c r="V9" s="212"/>
-      <c r="W9" s="213"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="215"/>
-      <c r="AA9" s="58">
-        <f>Z9*X27/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="209"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="201"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="163"/>
-      <c r="T10" s="163"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="201"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="216"/>
-      <c r="AA10" s="58">
-        <f>Z10*X28/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="209"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="201"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="163"/>
-      <c r="S11" s="163"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="163"/>
-      <c r="V11" s="163"/>
-      <c r="W11" s="201"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="216"/>
-      <c r="AA11" s="58">
-        <f>Z11*X29/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="209"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="201"/>
-      <c r="N12" s="209"/>
-      <c r="O12" s="163"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="163"/>
-      <c r="S12" s="163"/>
-      <c r="T12" s="163"/>
-      <c r="U12" s="163"/>
-      <c r="V12" s="163"/>
-      <c r="W12" s="201"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="216"/>
-      <c r="AA12" s="58">
-        <f>Z12*X30/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="209"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="201"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="163"/>
-      <c r="V13" s="163"/>
-      <c r="W13" s="201"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="216"/>
-      <c r="AA13" s="58">
-        <f>Z13*X31/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="209"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="201"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="201"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="217"/>
-      <c r="AA14" s="13">
-        <f>Z14*X32/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="209"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="201"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="163"/>
-      <c r="T15" s="163"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="163"/>
-      <c r="W15" s="201"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="217"/>
-      <c r="AA15" s="13">
-        <f>Z15*X33/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="209"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="201"/>
-      <c r="N16" s="209"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="163"/>
-      <c r="W16" s="201"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="217"/>
-      <c r="AA16" s="13">
-        <f>Z16*X34/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="209"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="201"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-      <c r="W17" s="201"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="217"/>
-      <c r="AA17" s="13">
-        <f>Z17*X35/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="209"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="201"/>
-      <c r="N18" s="209"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="201"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="217"/>
-      <c r="AA18" s="13">
-        <f>Z18*X36/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="209"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="201"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="163"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="201"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="217"/>
-      <c r="AA19" s="13">
-        <f>Z19*X37/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="209"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="201"/>
-      <c r="N20" s="209"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="163"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="163"/>
-      <c r="W20" s="201"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="217"/>
-      <c r="AA20" s="13">
-        <f>Z20*X38/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="201"/>
-      <c r="N21" s="209"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="163"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="201"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="217"/>
-      <c r="AA21" s="13">
-        <f>Z21*X39/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="289"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="197"/>
-      <c r="L22" s="199"/>
-      <c r="N22" s="289"/>
-      <c r="O22" s="197"/>
-      <c r="P22" s="197"/>
-      <c r="Q22" s="197"/>
-      <c r="R22" s="197"/>
-      <c r="S22" s="197"/>
-      <c r="T22" s="197"/>
-      <c r="U22" s="197"/>
-      <c r="V22" s="197"/>
-      <c r="W22" s="199"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="218"/>
-      <c r="AA22" s="13">
-        <f>Z22*X40/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:L23" si="2">SUM(C9:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f t="shared" ref="N23:W23" si="3">SUM(N9:N22)</f>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="13">
-        <f>SUM(C23:W23)</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="165">
-        <f>SUM(AA9:AA22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="16">
-        <f>C9/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
-        <f>D9/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
-        <f>E9/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="16">
-        <f>F9/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <f>G9/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <f>H9/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="16">
-        <f>I9/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
-        <f>J9/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="16">
-        <f>K9/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
-        <f>L9/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="16">
-        <f>N9/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="16">
-        <f>O9/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="16">
-        <f>P9/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="16">
-        <f>Q9/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="16">
-        <f>R9/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="16">
-        <f>S9/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="16">
-        <f>T9/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="16">
-        <f>U9/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="16">
-        <f>V9/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="5">
-        <f>W9/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="13">
-        <f t="shared" ref="X27:X40" si="4">SUM(C27:W27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="16">
-        <f>C10/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="16">
-        <f>D10/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
-        <f>E10/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <f>F10/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <f>G10/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <f>H10/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="16">
-        <f>I10/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="16">
-        <f>J10/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
-        <f>K10/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
-        <f>L10/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="16">
-        <f>N10/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="16">
-        <f>O10/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="16">
-        <f>P10/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="16">
-        <f>Q10/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="16">
-        <f>R10/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="16">
-        <f>S10/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="16">
-        <f>T10/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="16">
-        <f>U10/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="16">
-        <f>V10/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="5">
-        <f>W10/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="16">
-        <f>C11/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <f>D11/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
-        <f>E11/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="16">
-        <f>F11/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <f>G11/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="16">
-        <f>H11/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="16">
-        <f>I11/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="16">
-        <f>J11/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="16">
-        <f>K11/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="5">
-        <f>L11/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="16">
-        <f>N11/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="16">
-        <f>O11/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="16">
-        <f>P11/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="16">
-        <f>Q11/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="16">
-        <f>R11/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="16">
-        <f>S11/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="16">
-        <f>T11/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="16">
-        <f>U11/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="16">
-        <f>V11/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="5">
-        <f>W11/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X29" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="16">
-        <f>C12/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <f>D12/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
-        <f>E12/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="16">
-        <f>F12/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <f>G12/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="16">
-        <f>H12/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="16">
-        <f>I12/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="16">
-        <f>J12/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="16">
-        <f>K12/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <f>L12/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="16">
-        <f>N12/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="16">
-        <f>O12/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="16">
-        <f>P12/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="16">
-        <f>Q12/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="16">
-        <f>R12/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="16">
-        <f>S12/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="16">
-        <f>T12/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="16">
-        <f>U12/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="16">
-        <f>V12/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="5">
-        <f>W12/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="16">
-        <f>C13/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="16">
-        <f>D13/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
-        <f>E13/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="16">
-        <f>F13/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <f>G13/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
-        <f>H13/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="16">
-        <f>I13/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <f>J13/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="16">
-        <f>K13/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="5">
-        <f>L13/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="16">
-        <f>N13/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="16">
-        <f>O13/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="16">
-        <f>P13/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="16">
-        <f>Q13/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="16">
-        <f>R13/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="16">
-        <f>S13/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="16">
-        <f>T13/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="16">
-        <f>U13/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="16">
-        <f>V13/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="5">
-        <f>W13/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="16">
-        <f>C14/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="16">
-        <f>D14/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
-        <f>E14/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
-        <f>F14/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="16">
-        <f>G14/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="16">
-        <f>H14/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="16">
-        <f>I14/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="16">
-        <f>J14/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
-        <f>K14/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
-        <f>L14/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="16">
-        <f>N14/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="16">
-        <f>O14/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="16">
-        <f>P14/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="16">
-        <f>Q14/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="16">
-        <f>R14/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="16">
-        <f>S14/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="16">
-        <f>T14/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="16">
-        <f>U14/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="16">
-        <f>V14/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="5">
-        <f>W14/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="16">
-        <f>C15/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="16">
-        <f>D15/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="16">
-        <f>E15/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="16">
-        <f>F15/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="16">
-        <f>G15/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="16">
-        <f>H15/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="16">
-        <f>I15/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="16">
-        <f>J15/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="16">
-        <f>K15/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="5">
-        <f>L15/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="16">
-        <f>N15/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="16">
-        <f>O15/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="16">
-        <f>P15/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="16">
-        <f>Q15/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="16">
-        <f>R15/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="16">
-        <f>S15/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="16">
-        <f>T15/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="16">
-        <f>U15/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="16">
-        <f>V15/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="5">
-        <f>W15/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X33" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="16">
-        <f>C16/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="16">
-        <f>D16/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
-        <f>E16/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
-        <f>F16/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="16">
-        <f>G16/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="16">
-        <f>H16/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="16">
-        <f>I16/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="16">
-        <f>J16/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="16">
-        <f>K16/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="5">
-        <f>L16/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="16">
-        <f>N16/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="16">
-        <f>O16/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="16">
-        <f>P16/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="16">
-        <f>Q16/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="16">
-        <f>R16/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="16">
-        <f>S16/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="16">
-        <f>T16/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="16">
-        <f>U16/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="16">
-        <f>V16/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="5">
-        <f>W16/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="16">
-        <f>C17/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="16">
-        <f>D17/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="16">
-        <f>E17/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="16">
-        <f>F17/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="16">
-        <f>G17/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="16">
-        <f>H17/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="16">
-        <f>I17/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="16">
-        <f>J17/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="16">
-        <f>K17/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="5">
-        <f>L17/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="16">
-        <f>N17/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="16">
-        <f>O17/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="16">
-        <f>P17/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="16">
-        <f>Q17/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="16">
-        <f>R17/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="16">
-        <f>S17/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="16">
-        <f>T17/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="16">
-        <f>U17/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="16">
-        <f>V17/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="5">
-        <f>W17/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="16">
-        <f>C18/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="16">
-        <f>D18/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="16">
-        <f>E18/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="16">
-        <f>F18/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="16">
-        <f>G18/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="16">
-        <f>H18/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="16">
-        <f>I18/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <f>J18/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="16">
-        <f>K18/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="5">
-        <f>L18/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="16">
-        <f>N18/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="16">
-        <f>O18/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="16">
-        <f>P18/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="16">
-        <f>Q18/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="16">
-        <f>R18/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="16">
-        <f>S18/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="16">
-        <f>T18/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="16">
-        <f>U18/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V36" s="16">
-        <f>V18/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="5">
-        <f>W18/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X36" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="16">
-        <f>C19/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="16">
-        <f>D19/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="16">
-        <f>E19/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="16">
-        <f>F19/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="16">
-        <f>G19/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="16">
-        <f>H19/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="16">
-        <f>I19/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="16">
-        <f>J19/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="16">
-        <f>K19/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="5">
-        <f>L19/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="16">
-        <f>N19/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="16">
-        <f>O19/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="16">
-        <f>P19/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="16">
-        <f>Q19/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="16">
-        <f>R19/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="16">
-        <f>S19/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="16">
-        <f>T19/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="16">
-        <f>U19/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="16">
-        <f>V19/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="5">
-        <f>W19/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X37" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="16">
-        <f>C20/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="16">
-        <f>D20/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="16">
-        <f>E20/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="16">
-        <f>F20/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="16">
-        <f>G20/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="16">
-        <f>H20/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="16">
-        <f>I20/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="16">
-        <f>J20/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="16">
-        <f>K20/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <f>L20/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="16">
-        <f>N20/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="16">
-        <f>O20/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="16">
-        <f>P20/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="16">
-        <f>Q20/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="16">
-        <f>R20/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="16">
-        <f>S20/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T38" s="16">
-        <f>T20/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="16">
-        <f>U20/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V38" s="16">
-        <f>V20/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W38" s="5">
-        <f>W20/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X38" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="16">
-        <f>C21/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="16">
-        <f>D21/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="16">
-        <f>E21/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="16">
-        <f>F21/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="16">
-        <f>G21/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="16">
-        <f>H21/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="16">
-        <f>I21/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="16">
-        <f>J21/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="16">
-        <f>K21/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <f>L21/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="16">
-        <f>N21/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="16">
-        <f>O21/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="16">
-        <f>P21/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="16">
-        <f>Q21/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="16">
-        <f>R21/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="16">
-        <f>S21/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="16">
-        <f>T21/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="16">
-        <f>U21/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="16">
-        <f>V21/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W39" s="5">
-        <f>W21/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X39" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="94">
-        <f>C22/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="94">
-        <f>D22/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="94">
-        <f>E22/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="94">
-        <f>F22/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="94">
-        <f>G22/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="94">
-        <f>H22/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="94">
-        <f>I22/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="94">
-        <f>J22/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="94">
-        <f>K22/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="59">
-        <f>L22/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="94">
-        <f>N22/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="94">
-        <f>O22/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="P40" s="94">
-        <f>P22/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="94">
-        <f>Q22/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="94">
-        <f>R22/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="94">
-        <f>S22/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="T40" s="94">
-        <f>T22/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="94">
-        <f>U22/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="V40" s="94">
-        <f>V22/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="59">
-        <f>W22/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
-        <v>0</v>
-      </c>
-      <c r="X40" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="13">
-        <f t="shared" ref="C41:L41" si="5">SUM(C27:C40)</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="13">
-        <f t="shared" ref="N41:W41" si="6">SUM(N27:N40)</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13303,7 +11890,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f>IF(Kayttajahyodyt!P19=0,"Ennuste 2 puuttuu",Kayttajahyodyt!P19/Kayttajahyodyt!P14*100)</f>
+        <f>IF(Kayttajahyodyt!Q19=0,"Ennuste 2 puuttuu",Kayttajahyodyt!Q19/Kayttajahyodyt!Q14*100)</f>
         <v>Ennuste 2 puuttuu</v>
       </c>
       <c r="L16">
@@ -13855,7 +12442,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="str">
-        <f>IF(Tuottajahyodyt!L68=0,"Ennuste 2 puuttuu",(Kayttajahyodyt!P32+Kayttajahyodyt!P47+Tuottajahyodyt!F46-Tuottajahyodyt!L68-Julkistaloudelliset!C14)/(Kayttajahyodyt!P27+Kayttajahyodyt!P42+Tuottajahyodyt!F43-Tuottajahyodyt!L60-Julkistaloudelliset!C9)*100)</f>
+        <f>IF(Tuottajahyodyt!L68=0,"Ennuste 2 puuttuu",(Kayttajahyodyt!Q32+Kayttajahyodyt!Q47+Tuottajahyodyt!F46-Tuottajahyodyt!L68-Julkistaloudelliset!C14)/(Kayttajahyodyt!Q27+Kayttajahyodyt!Q42+Tuottajahyodyt!F43-Tuottajahyodyt!L60-Julkistaloudelliset!C9)*100)</f>
         <v>Ennuste 2 puuttuu</v>
       </c>
       <c r="L23">
@@ -16880,6 +15467,2004 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:AA41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="165">
+        <f>SUM(C41:W41)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA6" s="125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7">
+        <f>Diskonttaus!B3+Diskonttaus!B7</f>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f>Diskonttaus!B3-10</f>
+        <v>2020</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:L8" si="0">C8+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="N8">
+        <f>Diskonttaus!B5-10</f>
+        <v>2030</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:W8" si="1">N8+1</f>
+        <v>2031</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="X8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="288"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="213"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="212"/>
+      <c r="P9" s="212"/>
+      <c r="Q9" s="212"/>
+      <c r="R9" s="212"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="212"/>
+      <c r="U9" s="212"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="213"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="215"/>
+      <c r="AA9" s="58">
+        <f>Z9*X27/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="209"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="201"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="201"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="216"/>
+      <c r="AA10" s="58">
+        <f>Z10*X28/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="209"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="201"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="163"/>
+      <c r="P11" s="163"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="201"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="216"/>
+      <c r="AA11" s="58">
+        <f>Z11*X29/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="209"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="201"/>
+      <c r="N12" s="209"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="201"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="216"/>
+      <c r="AA12" s="58">
+        <f>Z12*X30/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="209"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="201"/>
+      <c r="N13" s="209"/>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="163"/>
+      <c r="S13" s="163"/>
+      <c r="T13" s="163"/>
+      <c r="U13" s="163"/>
+      <c r="V13" s="163"/>
+      <c r="W13" s="201"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="216"/>
+      <c r="AA13" s="58">
+        <f>Z13*X31/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="209"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="201"/>
+      <c r="N14" s="209"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="201"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="217"/>
+      <c r="AA14" s="13">
+        <f>Z14*X32/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="209"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="201"/>
+      <c r="N15" s="209"/>
+      <c r="O15" s="163"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="163"/>
+      <c r="T15" s="163"/>
+      <c r="U15" s="163"/>
+      <c r="V15" s="163"/>
+      <c r="W15" s="201"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="217"/>
+      <c r="AA15" s="13">
+        <f>Z15*X33/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="209"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="201"/>
+      <c r="N16" s="209"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="163"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="163"/>
+      <c r="W16" s="201"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="217"/>
+      <c r="AA16" s="13">
+        <f>Z16*X34/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="209"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="201"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="163"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="163"/>
+      <c r="W17" s="201"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="217"/>
+      <c r="AA17" s="13">
+        <f>Z17*X35/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="209"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="201"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="163"/>
+      <c r="T18" s="163"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="201"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="217"/>
+      <c r="AA18" s="13">
+        <f>Z18*X36/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="209"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="201"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="201"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="217"/>
+      <c r="AA19" s="13">
+        <f>Z19*X37/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="209"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="201"/>
+      <c r="N20" s="209"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="163"/>
+      <c r="S20" s="163"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="163"/>
+      <c r="V20" s="163"/>
+      <c r="W20" s="201"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="217"/>
+      <c r="AA20" s="13">
+        <f>Z20*X38/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="209"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="201"/>
+      <c r="N21" s="209"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="163"/>
+      <c r="T21" s="163"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="201"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="217"/>
+      <c r="AA21" s="13">
+        <f>Z21*X39/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="289"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="199"/>
+      <c r="N22" s="289"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="197"/>
+      <c r="Q22" s="197"/>
+      <c r="R22" s="197"/>
+      <c r="S22" s="197"/>
+      <c r="T22" s="197"/>
+      <c r="U22" s="197"/>
+      <c r="V22" s="197"/>
+      <c r="W22" s="199"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="218"/>
+      <c r="AA22" s="13">
+        <f>Z22*X40/(1+Diskonttaus!$B$8)^(Investointikustannus!$Z$7-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:L23" si="2">SUM(C9:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:W23" si="3">SUM(N9:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="13">
+        <f>SUM(C23:W23)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="165">
+        <f>SUM(AA9:AA22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C9/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D9/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <f>E9/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <f>F9/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <f>G9/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <f>H9/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <f>I9/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <f>J9/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <f>K9/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <f>L9/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
+        <f>N9/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="16">
+        <f>O9/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
+        <f>P9/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <f>Q9/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="16">
+        <f>R9/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <f>S9/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="16">
+        <f>T9/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
+        <f>U9/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
+        <f>V9/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <f>W9/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="13">
+        <f t="shared" ref="X27:X40" si="4">SUM(C27:W27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="16">
+        <f>C10/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <f>D10/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <f>E10/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <f>F10/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <f>G10/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <f>H10/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <f>I10/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <f>J10/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <f>K10/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <f>L10/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="16">
+        <f>N10/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="16">
+        <f>O10/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="16">
+        <f>P10/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16">
+        <f>Q10/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="16">
+        <f>R10/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="16">
+        <f>S10/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="16">
+        <f>T10/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="16">
+        <f>U10/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="16">
+        <f>V10/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="5">
+        <f>W10/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="16">
+        <f>C11/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <f>D11/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <f>E11/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <f>F11/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <f>G11/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <f>H11/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <f>I11/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <f>J11/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <f>K11/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <f>L11/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="16">
+        <f>N11/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="16">
+        <f>O11/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="16">
+        <f>P11/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16">
+        <f>Q11/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="16">
+        <f>R11/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <f>S11/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="16">
+        <f>T11/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="16">
+        <f>U11/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
+        <f>V11/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="5">
+        <f>W11/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="16">
+        <f>C12/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <f>D12/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <f>E12/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <f>F12/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <f>G12/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <f>H12/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <f>I12/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <f>J12/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <f>K12/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <f>L12/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <f>N12/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <f>O12/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="16">
+        <f>P12/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="16">
+        <f>Q12/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="16">
+        <f>R12/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
+        <f>S12/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="16">
+        <f>T12/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
+        <f>U12/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
+        <f>V12/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="5">
+        <f>W12/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="16">
+        <f>C13/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <f>D13/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <f>E13/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <f>F13/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <f>G13/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <f>H13/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <f>I13/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <f>J13/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <f>K13/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <f>L13/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <f>N13/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="16">
+        <f>O13/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="16">
+        <f>P13/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="16">
+        <f>Q13/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="16">
+        <f>R13/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="16">
+        <f>S13/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="16">
+        <f>T13/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="16">
+        <f>U13/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
+        <f>V13/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="5">
+        <f>W13/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="16">
+        <f>C14/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <f>D14/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <f>E14/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <f>F14/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <f>G14/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <f>H14/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <f>I14/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <f>J14/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <f>K14/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <f>L14/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <f>N14/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="16">
+        <f>O14/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
+        <f>P14/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
+        <f>Q14/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="16">
+        <f>R14/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="16">
+        <f>S14/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="16">
+        <f>T14/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="16">
+        <f>U14/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="16">
+        <f>V14/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="5">
+        <f>W14/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="16">
+        <f>C15/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <f>D15/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <f>E15/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <f>F15/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="16">
+        <f>G15/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <f>H15/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <f>I15/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <f>J15/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <f>K15/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <f>L15/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <f>N15/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="16">
+        <f>O15/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="16">
+        <f>P15/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16">
+        <f>Q15/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="16">
+        <f>R15/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="16">
+        <f>S15/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="16">
+        <f>T15/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="16">
+        <f>U15/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="16">
+        <f>V15/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="5">
+        <f>W15/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="16">
+        <f>C16/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
+        <f>D16/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <f>E16/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <f>F16/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <f>G16/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <f>H16/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <f>I16/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <f>J16/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <f>K16/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <f>L16/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <f>N16/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="16">
+        <f>O16/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="16">
+        <f>P16/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="16">
+        <f>Q16/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="16">
+        <f>R16/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="16">
+        <f>S16/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="16">
+        <f>T16/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="16">
+        <f>U16/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="16">
+        <f>V16/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="5">
+        <f>W16/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="16">
+        <f>C17/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <f>D17/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <f>E17/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <f>F17/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="16">
+        <f>G17/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <f>H17/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <f>I17/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <f>J17/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <f>K17/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <f>L17/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <f>N17/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="16">
+        <f>O17/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="16">
+        <f>P17/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16">
+        <f>Q17/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="16">
+        <f>R17/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="16">
+        <f>S17/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="16">
+        <f>T17/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="16">
+        <f>U17/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="16">
+        <f>V17/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="5">
+        <f>W17/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="16">
+        <f>C18/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <f>D18/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <f>E18/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <f>F18/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="16">
+        <f>G18/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <f>H18/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="16">
+        <f>I18/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <f>J18/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <f>K18/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <f>L18/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="16">
+        <f>N18/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="16">
+        <f>O18/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="16">
+        <f>P18/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16">
+        <f>Q18/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="16">
+        <f>R18/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="16">
+        <f>S18/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="16">
+        <f>T18/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="16">
+        <f>U18/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="16">
+        <f>V18/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <f>W18/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="16">
+        <f>C19/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <f>D19/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <f>E19/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
+        <f>F19/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="16">
+        <f>G19/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="16">
+        <f>H19/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <f>I19/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <f>J19/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <f>K19/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <f>L19/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="16">
+        <f>N19/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="16">
+        <f>O19/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="16">
+        <f>P19/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16">
+        <f>Q19/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="16">
+        <f>R19/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="16">
+        <f>S19/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="16">
+        <f>T19/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="16">
+        <f>U19/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="16">
+        <f>V19/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="5">
+        <f>W19/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="16">
+        <f>C20/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <f>D20/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="16">
+        <f>E20/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <f>F20/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="16">
+        <f>G20/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="16">
+        <f>H20/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="16">
+        <f>I20/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="16">
+        <f>J20/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <f>K20/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <f>L20/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="16">
+        <f>N20/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="16">
+        <f>O20/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="16">
+        <f>P20/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16">
+        <f>Q20/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="16">
+        <f>R20/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="16">
+        <f>S20/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="16">
+        <f>T20/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="16">
+        <f>U20/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="16">
+        <f>V20/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W38" s="5">
+        <f>W20/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X38" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="16">
+        <f>C21/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
+        <f>D21/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <f>E21/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <f>F21/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="16">
+        <f>G21/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="16">
+        <f>H21/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="16">
+        <f>I21/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <f>J21/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <f>K21/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <f>L21/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="16">
+        <f>N21/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="16">
+        <f>O21/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="16">
+        <f>P21/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16">
+        <f>Q21/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="16">
+        <f>R21/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="16">
+        <f>S21/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="16">
+        <f>T21/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="16">
+        <f>U21/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="16">
+        <f>V21/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="5">
+        <f>W21/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="94">
+        <f>C22/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="94">
+        <f>D22/(1+Diskonttaus!$B$8)^(Investointikustannus!D$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="94">
+        <f>E22/(1+Diskonttaus!$B$8)^(Investointikustannus!E$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="94">
+        <f>F22/(1+Diskonttaus!$B$8)^(Investointikustannus!F$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="94">
+        <f>G22/(1+Diskonttaus!$B$8)^(Investointikustannus!G$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="94">
+        <f>H22/(1+Diskonttaus!$B$8)^(Investointikustannus!H$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="94">
+        <f>I22/(1+Diskonttaus!$B$8)^(Investointikustannus!I$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="94">
+        <f>J22/(1+Diskonttaus!$B$8)^(Investointikustannus!J$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="94">
+        <f>K22/(1+Diskonttaus!$B$8)^(Investointikustannus!K$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="59">
+        <f>L22/(1+Diskonttaus!$B$8)^(Investointikustannus!L$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="94">
+        <f>N22/(1+Diskonttaus!$B$8)^(Investointikustannus!N$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="94">
+        <f>O22/(1+Diskonttaus!$B$8)^(Investointikustannus!O$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="94">
+        <f>P22/(1+Diskonttaus!$B$8)^(Investointikustannus!P$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="94">
+        <f>Q22/(1+Diskonttaus!$B$8)^(Investointikustannus!Q$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="94">
+        <f>R22/(1+Diskonttaus!$B$8)^(Investointikustannus!R$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="94">
+        <f>S22/(1+Diskonttaus!$B$8)^(Investointikustannus!S$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="94">
+        <f>T22/(1+Diskonttaus!$B$8)^(Investointikustannus!T$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="94">
+        <f>U22/(1+Diskonttaus!$B$8)^(Investointikustannus!U$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="94">
+        <f>V22/(1+Diskonttaus!$B$8)^(Investointikustannus!V$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="59">
+        <f>W22/(1+Diskonttaus!$B$8)^(Investointikustannus!W$8-Diskonttaus!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="13">
+        <f t="shared" ref="C41:L41" si="5">SUM(C27:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="13">
+        <f t="shared" ref="N41:W41" si="6">SUM(N27:N40)</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16887,8 +17472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16916,7 +17501,7 @@
     <col min="25" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>43</v>
       </c>
@@ -16927,7 +17512,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="67" t="s">
         <v>158</v>
       </c>
@@ -16950,7 +17535,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -16976,7 +17561,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>170</v>
       </c>
@@ -16992,7 +17577,7 @@
       <c r="E4" s="200"/>
       <c r="F4" s="201"/>
     </row>
-    <row r="5" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -17011,7 +17596,7 @@
       <c r="E5" s="197"/>
       <c r="F5" s="199"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -17023,7 +17608,7 @@
       <c r="E6" s="200"/>
       <c r="F6" s="200"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -17035,7 +17620,7 @@
       <c r="E7" s="200"/>
       <c r="F7" s="200"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>223</v>
       </c>
@@ -17047,10 +17632,10 @@
       <c r="E8" s="200"/>
       <c r="F8" s="200"/>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
@@ -17072,7 +17657,7 @@
       <c r="AF10" s="186"/>
       <c r="AG10" s="186"/>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="87">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -17107,34 +17692,37 @@
       <c r="L11" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" t="s">
+        <v>226</v>
+      </c>
+      <c r="N11" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="N11" s="72" t="s">
+      <c r="O11" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="87" t="s">
+      <c r="Q11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="187"/>
       <c r="R11" s="187"/>
-      <c r="S11" s="188"/>
-      <c r="T11" s="186"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="188"/>
       <c r="U11" s="186"/>
-      <c r="V11" s="189"/>
+      <c r="V11" s="186"/>
       <c r="W11" s="189"/>
       <c r="X11" s="189"/>
-      <c r="Y11" s="186"/>
+      <c r="Y11" s="189"/>
       <c r="Z11" s="186"/>
       <c r="AA11" s="186"/>
-      <c r="AB11" s="189"/>
+      <c r="AB11" s="186"/>
       <c r="AC11" s="189"/>
       <c r="AD11" s="189"/>
-      <c r="AE11" s="186"/>
+      <c r="AE11" s="189"/>
       <c r="AF11" s="186"/>
       <c r="AG11" s="186"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH11" s="186"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" s="56" t="s">
         <v>52</v>
       </c>
@@ -17179,36 +17767,40 @@
         <v>0</v>
       </c>
       <c r="M12" s="105">
+        <f>-puolip!G9*$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="105">
         <f>-yhd!F9*F3</f>
         <v>0</v>
       </c>
-      <c r="N12" s="81">
+      <c r="O12" s="81">
         <f>-pa!F9*D3</f>
         <v>0</v>
       </c>
-      <c r="P12" s="219">
-        <f>SUM(C12:O12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="188"/>
+      <c r="Q12" s="219">
+        <f>SUM(C12:P12)</f>
+        <v>0</v>
+      </c>
       <c r="R12" s="188"/>
       <c r="S12" s="188"/>
-      <c r="T12" s="190"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="190"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="186"/>
       <c r="W12" s="190"/>
       <c r="X12" s="190"/>
       <c r="Y12" s="190"/>
       <c r="Z12" s="190"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="186"/>
       <c r="AC12" s="190"/>
       <c r="AD12" s="190"/>
       <c r="AE12" s="190"/>
       <c r="AF12" s="190"/>
-      <c r="AG12" s="186"/>
-    </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="186"/>
+    </row>
+    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
         <v>53</v>
       </c>
@@ -17252,42 +17844,46 @@
         <f>-ka!F10*E3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="106">
+      <c r="M13" s="105">
+        <f>-puolip!G10*$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="106">
         <f>-yhd!F10*F3</f>
         <v>0</v>
       </c>
-      <c r="N13" s="122">
+      <c r="O13" s="122">
         <f>-pa!F10*D3</f>
         <v>0</v>
       </c>
-      <c r="P13" s="220">
-        <f>SUM(C13:O13)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="188"/>
+      <c r="Q13" s="220">
+        <f>SUM(C13:P13)</f>
+        <v>0</v>
+      </c>
       <c r="R13" s="188"/>
       <c r="S13" s="188"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="190"/>
+      <c r="T13" s="188"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="186"/>
       <c r="W13" s="190"/>
       <c r="X13" s="190"/>
       <c r="Y13" s="190"/>
       <c r="Z13" s="190"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="190"/>
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="186"/>
       <c r="AC13" s="190"/>
       <c r="AD13" s="190"/>
       <c r="AE13" s="190"/>
       <c r="AF13" s="190"/>
-      <c r="AG13" s="186"/>
-    </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG13" s="190"/>
+      <c r="AH13" s="186"/>
+    </row>
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="64">
-        <f t="shared" ref="C14:K14" si="0">SUM(C12:C13)</f>
+        <f t="shared" ref="C14:I14" si="0">SUM(C12:C13)</f>
         <v>0</v>
       </c>
       <c r="D14" s="64">
@@ -17330,34 +17926,37 @@
         <f>SUM(M12:M13)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="64">
         <f>SUM(N12:N13)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="221">
-        <f>SUM(C14:O14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="190"/>
+      <c r="O14" s="76">
+        <f>SUM(O12:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="221">
+        <f>SUM(C14:P14)</f>
+        <v>0</v>
+      </c>
       <c r="R14" s="190"/>
       <c r="S14" s="190"/>
       <c r="T14" s="190"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="190"/>
+      <c r="U14" s="190"/>
+      <c r="V14" s="186"/>
       <c r="W14" s="190"/>
       <c r="X14" s="190"/>
       <c r="Y14" s="190"/>
       <c r="Z14" s="190"/>
-      <c r="AA14" s="186"/>
-      <c r="AB14" s="190"/>
+      <c r="AA14" s="190"/>
+      <c r="AB14" s="186"/>
       <c r="AC14" s="190"/>
       <c r="AD14" s="190"/>
       <c r="AE14" s="190"/>
       <c r="AF14" s="190"/>
-      <c r="AG14" s="186"/>
-    </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q15" s="186"/>
+      <c r="AG14" s="190"/>
+      <c r="AH14" s="186"/>
+    </row>
+    <row r="15" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R15" s="186"/>
       <c r="S15" s="186"/>
       <c r="T15" s="186"/>
@@ -17374,8 +17973,9 @@
       <c r="AE15" s="186"/>
       <c r="AF15" s="186"/>
       <c r="AG15" s="186"/>
-    </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH15" s="186"/>
+    </row>
+    <row r="16" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="87">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -17410,34 +18010,35 @@
       <c r="L16" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="32"/>
+      <c r="N16" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="72" t="s">
+      <c r="O16" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="87" t="s">
+      <c r="Q16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="187"/>
       <c r="R16" s="187"/>
-      <c r="S16" s="188"/>
-      <c r="T16" s="186"/>
+      <c r="S16" s="187"/>
+      <c r="T16" s="188"/>
       <c r="U16" s="186"/>
-      <c r="V16" s="189"/>
+      <c r="V16" s="186"/>
       <c r="W16" s="189"/>
       <c r="X16" s="189"/>
-      <c r="Y16" s="186"/>
+      <c r="Y16" s="189"/>
       <c r="Z16" s="186"/>
       <c r="AA16" s="186"/>
-      <c r="AB16" s="189"/>
+      <c r="AB16" s="186"/>
       <c r="AC16" s="189"/>
       <c r="AD16" s="189"/>
-      <c r="AE16" s="186"/>
+      <c r="AE16" s="189"/>
       <c r="AF16" s="186"/>
       <c r="AG16" s="186"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH16" s="186"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B17" s="56" t="s">
         <v>52</v>
       </c>
@@ -17481,37 +18082,38 @@
         <f>-ka!F14*E3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="105">
+      <c r="M17" s="105"/>
+      <c r="N17" s="105">
         <f>-yhd!F14*F3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="81">
+      <c r="O17" s="81">
         <f>-pa!F14*D3</f>
         <v>0</v>
       </c>
-      <c r="P17" s="219">
-        <f>SUM(C17:O17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="188"/>
+      <c r="Q17" s="219">
+        <f>SUM(C17:P17)</f>
+        <v>0</v>
+      </c>
       <c r="R17" s="188"/>
       <c r="S17" s="188"/>
-      <c r="T17" s="190"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="190"/>
+      <c r="T17" s="188"/>
+      <c r="U17" s="190"/>
+      <c r="V17" s="186"/>
       <c r="W17" s="190"/>
       <c r="X17" s="190"/>
       <c r="Y17" s="190"/>
       <c r="Z17" s="190"/>
-      <c r="AA17" s="186"/>
-      <c r="AB17" s="190"/>
+      <c r="AA17" s="190"/>
+      <c r="AB17" s="186"/>
       <c r="AC17" s="190"/>
       <c r="AD17" s="190"/>
       <c r="AE17" s="190"/>
       <c r="AF17" s="190"/>
-      <c r="AG17" s="186"/>
-    </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG17" s="190"/>
+      <c r="AH17" s="186"/>
+    </row>
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
         <v>53</v>
       </c>
@@ -17555,42 +18157,43 @@
         <f>-ka!F15*E3</f>
         <v>0</v>
       </c>
-      <c r="M18" s="106">
+      <c r="M18" s="106"/>
+      <c r="N18" s="106">
         <f>-yhd!F15*F3</f>
         <v>0</v>
       </c>
-      <c r="N18" s="81">
+      <c r="O18" s="81">
         <f>-pa!F15*D3</f>
         <v>0</v>
       </c>
-      <c r="P18" s="220">
-        <f>SUM(C18:O18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="188"/>
+      <c r="Q18" s="220">
+        <f>SUM(C18:P18)</f>
+        <v>0</v>
+      </c>
       <c r="R18" s="188"/>
       <c r="S18" s="188"/>
-      <c r="T18" s="190"/>
-      <c r="U18" s="186"/>
-      <c r="V18" s="190"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="190"/>
+      <c r="V18" s="186"/>
       <c r="W18" s="190"/>
       <c r="X18" s="190"/>
       <c r="Y18" s="190"/>
       <c r="Z18" s="190"/>
-      <c r="AA18" s="186"/>
-      <c r="AB18" s="190"/>
+      <c r="AA18" s="190"/>
+      <c r="AB18" s="186"/>
       <c r="AC18" s="190"/>
       <c r="AD18" s="190"/>
       <c r="AE18" s="190"/>
       <c r="AF18" s="190"/>
-      <c r="AG18" s="186"/>
-    </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG18" s="190"/>
+      <c r="AH18" s="186"/>
+    </row>
+    <row r="19" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="64">
-        <f t="shared" ref="C19:K19" si="1">SUM(C17:C18)</f>
+        <f t="shared" ref="C19:I19" si="1">SUM(C17:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="64">
@@ -17629,38 +18232,38 @@
         <f t="shared" ref="L19" si="2">SUM(L17:L18)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="64">
-        <f t="shared" ref="M19" si="3">SUM(M17:M18)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="182">
-        <f>SUM(N17:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="221">
-        <f>SUM(C19:O19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="190"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64">
+        <f t="shared" ref="N19" si="3">SUM(N17:N18)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="182">
+        <f>SUM(O17:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="221">
+        <f>SUM(C19:P19)</f>
+        <v>0</v>
+      </c>
       <c r="R19" s="190"/>
       <c r="S19" s="190"/>
       <c r="T19" s="190"/>
-      <c r="U19" s="186"/>
-      <c r="V19" s="190"/>
+      <c r="U19" s="190"/>
+      <c r="V19" s="186"/>
       <c r="W19" s="190"/>
       <c r="X19" s="190"/>
       <c r="Y19" s="190"/>
       <c r="Z19" s="190"/>
-      <c r="AA19" s="186"/>
-      <c r="AB19" s="190"/>
+      <c r="AA19" s="190"/>
+      <c r="AB19" s="186"/>
       <c r="AC19" s="190"/>
       <c r="AD19" s="190"/>
       <c r="AE19" s="190"/>
       <c r="AF19" s="190"/>
-      <c r="AG19" s="186"/>
-    </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q20" s="186"/>
+      <c r="AG19" s="190"/>
+      <c r="AH19" s="186"/>
+    </row>
+    <row r="20" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R20" s="186"/>
       <c r="S20" s="186"/>
       <c r="T20" s="186"/>
@@ -17677,8 +18280,9 @@
       <c r="AE20" s="186"/>
       <c r="AF20" s="186"/>
       <c r="AG20" s="186"/>
-    </row>
-    <row r="21" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH20" s="186"/>
+    </row>
+    <row r="21" spans="1:34" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="134" t="s">
         <v>54</v>
       </c>
@@ -17690,11 +18294,11 @@
       <c r="L21" s="92"/>
       <c r="M21" s="92"/>
       <c r="N21" s="92"/>
-      <c r="P21" s="222">
-        <f ca="1">IF(ISNUMBER(Diskonttaus!B20),Diskonttaus!B19*Kayttajahyodyt!P14+Diskonttaus!B20*Kayttajahyodyt!P19,Diskonttaus!B19*Kayttajahyodyt!P14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="186"/>
+      <c r="O21" s="92"/>
+      <c r="Q21" s="222">
+        <f ca="1">IF(ISNUMBER(Diskonttaus!B20),Diskonttaus!B19*Kayttajahyodyt!Q14+Diskonttaus!B20*Kayttajahyodyt!Q19,Diskonttaus!B19*Kayttajahyodyt!Q14)</f>
+        <v>0</v>
+      </c>
       <c r="R21" s="186"/>
       <c r="S21" s="186"/>
       <c r="T21" s="186"/>
@@ -17711,9 +18315,9 @@
       <c r="AE21" s="186"/>
       <c r="AF21" s="186"/>
       <c r="AG21" s="186"/>
-    </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q22" s="186"/>
+      <c r="AH21" s="186"/>
+    </row>
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R22" s="186"/>
       <c r="S22" s="186"/>
       <c r="T22" s="186"/>
@@ -17730,8 +18334,9 @@
       <c r="AE22" s="186"/>
       <c r="AF22" s="186"/>
       <c r="AG22" s="186"/>
-    </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH22" s="186"/>
+    </row>
+    <row r="23" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>55</v>
       </c>
@@ -17742,7 +18347,7 @@
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="Q23" s="186"/>
+      <c r="O23" s="17"/>
       <c r="R23" s="186"/>
       <c r="S23" s="186"/>
       <c r="T23" s="186"/>
@@ -17759,8 +18364,9 @@
       <c r="AE23" s="186"/>
       <c r="AF23" s="186"/>
       <c r="AG23" s="186"/>
-    </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH23" s="186"/>
+    </row>
+    <row r="24" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="87">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
@@ -17777,24 +18383,26 @@
       <c r="L24" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="30" t="s">
+      <c r="M24" t="s">
+        <v>226</v>
+      </c>
+      <c r="N24" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="60" t="s">
+      <c r="O24" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="87" t="s">
+      <c r="Q24" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="189"/>
       <c r="R24" s="189"/>
-      <c r="S24" s="186"/>
+      <c r="S24" s="189"/>
       <c r="T24" s="186"/>
       <c r="U24" s="186"/>
-      <c r="V24" s="189"/>
+      <c r="V24" s="186"/>
       <c r="W24" s="189"/>
       <c r="X24" s="189"/>
-      <c r="Y24" s="186"/>
+      <c r="Y24" s="189"/>
       <c r="Z24" s="186"/>
       <c r="AA24" s="186"/>
       <c r="AB24" s="186"/>
@@ -17803,8 +18411,9 @@
       <c r="AE24" s="186"/>
       <c r="AF24" s="186"/>
       <c r="AG24" s="186"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH24" s="186"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B25" s="52" t="s">
         <v>52</v>
       </c>
@@ -17824,37 +18433,41 @@
         <f>-E67*ka!F22</f>
         <v>0</v>
       </c>
-      <c r="M25" s="70">
+      <c r="M25" s="105">
+        <f>-puolip!F22*$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="70">
         <f>-E68*yhd!F22</f>
         <v>0</v>
       </c>
-      <c r="N25" s="104">
+      <c r="O25" s="104">
         <f>-E65*pa!F22</f>
         <v>0</v>
       </c>
-      <c r="P25" s="219">
-        <f>SUM(C25:O25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="190"/>
+      <c r="Q25" s="219">
+        <f>SUM(C25:P25)</f>
+        <v>0</v>
+      </c>
       <c r="R25" s="190"/>
       <c r="S25" s="190"/>
       <c r="T25" s="190"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="190"/>
+      <c r="U25" s="190"/>
+      <c r="V25" s="186"/>
       <c r="W25" s="190"/>
       <c r="X25" s="190"/>
       <c r="Y25" s="190"/>
       <c r="Z25" s="190"/>
-      <c r="AA25" s="186"/>
+      <c r="AA25" s="190"/>
       <c r="AB25" s="186"/>
       <c r="AC25" s="186"/>
       <c r="AD25" s="186"/>
       <c r="AE25" s="186"/>
       <c r="AF25" s="186"/>
       <c r="AG25" s="186"/>
-    </row>
-    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH25" s="186"/>
+    </row>
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>53</v>
       </c>
@@ -17874,37 +18487,41 @@
         <f>-E67*ka!F23</f>
         <v>0</v>
       </c>
-      <c r="M26" s="124">
+      <c r="M26" s="105">
+        <f>-puolip!F23*$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="124">
         <f>-E68*yhd!F23</f>
         <v>0</v>
       </c>
-      <c r="N26" s="63">
+      <c r="O26" s="63">
         <f>-E65*pa!F23</f>
         <v>0</v>
       </c>
-      <c r="P26" s="220">
-        <f>SUM(C26:O26)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="190"/>
+      <c r="Q26" s="220">
+        <f>SUM(C26:P26)</f>
+        <v>0</v>
+      </c>
       <c r="R26" s="190"/>
       <c r="S26" s="190"/>
       <c r="T26" s="190"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="190"/>
+      <c r="U26" s="190"/>
+      <c r="V26" s="186"/>
       <c r="W26" s="190"/>
       <c r="X26" s="190"/>
       <c r="Y26" s="190"/>
       <c r="Z26" s="190"/>
-      <c r="AA26" s="186"/>
+      <c r="AA26" s="190"/>
       <c r="AB26" s="186"/>
       <c r="AC26" s="186"/>
       <c r="AD26" s="186"/>
       <c r="AE26" s="186"/>
       <c r="AF26" s="186"/>
       <c r="AG26" s="186"/>
-    </row>
-    <row r="27" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH26" s="186"/>
+    </row>
+    <row r="27" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="53" t="s">
         <v>8</v>
       </c>
@@ -17924,41 +18541,44 @@
         <f>SUM(L25:L26)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="65">
+      <c r="M27" s="225">
         <f>SUM(M25:M26)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="182">
+      <c r="N27" s="65">
         <f>SUM(N25:N26)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="221">
-        <f>SUM(C27:O27)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="190"/>
+      <c r="O27" s="182">
+        <f>SUM(O25:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="221">
+        <f>SUM(C27:P27)</f>
+        <v>0</v>
+      </c>
       <c r="R27" s="190"/>
       <c r="S27" s="190"/>
       <c r="T27" s="190"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="190"/>
+      <c r="U27" s="190"/>
+      <c r="V27" s="186"/>
       <c r="W27" s="190"/>
       <c r="X27" s="190"/>
       <c r="Y27" s="190"/>
       <c r="Z27" s="190"/>
-      <c r="AA27" s="186"/>
+      <c r="AA27" s="190"/>
       <c r="AB27" s="186"/>
       <c r="AC27" s="186"/>
       <c r="AD27" s="186"/>
       <c r="AE27" s="186"/>
       <c r="AF27" s="186"/>
       <c r="AG27" s="186"/>
-    </row>
-    <row r="28" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH27" s="186"/>
+    </row>
+    <row r="28" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F28" s="193"/>
       <c r="J28" s="193"/>
       <c r="K28" s="193"/>
-      <c r="Q28" s="186"/>
       <c r="R28" s="186"/>
       <c r="S28" s="186"/>
       <c r="T28" s="186"/>
@@ -17975,8 +18595,9 @@
       <c r="AE28" s="186"/>
       <c r="AF28" s="186"/>
       <c r="AG28" s="186"/>
-    </row>
-    <row r="29" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH28" s="186"/>
+    </row>
+    <row r="29" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="87">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
@@ -17993,24 +18614,26 @@
       <c r="L29" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" t="s">
+        <v>226</v>
+      </c>
+      <c r="N29" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="N29" s="60" t="s">
+      <c r="O29" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="68" t="s">
+      <c r="Q29" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="189"/>
       <c r="R29" s="189"/>
-      <c r="S29" s="186"/>
+      <c r="S29" s="189"/>
       <c r="T29" s="186"/>
       <c r="U29" s="186"/>
-      <c r="V29" s="189"/>
+      <c r="V29" s="186"/>
       <c r="W29" s="189"/>
       <c r="X29" s="189"/>
-      <c r="Y29" s="186"/>
+      <c r="Y29" s="189"/>
       <c r="Z29" s="186"/>
       <c r="AA29" s="186"/>
       <c r="AB29" s="186"/>
@@ -18019,8 +18642,9 @@
       <c r="AE29" s="186"/>
       <c r="AF29" s="186"/>
       <c r="AG29" s="186"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH29" s="186"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B30" s="52" t="s">
         <v>52</v>
       </c>
@@ -18039,37 +18663,41 @@
         <f>-E67*ka!F27</f>
         <v>0</v>
       </c>
-      <c r="M30" s="70">
+      <c r="M30" s="105">
+        <f>-puolip!F27*$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="70">
         <f>-E68*yhd!F27</f>
         <v>0</v>
       </c>
-      <c r="N30" s="104">
+      <c r="O30" s="104">
         <f>-E65*pa!F27</f>
         <v>0</v>
       </c>
-      <c r="P30" s="219">
-        <f>SUM(C30:O30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="190"/>
+      <c r="Q30" s="219">
+        <f>SUM(C30:P30)</f>
+        <v>0</v>
+      </c>
       <c r="R30" s="190"/>
       <c r="S30" s="190"/>
       <c r="T30" s="190"/>
-      <c r="U30" s="186"/>
-      <c r="V30" s="190"/>
+      <c r="U30" s="190"/>
+      <c r="V30" s="186"/>
       <c r="W30" s="190"/>
       <c r="X30" s="190"/>
       <c r="Y30" s="190"/>
       <c r="Z30" s="190"/>
-      <c r="AA30" s="186"/>
+      <c r="AA30" s="190"/>
       <c r="AB30" s="186"/>
       <c r="AC30" s="186"/>
       <c r="AD30" s="186"/>
       <c r="AE30" s="186"/>
       <c r="AF30" s="186"/>
       <c r="AG30" s="186"/>
-    </row>
-    <row r="31" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH30" s="186"/>
+    </row>
+    <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
         <v>53</v>
       </c>
@@ -18088,37 +18716,41 @@
         <f>-E67*ka!F28</f>
         <v>0</v>
       </c>
-      <c r="M31" s="124">
+      <c r="M31" s="105">
+        <f>-puolip!F28*$E$68</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="124">
         <f>-E68*yhd!F28</f>
         <v>0</v>
       </c>
-      <c r="N31" s="63">
+      <c r="O31" s="63">
         <f>-E65*pa!F28</f>
         <v>0</v>
       </c>
-      <c r="P31" s="220">
-        <f>SUM(C31:O31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="190"/>
+      <c r="Q31" s="220">
+        <f>SUM(C31:P31)</f>
+        <v>0</v>
+      </c>
       <c r="R31" s="190"/>
       <c r="S31" s="190"/>
       <c r="T31" s="190"/>
-      <c r="U31" s="186"/>
-      <c r="V31" s="190"/>
+      <c r="U31" s="190"/>
+      <c r="V31" s="186"/>
       <c r="W31" s="190"/>
       <c r="X31" s="190"/>
       <c r="Y31" s="190"/>
       <c r="Z31" s="190"/>
-      <c r="AA31" s="186"/>
+      <c r="AA31" s="190"/>
       <c r="AB31" s="186"/>
       <c r="AC31" s="186"/>
       <c r="AD31" s="186"/>
       <c r="AE31" s="186"/>
       <c r="AF31" s="186"/>
       <c r="AG31" s="186"/>
-    </row>
-    <row r="32" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH31" s="186"/>
+    </row>
+    <row r="32" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="s">
         <v>8</v>
       </c>
@@ -18137,38 +18769,41 @@
         <f>SUM(L30:L31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="65">
+      <c r="M32" s="225">
         <f>SUM(M30:M31)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="182">
+      <c r="N32" s="65">
         <f>SUM(N30:N31)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="221">
-        <f>SUM(C32:O32)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="190"/>
+      <c r="O32" s="182">
+        <f>SUM(O30:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="221">
+        <f>SUM(C32:P32)</f>
+        <v>0</v>
+      </c>
       <c r="R32" s="190"/>
       <c r="S32" s="190"/>
       <c r="T32" s="190"/>
-      <c r="U32" s="186"/>
-      <c r="V32" s="190"/>
+      <c r="U32" s="190"/>
+      <c r="V32" s="186"/>
       <c r="W32" s="190"/>
       <c r="X32" s="190"/>
       <c r="Y32" s="190"/>
       <c r="Z32" s="190"/>
-      <c r="AA32" s="186"/>
+      <c r="AA32" s="190"/>
       <c r="AB32" s="186"/>
       <c r="AC32" s="186"/>
       <c r="AD32" s="186"/>
       <c r="AE32" s="186"/>
       <c r="AF32" s="186"/>
       <c r="AG32" s="186"/>
-    </row>
-    <row r="33" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q33" s="186"/>
+      <c r="AH32" s="186"/>
+    </row>
+    <row r="33" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R33" s="186"/>
       <c r="S33" s="186"/>
       <c r="T33" s="186"/>
@@ -18185,16 +18820,16 @@
       <c r="AE33" s="186"/>
       <c r="AF33" s="186"/>
       <c r="AG33" s="186"/>
-    </row>
-    <row r="34" spans="1:33" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AH33" s="186"/>
+    </row>
+    <row r="34" spans="1:34" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="P34" s="223">
-        <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!P27+Diskonttaus!B27*Kayttajahyodyt!P32,Diskonttaus!B26*Kayttajahyodyt!P27)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="186"/>
+      <c r="Q34" s="223">
+        <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!Q27+Diskonttaus!B27*Kayttajahyodyt!Q32,Diskonttaus!B26*Kayttajahyodyt!Q27)</f>
+        <v>0</v>
+      </c>
       <c r="R34" s="186"/>
       <c r="S34" s="186"/>
       <c r="T34" s="186"/>
@@ -18211,9 +18846,9 @@
       <c r="AE34" s="186"/>
       <c r="AF34" s="186"/>
       <c r="AG34" s="186"/>
-    </row>
-    <row r="35" spans="1:33" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q35" s="191"/>
+      <c r="AH34" s="186"/>
+    </row>
+    <row r="35" spans="1:34" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R35" s="191"/>
       <c r="S35" s="191"/>
       <c r="T35" s="191"/>
@@ -18230,9 +18865,9 @@
       <c r="AE35" s="191"/>
       <c r="AF35" s="191"/>
       <c r="AG35" s="191"/>
-    </row>
-    <row r="36" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="Q36" s="186"/>
+      <c r="AH35" s="191"/>
+    </row>
+    <row r="36" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="R36" s="186"/>
       <c r="S36" s="186"/>
       <c r="T36" s="186"/>
@@ -18249,8 +18884,9 @@
       <c r="AE36" s="186"/>
       <c r="AF36" s="186"/>
       <c r="AG36" s="186"/>
-    </row>
-    <row r="37" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH36" s="186"/>
+    </row>
+    <row r="37" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -18262,8 +18898,8 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
-      <c r="P37"/>
-      <c r="Q37" s="186"/>
+      <c r="O37"/>
+      <c r="Q37"/>
       <c r="R37" s="186"/>
       <c r="S37" s="186"/>
       <c r="T37" s="186"/>
@@ -18280,8 +18916,9 @@
       <c r="AE37" s="186"/>
       <c r="AF37" s="186"/>
       <c r="AG37" s="186"/>
-    </row>
-    <row r="38" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH37" s="186"/>
+    </row>
+    <row r="38" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>56</v>
       </c>
@@ -18295,8 +18932,8 @@
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
-      <c r="P38"/>
-      <c r="Q38" s="186"/>
+      <c r="O38"/>
+      <c r="Q38"/>
       <c r="R38" s="186"/>
       <c r="S38" s="186"/>
       <c r="T38" s="186"/>
@@ -18313,8 +18950,9 @@
       <c r="AE38" s="186"/>
       <c r="AF38" s="186"/>
       <c r="AG38" s="186"/>
-    </row>
-    <row r="39" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH38" s="186"/>
+    </row>
+    <row r="39" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39" s="87">
         <f>Diskonttaus!B4</f>
@@ -18346,34 +18984,37 @@
       <c r="L39" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="M39" s="30" t="s">
+      <c r="M39" t="s">
+        <v>226</v>
+      </c>
+      <c r="N39" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="N39" s="60" t="s">
+      <c r="O39" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="P39" s="87" t="s">
+      <c r="Q39" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q39" s="189"/>
       <c r="R39" s="189"/>
-      <c r="S39" s="186"/>
+      <c r="S39" s="189"/>
       <c r="T39" s="186"/>
       <c r="U39" s="186"/>
-      <c r="V39" s="189"/>
+      <c r="V39" s="186"/>
       <c r="W39" s="189"/>
       <c r="X39" s="189"/>
-      <c r="Y39" s="186"/>
+      <c r="Y39" s="189"/>
       <c r="Z39" s="186"/>
       <c r="AA39" s="186"/>
-      <c r="AB39" s="189"/>
+      <c r="AB39" s="186"/>
       <c r="AC39" s="189"/>
       <c r="AD39" s="189"/>
-      <c r="AE39" s="186"/>
+      <c r="AE39" s="189"/>
       <c r="AF39" s="186"/>
       <c r="AG39" s="186"/>
-    </row>
-    <row r="40" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH39" s="186"/>
+    </row>
+    <row r="40" spans="1:34" s="183" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40" s="56" t="s">
         <v>52</v>
@@ -18412,37 +19053,41 @@
         <f>-ka!F37</f>
         <v>0</v>
       </c>
-      <c r="M40" s="70">
+      <c r="M40" s="311">
+        <f>-puolip!F37</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="70">
         <f>-yhd!F37</f>
         <v>0</v>
       </c>
-      <c r="N40" s="192">
+      <c r="O40" s="192">
         <f>-pa!F37</f>
         <v>0</v>
       </c>
-      <c r="P40" s="219">
-        <f>SUM(C40:O40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="190"/>
+      <c r="Q40" s="219">
+        <f>SUM(C40:P40)</f>
+        <v>0</v>
+      </c>
       <c r="R40" s="190"/>
       <c r="S40" s="190"/>
       <c r="T40" s="190"/>
-      <c r="U40" s="186"/>
-      <c r="V40" s="190"/>
+      <c r="U40" s="190"/>
+      <c r="V40" s="186"/>
       <c r="W40" s="190"/>
       <c r="X40" s="190"/>
       <c r="Y40" s="190"/>
       <c r="Z40" s="190"/>
-      <c r="AA40" s="186"/>
-      <c r="AB40" s="190"/>
+      <c r="AA40" s="190"/>
+      <c r="AB40" s="186"/>
       <c r="AC40" s="190"/>
       <c r="AD40" s="190"/>
       <c r="AE40" s="190"/>
       <c r="AF40" s="190"/>
-      <c r="AG40" s="186"/>
-    </row>
-    <row r="41" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG40" s="190"/>
+      <c r="AH40" s="186"/>
+    </row>
+    <row r="41" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" s="35" t="s">
         <v>53</v>
@@ -18481,37 +19126,41 @@
         <f>-ka!F38</f>
         <v>0</v>
       </c>
-      <c r="M41" s="124">
+      <c r="M41" s="311">
+        <f>-puolip!F38</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="124">
         <f>-yhd!F38</f>
         <v>0</v>
       </c>
-      <c r="N41" s="122">
+      <c r="O41" s="122">
         <f>-pa!F38</f>
         <v>0</v>
       </c>
-      <c r="P41" s="220">
-        <f>SUM(C41:O41)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="190"/>
+      <c r="Q41" s="220">
+        <f>SUM(C41:P41)</f>
+        <v>0</v>
+      </c>
       <c r="R41" s="190"/>
       <c r="S41" s="190"/>
       <c r="T41" s="190"/>
-      <c r="U41" s="186"/>
-      <c r="V41" s="190"/>
+      <c r="U41" s="190"/>
+      <c r="V41" s="186"/>
       <c r="W41" s="190"/>
       <c r="X41" s="190"/>
       <c r="Y41" s="190"/>
       <c r="Z41" s="190"/>
-      <c r="AA41" s="186"/>
-      <c r="AB41" s="190"/>
+      <c r="AA41" s="190"/>
+      <c r="AB41" s="186"/>
       <c r="AC41" s="190"/>
       <c r="AD41" s="190"/>
       <c r="AE41" s="190"/>
       <c r="AF41" s="190"/>
-      <c r="AG41" s="186"/>
-    </row>
-    <row r="42" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG41" s="190"/>
+      <c r="AH41" s="186"/>
+    </row>
+    <row r="42" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42" s="57" t="s">
         <v>8</v>
@@ -18550,37 +19199,41 @@
         <f>SUM(L40:L41)</f>
         <v>0</v>
       </c>
-      <c r="M42" s="65">
+      <c r="M42" s="225">
         <f>SUM(M40:M41)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="76">
+      <c r="N42" s="65">
         <f>SUM(N40:N41)</f>
         <v>0</v>
       </c>
-      <c r="P42" s="221">
-        <f>SUM(C42:O42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="190"/>
+      <c r="O42" s="76">
+        <f>SUM(O40:O41)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="221">
+        <f>SUM(C42:P42)</f>
+        <v>0</v>
+      </c>
       <c r="R42" s="190"/>
       <c r="S42" s="190"/>
       <c r="T42" s="190"/>
-      <c r="U42" s="186"/>
-      <c r="V42" s="190"/>
+      <c r="U42" s="190"/>
+      <c r="V42" s="186"/>
       <c r="W42" s="190"/>
       <c r="X42" s="190"/>
       <c r="Y42" s="190"/>
       <c r="Z42" s="190"/>
-      <c r="AA42" s="186"/>
-      <c r="AB42" s="190"/>
+      <c r="AA42" s="190"/>
+      <c r="AB42" s="186"/>
       <c r="AC42" s="190"/>
       <c r="AD42" s="190"/>
       <c r="AE42" s="190"/>
       <c r="AF42" s="190"/>
-      <c r="AG42" s="186"/>
-    </row>
-    <row r="43" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG42" s="190"/>
+      <c r="AH42" s="186"/>
+    </row>
+    <row r="43" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -18592,8 +19245,8 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
-      <c r="P43"/>
-      <c r="Q43" s="186"/>
+      <c r="O43"/>
+      <c r="Q43"/>
       <c r="R43" s="186"/>
       <c r="S43" s="186"/>
       <c r="T43" s="186"/>
@@ -18610,8 +19263,9 @@
       <c r="AE43" s="186"/>
       <c r="AF43" s="186"/>
       <c r="AG43" s="186"/>
-    </row>
-    <row r="44" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH43" s="186"/>
+    </row>
+    <row r="44" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44" s="87">
         <f>Diskonttaus!B6</f>
@@ -18643,34 +19297,37 @@
       <c r="L44" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="M44" s="30" t="s">
+      <c r="M44" t="s">
+        <v>226</v>
+      </c>
+      <c r="N44" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="N44" s="60" t="s">
+      <c r="O44" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="P44" s="87" t="s">
+      <c r="Q44" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="189"/>
       <c r="R44" s="189"/>
-      <c r="S44" s="186"/>
+      <c r="S44" s="189"/>
       <c r="T44" s="186"/>
       <c r="U44" s="186"/>
-      <c r="V44" s="189"/>
+      <c r="V44" s="186"/>
       <c r="W44" s="189"/>
       <c r="X44" s="189"/>
-      <c r="Y44" s="186"/>
+      <c r="Y44" s="189"/>
       <c r="Z44" s="186"/>
       <c r="AA44" s="186"/>
-      <c r="AB44" s="189"/>
+      <c r="AB44" s="186"/>
       <c r="AC44" s="189"/>
       <c r="AD44" s="189"/>
-      <c r="AE44" s="186"/>
+      <c r="AE44" s="189"/>
       <c r="AF44" s="186"/>
       <c r="AG44" s="186"/>
-    </row>
-    <row r="45" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH44" s="186"/>
+    </row>
+    <row r="45" spans="1:34" s="183" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45" s="56" t="s">
         <v>52</v>
@@ -18709,37 +19366,41 @@
         <f>-ka!F42</f>
         <v>0</v>
       </c>
-      <c r="M45" s="70">
+      <c r="M45" s="311">
+        <f>-puolip!F42</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="70">
         <f>-yhd!G42</f>
         <v>0</v>
       </c>
-      <c r="N45" s="192">
+      <c r="O45" s="192">
         <f>-pa!F42</f>
         <v>0</v>
       </c>
-      <c r="P45" s="219">
-        <f>SUM(C45:O45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="190"/>
+      <c r="Q45" s="219">
+        <f>SUM(C45:P45)</f>
+        <v>0</v>
+      </c>
       <c r="R45" s="190"/>
       <c r="S45" s="190"/>
       <c r="T45" s="190"/>
-      <c r="U45" s="186"/>
-      <c r="V45" s="190"/>
+      <c r="U45" s="190"/>
+      <c r="V45" s="186"/>
       <c r="W45" s="190"/>
       <c r="X45" s="190"/>
       <c r="Y45" s="190"/>
       <c r="Z45" s="190"/>
-      <c r="AA45" s="186"/>
-      <c r="AB45" s="190"/>
+      <c r="AA45" s="190"/>
+      <c r="AB45" s="186"/>
       <c r="AC45" s="190"/>
       <c r="AD45" s="190"/>
       <c r="AE45" s="190"/>
       <c r="AF45" s="190"/>
-      <c r="AG45" s="186"/>
-    </row>
-    <row r="46" spans="1:33" s="183" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG45" s="190"/>
+      <c r="AH45" s="186"/>
+    </row>
+    <row r="46" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46" s="35" t="s">
         <v>53</v>
@@ -18778,37 +19439,41 @@
         <f>-ka!F43</f>
         <v>0</v>
       </c>
-      <c r="M46" s="124">
+      <c r="M46" s="311">
+        <f>-puolip!F43</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="124">
         <f>-yhd!G43</f>
         <v>0</v>
       </c>
-      <c r="N46" s="122">
+      <c r="O46" s="122">
         <f>-pa!F43</f>
         <v>0</v>
       </c>
-      <c r="P46" s="220">
-        <f>SUM(C46:O46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="190"/>
+      <c r="Q46" s="220">
+        <f>SUM(C46:P46)</f>
+        <v>0</v>
+      </c>
       <c r="R46" s="190"/>
       <c r="S46" s="190"/>
       <c r="T46" s="190"/>
-      <c r="U46" s="186"/>
-      <c r="V46" s="190"/>
+      <c r="U46" s="190"/>
+      <c r="V46" s="186"/>
       <c r="W46" s="190"/>
       <c r="X46" s="190"/>
       <c r="Y46" s="190"/>
       <c r="Z46" s="190"/>
-      <c r="AA46" s="186"/>
-      <c r="AB46" s="190"/>
+      <c r="AA46" s="190"/>
+      <c r="AB46" s="186"/>
       <c r="AC46" s="190"/>
       <c r="AD46" s="190"/>
       <c r="AE46" s="190"/>
       <c r="AF46" s="190"/>
-      <c r="AG46" s="186"/>
-    </row>
-    <row r="47" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG46" s="190"/>
+      <c r="AH46" s="186"/>
+    </row>
+    <row r="47" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47" s="57" t="s">
         <v>8</v>
@@ -18847,37 +19512,41 @@
         <f>SUM(L45:L46)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="65">
+      <c r="M47" s="225">
         <f>SUM(M45:M46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="76">
+      <c r="N47" s="65">
         <f>SUM(N45:N46)</f>
         <v>0</v>
       </c>
-      <c r="P47" s="221">
-        <f>SUM(C47:O47)</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="190"/>
+      <c r="O47" s="76">
+        <f>SUM(O45:O46)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="221">
+        <f>SUM(C47:P47)</f>
+        <v>0</v>
+      </c>
       <c r="R47" s="190"/>
       <c r="S47" s="190"/>
       <c r="T47" s="190"/>
-      <c r="U47" s="186"/>
-      <c r="V47" s="190"/>
+      <c r="U47" s="190"/>
+      <c r="V47" s="186"/>
       <c r="W47" s="190"/>
       <c r="X47" s="190"/>
       <c r="Y47" s="190"/>
       <c r="Z47" s="190"/>
-      <c r="AA47" s="186"/>
-      <c r="AB47" s="190"/>
+      <c r="AA47" s="190"/>
+      <c r="AB47" s="186"/>
       <c r="AC47" s="190"/>
       <c r="AD47" s="190"/>
       <c r="AE47" s="190"/>
       <c r="AF47" s="190"/>
-      <c r="AG47" s="186"/>
-    </row>
-    <row r="48" spans="1:33" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG47" s="190"/>
+      <c r="AH47" s="186"/>
+    </row>
+    <row r="48" spans="1:34" s="183" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -18888,9 +19557,9 @@
       <c r="K48" s="193"/>
       <c r="L48" s="193"/>
       <c r="M48" s="193"/>
-      <c r="N48"/>
-      <c r="P48"/>
-      <c r="Q48" s="186"/>
+      <c r="N48" s="193"/>
+      <c r="O48"/>
+      <c r="Q48"/>
       <c r="R48" s="186"/>
       <c r="S48" s="186"/>
       <c r="T48" s="186"/>
@@ -18907,6 +19576,7 @@
       <c r="AE48" s="186"/>
       <c r="AF48" s="186"/>
       <c r="AG48" s="186"/>
+      <c r="AH48" s="186"/>
     </row>
     <row r="49" spans="1:34" s="183" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49"/>
@@ -18922,11 +19592,11 @@
       <c r="L49" s="193"/>
       <c r="M49" s="193"/>
       <c r="N49" s="193"/>
-      <c r="P49" s="223">
-        <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!P42+Diskonttaus!B27*Kayttajahyodyt!P47,Diskonttaus!B26*Kayttajahyodyt!P42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="186"/>
+      <c r="O49" s="193"/>
+      <c r="Q49" s="223">
+        <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!Q42+Diskonttaus!B27*Kayttajahyodyt!Q47,Diskonttaus!B26*Kayttajahyodyt!Q42)</f>
+        <v>0</v>
+      </c>
       <c r="R49" s="186"/>
       <c r="S49" s="186"/>
       <c r="T49" s="186"/>
@@ -18943,6 +19613,7 @@
       <c r="AE49" s="186"/>
       <c r="AF49" s="186"/>
       <c r="AG49" s="186"/>
+      <c r="AH49" s="186"/>
     </row>
     <row r="50" spans="1:34" s="183" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
@@ -22991,15 +23662,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Työryhmän dokumentti" ma:contentTypeID="0x0101005AF0DAC6D8B8D046AA97775D0EA0A52C00597B3796DB9FF548BDFCB0DE8988F274" ma:contentTypeVersion="18" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="52111fa3d5fab8e48da38903eaacec4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xmlns:ns3="8dde8a50-f86d-46ca-ae54-a219d58ab0f1" xmlns:ns4="4468c9de-2a81-4c06-bf49-e269715ababb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb907d030b2bbafc68088718dbf26d11" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
@@ -23234,6 +23896,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -23261,14 +23932,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2FF8B0-9374-422E-84FD-E99C507D087D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23284,6 +23947,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Scripts/CBA_kehikko.xlsx
+++ b/Scripts/CBA_kehikko.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="13380" windowHeight="10605" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="13380" windowHeight="10605"/>
   </bookViews>
   <sheets>
     <sheet name="Yhteenveto" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="226">
   <si>
     <t>Nettohyöty</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>Summa nykyarvo</t>
-  </si>
-  <si>
-    <t>Ajoneuvokustannussäästöt</t>
   </si>
   <si>
     <t>Tiemaksut ja lippumenot</t>
@@ -693,9 +690,6 @@
     <t xml:space="preserve">    Liput, verot ja maksut</t>
   </si>
   <si>
-    <t xml:space="preserve">    Ajoneuvokustannukset</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Aikakustannukset</t>
   </si>
   <si>
@@ -757,6 +751,9 @@
   </si>
   <si>
     <t>Suorite ennen</t>
+  </si>
+  <si>
+    <t>Ajokustannukset, tiemaksut ja lippumenot</t>
   </si>
 </sst>
 </file>
@@ -2562,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +2578,7 @@
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="257" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="265"/>
       <c r="D2" s="256" t="s">
@@ -2605,7 +2602,7 @@
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="258" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="178"/>
       <c r="D4" s="260">
@@ -2615,7 +2612,7 @@
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="259" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="266"/>
       <c r="D5" s="283">
@@ -2625,7 +2622,7 @@
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="257" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="266"/>
       <c r="D6" s="286">
@@ -2640,7 +2637,7 @@
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="257" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="267"/>
       <c r="D8" s="256" t="s">
@@ -2649,14 +2646,14 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="255" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="265"/>
       <c r="D9" s="60"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="264" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" s="270">
         <f ca="1">-D10</f>
@@ -2669,14 +2666,14 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="262" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="288"/>
       <c r="D11" s="260"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C12" s="289">
         <f ca="1">-D12</f>
@@ -2688,21 +2685,16 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
-        <v>205</v>
-      </c>
+      <c r="B13" s="53"/>
       <c r="C13" s="289">
-        <f t="shared" ref="C13:C14" ca="1" si="0">-D13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="260">
-        <f ca="1">Kayttajahyodyt!Q34/1000000</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="C13:C14" si="0">-D13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="260"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="270">
         <f t="shared" ca="1" si="0"/>
@@ -2715,14 +2707,14 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="261" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15" s="290"/>
       <c r="D15" s="253"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C16" s="289">
         <f t="shared" ref="C16:C17" ca="1" si="1">-D16</f>
@@ -2735,7 +2727,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" s="289">
         <f t="shared" ca="1" si="1"/>
@@ -2755,7 +2747,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="264" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C19" s="270">
         <f ca="1">-D19</f>
@@ -2768,14 +2760,14 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="262" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C20" s="288"/>
       <c r="D20" s="260"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="53" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="289">
         <f t="shared" ref="C21:C22" ca="1" si="2">-D21</f>
@@ -2788,7 +2780,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C22" s="289">
         <f t="shared" ca="1" si="2"/>
@@ -2801,14 +2793,14 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="261" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C23" s="290"/>
       <c r="D23" s="253"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="264" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C24" s="270">
         <f t="shared" ref="C24:C26" ca="1" si="3">-D24</f>
@@ -2834,7 +2826,7 @@
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="257" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" s="292">
         <f t="shared" ca="1" si="3"/>
@@ -2940,12 +2932,12 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2972,7 +2964,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3137,7 +3129,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3318,7 +3310,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3503,15 +3495,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3538,7 +3530,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3703,7 +3695,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3884,7 +3876,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4069,15 +4061,15 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4104,7 +4096,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4269,7 +4261,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4450,7 +4442,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4635,12 +4627,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4667,7 +4659,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4832,7 +4824,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5013,7 +5005,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5196,12 +5188,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5228,7 +5220,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5393,7 +5385,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5574,7 +5566,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5759,12 +5751,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5791,7 +5783,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5956,7 +5948,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6137,7 +6129,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6322,12 +6314,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6354,7 +6346,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6519,7 +6511,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6700,7 +6692,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6899,72 +6891,72 @@
   <sheetData>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="K7" s="79">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="66" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U7" s="212" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="126">
         <v>0.74</v>
@@ -6975,7 +6967,7 @@
       <c r="D8" s="127"/>
       <c r="E8" s="13"/>
       <c r="F8" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="51">
         <f>Diskonttaus!$B$11*S8</f>
@@ -6990,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="91">
         <f t="shared" ref="L8:N12" si="0">B8*G8</f>
@@ -7009,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S8" s="128"/>
       <c r="T8" s="128"/>
@@ -7017,7 +7009,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="126">
         <v>0.78</v>
@@ -7028,7 +7020,7 @@
       <c r="D9" s="127"/>
       <c r="E9" s="14"/>
       <c r="F9" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="51">
         <f>Diskonttaus!$B$11*S9</f>
@@ -7043,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L9" s="92">
         <f t="shared" si="0"/>
@@ -7062,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S9" s="128"/>
       <c r="T9" s="128"/>
@@ -7070,7 +7062,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="126">
         <v>2.2999999999999998</v>
@@ -7081,7 +7073,7 @@
       <c r="D10" s="127"/>
       <c r="E10" s="14"/>
       <c r="F10" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="51">
         <f>Diskonttaus!$B$11*S10</f>
@@ -7096,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="92">
         <f t="shared" si="0"/>
@@ -7115,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S10" s="128"/>
       <c r="T10" s="128"/>
@@ -7123,7 +7115,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="126">
         <v>0.46</v>
@@ -7136,7 +7128,7 @@
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="51">
         <f>Diskonttaus!$B$11*S11</f>
@@ -7151,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="92">
         <f t="shared" si="0"/>
@@ -7170,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S11" s="128"/>
       <c r="T11" s="128"/>
@@ -7178,7 +7170,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="126">
         <f>2.8+2.8</f>
@@ -7191,7 +7183,7 @@
       <c r="D12" s="127"/>
       <c r="E12" s="40"/>
       <c r="F12" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="51">
         <f>Diskonttaus!$B$11*S12</f>
@@ -7206,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="92">
         <f t="shared" si="0"/>
@@ -7225,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S12" s="128"/>
       <c r="T12" s="128"/>
@@ -7261,49 +7253,49 @@
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="K15" s="79">
         <f>Diskonttaus!B6</f>
         <v>2050</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O15" s="66" t="s">
         <v>8</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U15" s="212" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="51">
         <f>Diskonttaus!$B$11*S16</f>
@@ -7318,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="91">
         <f t="shared" ref="L16:N20" si="3">B8*G16</f>
@@ -7337,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S16" s="124"/>
       <c r="T16" s="124"/>
@@ -7345,7 +7337,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F17" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="51">
         <f>Diskonttaus!$B$11*S17</f>
@@ -7360,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="92">
         <f t="shared" si="3"/>
@@ -7379,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S17" s="124"/>
       <c r="T17" s="124"/>
@@ -7387,7 +7379,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="51">
         <f>Diskonttaus!$B$11*S18</f>
@@ -7402,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" s="92">
         <f t="shared" si="3"/>
@@ -7421,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S18" s="124"/>
       <c r="T18" s="124"/>
@@ -7429,7 +7421,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="51">
         <f>Diskonttaus!$B$11*S19</f>
@@ -7444,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L19" s="92">
         <f t="shared" si="3"/>
@@ -7463,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S19" s="124"/>
       <c r="T19" s="124"/>
@@ -7471,7 +7463,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="51">
         <f>Diskonttaus!$B$11*S20</f>
@@ -7486,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L20" s="92">
         <f t="shared" si="3"/>
@@ -7505,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S20" s="124"/>
       <c r="T20" s="124"/>
@@ -7567,12 +7559,12 @@
     <row r="27" spans="1:21" s="95" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="69">
         <f>Diskonttaus!B4</f>
@@ -7582,7 +7574,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="108"/>
     </row>
@@ -7605,7 +7597,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="58"/>
     </row>
@@ -7630,7 +7622,7 @@
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="16"/>
     </row>
@@ -7639,7 +7631,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="43" t="s">
         <v>49</v>
@@ -7670,7 +7662,7 @@
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="152"/>
       <c r="C43" s="153"/>
@@ -7689,7 +7681,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="43" t="s">
         <v>49</v>
@@ -7720,7 +7712,7 @@
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="152"/>
       <c r="C46" s="153"/>
@@ -7747,51 +7739,51 @@
     <row r="50" spans="1:12" s="95" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K53" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F54" s="8">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K54" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B55" s="129">
         <v>4.3E-3</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G55" s="110">
         <f>Diskonttaus!$B$11*(Ulkoisvaikutukset!O19+Ulkoisvaikutukset!O20)</f>
         <v>0</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L55" s="73">
         <f>B55*G55</f>
@@ -7800,20 +7792,20 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56" s="129">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="F56" s="212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G56" s="110">
         <f>Diskonttaus!$B$11*(Ulkoisvaikutukset!O15+Ulkoisvaikutukset!O21+Ulkoisvaikutukset!O22)</f>
         <v>0</v>
       </c>
       <c r="K56" s="214" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L56" s="92">
         <f>B56*G56</f>
@@ -7822,21 +7814,21 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="126">
         <f>41.6*0.0015</f>
         <v>6.2400000000000004E-2</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="110">
         <f>Tuottajahyodyt!G10</f>
         <v>0</v>
       </c>
       <c r="K57" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L57" s="108">
         <f>B57*G57</f>
@@ -7845,21 +7837,21 @@
     </row>
     <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="126">
         <f>130*0.0015</f>
         <v>0.19500000000000001</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="110">
         <f>G11</f>
         <v>0</v>
       </c>
       <c r="K58" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L58" s="108">
         <f>B58*G58</f>
@@ -7868,21 +7860,21 @@
     </row>
     <row r="59" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="126">
         <f>2*132*0.0015</f>
         <v>0.39600000000000002</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G59" s="110">
         <f>G12</f>
         <v>0</v>
       </c>
       <c r="K59" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L59" s="89">
         <f>B59*G59</f>
@@ -7905,25 +7897,25 @@
         <v>2050</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K62" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F63" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G63" s="110">
         <f>Diskonttaus!$B$11*(Ulkoisvaikutukset!O32+Ulkoisvaikutukset!O33)</f>
         <v>0</v>
       </c>
       <c r="K63" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L63" s="73">
         <f>B55*G63</f>
@@ -7932,14 +7924,14 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F64" s="212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G64" s="110">
         <f>Diskonttaus!$B$11*(Ulkoisvaikutukset!O28+Ulkoisvaikutukset!O34+Ulkoisvaikutukset!O35)</f>
         <v>0</v>
       </c>
       <c r="K64" s="213" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L64" s="73">
         <f>B56*G64</f>
@@ -7948,14 +7940,14 @@
     </row>
     <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G65" s="110">
         <f>Tuottajahyodyt!G18</f>
         <v>0</v>
       </c>
       <c r="K65" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L65" s="108">
         <f>B57*G65</f>
@@ -7964,14 +7956,14 @@
     </row>
     <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="110">
         <f>G19</f>
         <v>0</v>
       </c>
       <c r="K66" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L66" s="108">
         <f>B58*G66</f>
@@ -7980,14 +7972,14 @@
     </row>
     <row r="67" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G67" s="110">
         <f>G20</f>
         <v>0</v>
       </c>
       <c r="K67" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L67" s="89">
         <f>B59*G67</f>
@@ -8016,38 +8008,38 @@
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="F72" s="8">
         <f>Diskonttaus!B4</f>
         <v>2030</v>
       </c>
       <c r="G72" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K72" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="K72" s="59" t="s">
-        <v>196</v>
-      </c>
       <c r="L72" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B73" s="248">
         <v>23000</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G73" s="124"/>
       <c r="K73" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L73" s="252">
         <f t="shared" ref="L73:L78" si="6">B73*G73</f>
@@ -8056,17 +8048,17 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B74" s="248">
         <v>20000</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G74" s="124"/>
       <c r="K74" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L74" s="203">
         <f t="shared" si="6"/>
@@ -8075,17 +8067,17 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B75" s="248">
         <v>10000</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G75" s="124"/>
       <c r="K75" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L75" s="203">
         <f t="shared" si="6"/>
@@ -8094,18 +8086,18 @@
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="212" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B76" s="248">
         <f>22000+5000</f>
         <v>27000</v>
       </c>
       <c r="F76" s="212" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G76" s="124"/>
       <c r="K76" s="250" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L76" s="203">
         <f t="shared" si="6"/>
@@ -8114,18 +8106,18 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="212" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B77" s="248">
         <f t="shared" ref="B77:B78" si="7">22000+5000</f>
         <v>27000</v>
       </c>
       <c r="F77" s="212" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G77" s="124"/>
       <c r="K77" s="250" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L77" s="253">
         <f t="shared" si="6"/>
@@ -8134,18 +8126,18 @@
     </row>
     <row r="78" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="212" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78" s="248">
         <f t="shared" si="7"/>
         <v>27000</v>
       </c>
       <c r="F78" s="212" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G78" s="124"/>
       <c r="K78" s="251" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L78" s="254">
         <f t="shared" si="6"/>
@@ -8175,13 +8167,13 @@
         <v>2050</v>
       </c>
       <c r="G81" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="K81" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="K81" s="59" t="s">
-        <v>196</v>
-      </c>
       <c r="L81" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -8189,11 +8181,11 @@
       <c r="B82" s="177"/>
       <c r="C82" s="177"/>
       <c r="F82" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G82" s="124"/>
       <c r="K82" s="44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L82" s="252">
         <f>B73*G82</f>
@@ -8205,11 +8197,11 @@
       <c r="B83" s="249"/>
       <c r="C83" s="249"/>
       <c r="F83" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G83" s="124"/>
       <c r="K83" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L83" s="203">
         <f>B74*G83</f>
@@ -8221,11 +8213,11 @@
       <c r="B84" s="176"/>
       <c r="C84" s="176"/>
       <c r="F84" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G84" s="124"/>
       <c r="K84" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L84" s="203">
         <f t="shared" ref="L84:L86" si="8">B75*G84</f>
@@ -8237,11 +8229,11 @@
       <c r="B85" s="176"/>
       <c r="C85" s="176"/>
       <c r="F85" s="212" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G85" s="124"/>
       <c r="K85" s="250" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L85" s="203">
         <f t="shared" si="8"/>
@@ -8253,11 +8245,11 @@
       <c r="B86" s="176"/>
       <c r="C86" s="176"/>
       <c r="F86" s="212" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G86" s="124"/>
       <c r="K86" s="250" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L86" s="203">
         <f t="shared" si="8"/>
@@ -8269,11 +8261,11 @@
       <c r="B87" s="176"/>
       <c r="C87" s="176"/>
       <c r="F87" s="212" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G87" s="124"/>
       <c r="K87" s="251" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L87" s="254">
         <f>B78*G87</f>
@@ -8375,50 +8367,50 @@
   <sheetData>
     <row r="2" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="L2" t="s">
         <v>93</v>
-      </c>
-      <c r="L2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="F3" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="27" t="s">
+      <c r="H3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="I3" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="J3" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="K3" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="L3" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="140">
         <f>L67</f>
@@ -8450,7 +8442,7 @@
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="47">
         <v>0</v>
@@ -8459,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="211">
         <v>410600</v>
@@ -8472,7 +8464,7 @@
     </row>
     <row r="6" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="47">
         <v>0</v>
@@ -8510,7 +8502,7 @@
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="47">
         <v>0</v>
@@ -8532,12 +8524,12 @@
         <v>1.0337919999999999E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="141">
         <f>L59</f>
@@ -8548,12 +8540,12 @@
         <v>1.6811258999999999E-2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="141">
         <f>L75</f>
@@ -8570,7 +8562,7 @@
     </row>
     <row r="11" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="142">
         <f>L83</f>
@@ -8591,10 +8583,10 @@
         <v>2030</v>
       </c>
       <c r="Q13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8602,93 +8594,93 @@
         <v>5</v>
       </c>
       <c r="C14" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="78" t="s">
+      <c r="F14" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="26" t="s">
+      <c r="I14" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="J14" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="K14" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="L14" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="M14" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="43" t="s">
+      <c r="N14" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="N14" s="70" t="s">
-        <v>114</v>
-      </c>
       <c r="O14" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="R14" s="27" t="s">
+      <c r="S14" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="S14" s="43" t="s">
+      <c r="T14" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="T14" s="43" t="s">
+      <c r="U14" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="U14" s="43" t="s">
+      <c r="V14" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="V14" s="43" t="s">
+      <c r="W14" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="W14" s="70" t="s">
-        <v>114</v>
-      </c>
       <c r="X14" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA14" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AA14" s="27" t="s">
+      <c r="AB14" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AB14" s="43" t="s">
+      <c r="AC14" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AC14" s="43" t="s">
+      <c r="AD14" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AD14" s="43" t="s">
+      <c r="AE14" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AE14" s="43" t="s">
+      <c r="AF14" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="AF14" s="70" t="s">
-        <v>114</v>
-      </c>
       <c r="AG14" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="61">
         <f t="shared" ref="C15:C22" si="1">$G$6*I15+$H$6*J15+$I$6*K15+$J$6*L15+$K$6*M15+$L$6*N15</f>
@@ -8701,7 +8693,7 @@
       <c r="E15" s="36"/>
       <c r="F15" s="60"/>
       <c r="H15" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="296">
         <f>AA15-R15</f>
@@ -8732,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R15" s="280"/>
       <c r="S15" s="281"/>
@@ -8745,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA15" s="280"/>
       <c r="AB15" s="281"/>
@@ -8760,7 +8752,7 @@
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="63">
         <f t="shared" si="1"/>
@@ -8773,7 +8765,7 @@
       <c r="E16" s="37"/>
       <c r="F16" s="83"/>
       <c r="H16" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="299">
         <f t="shared" ref="I16:I22" si="7">AA16-R16</f>
@@ -8804,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R16" s="161"/>
       <c r="S16" s="162"/>
@@ -8820,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA16" s="161"/>
       <c r="AB16" s="162"/>
@@ -8838,7 +8830,7 @@
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="63">
         <f t="shared" si="1"/>
@@ -8851,7 +8843,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="83"/>
       <c r="H17" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="299">
         <f t="shared" si="7"/>
@@ -8882,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R17" s="161"/>
       <c r="S17" s="162"/>
@@ -8895,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA17" s="161"/>
       <c r="AB17" s="162"/>
@@ -8910,7 +8902,7 @@
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="63">
         <f t="shared" si="1"/>
@@ -8923,7 +8915,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="83"/>
       <c r="H18" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="299">
         <f t="shared" si="7"/>
@@ -8954,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R18" s="161"/>
       <c r="S18" s="162"/>
@@ -8967,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA18" s="161"/>
       <c r="AB18" s="162"/>
@@ -9054,7 +9046,7 @@
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="63">
         <f t="shared" si="1"/>
@@ -9067,7 +9059,7 @@
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
       <c r="H20" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="299">
         <f t="shared" si="7"/>
@@ -9098,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R20" s="275"/>
       <c r="S20" s="220"/>
@@ -9111,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA20" s="275"/>
       <c r="AB20" s="220"/>
@@ -9126,7 +9118,7 @@
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" s="81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="63">
         <f t="shared" si="1"/>
@@ -9139,7 +9131,7 @@
       <c r="E21" s="82"/>
       <c r="F21" s="83"/>
       <c r="H21" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="299">
         <f t="shared" si="7"/>
@@ -9170,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R21" s="275"/>
       <c r="S21" s="220"/>
@@ -9183,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="275"/>
       <c r="AB21" s="220"/>
@@ -9198,7 +9190,7 @@
     </row>
     <row r="22" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" si="1"/>
@@ -9211,7 +9203,7 @@
       <c r="E22" s="39"/>
       <c r="F22" s="28"/>
       <c r="H22" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I22" s="301">
         <f t="shared" si="7"/>
@@ -9242,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R22" s="277"/>
       <c r="S22" s="278"/>
@@ -9255,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA22" s="277"/>
       <c r="AB22" s="278"/>
@@ -9270,7 +9262,7 @@
     </row>
     <row r="23" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="101">
         <f>SUM(C15:C22)</f>
@@ -9304,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I24" s="245"/>
       <c r="J24" s="1"/>
@@ -9348,10 +9340,10 @@
       <c r="O26" s="17"/>
       <c r="P26" s="12"/>
       <c r="Q26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Z26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9359,93 +9351,93 @@
         <v>5</v>
       </c>
       <c r="C27" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="78" t="s">
+      <c r="F27" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="26" t="s">
+      <c r="I27" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="J27" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="43" t="s">
+      <c r="K27" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="K27" s="43" t="s">
+      <c r="L27" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="L27" s="43" t="s">
+      <c r="M27" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="M27" s="43" t="s">
+      <c r="N27" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="N27" s="70" t="s">
-        <v>114</v>
-      </c>
       <c r="O27" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="R27" s="27" t="s">
+      <c r="S27" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="S27" s="43" t="s">
+      <c r="T27" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="T27" s="43" t="s">
+      <c r="U27" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="U27" s="43" t="s">
+      <c r="V27" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="V27" s="43" t="s">
+      <c r="W27" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="W27" s="70" t="s">
-        <v>114</v>
-      </c>
       <c r="X27" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z27" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA27" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AA27" s="27" t="s">
+      <c r="AB27" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AB27" s="43" t="s">
+      <c r="AC27" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AC27" s="43" t="s">
+      <c r="AD27" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" s="43" t="s">
+      <c r="AE27" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AE27" s="43" t="s">
+      <c r="AF27" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="AF27" s="70" t="s">
-        <v>114</v>
-      </c>
       <c r="AG27" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="61">
         <f t="shared" ref="C28:C35" si="13">$G$6*I28+$H$6*J28+$I$6*K28+$J$6*L28+$K$6*M28+$L$6*N28</f>
@@ -9458,7 +9450,7 @@
       <c r="E28" s="36"/>
       <c r="F28" s="60"/>
       <c r="H28" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I28" s="296">
         <f>AA28-R28</f>
@@ -9489,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R28" s="280"/>
       <c r="S28" s="281"/>
@@ -9502,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA28" s="280"/>
       <c r="AB28" s="281"/>
@@ -9517,7 +9509,7 @@
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="63">
         <f t="shared" si="13"/>
@@ -9530,7 +9522,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="83"/>
       <c r="H29" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I29" s="299">
         <f t="shared" ref="I29:I35" si="19">AA29-R29</f>
@@ -9561,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R29" s="161"/>
       <c r="S29" s="162"/>
@@ -9577,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="Z29" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA29" s="161"/>
       <c r="AB29" s="162"/>
@@ -9595,7 +9587,7 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="63">
         <f t="shared" si="13"/>
@@ -9608,7 +9600,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="83"/>
       <c r="H30" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="299">
         <f t="shared" si="19"/>
@@ -9639,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R30" s="161"/>
       <c r="S30" s="162"/>
@@ -9652,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="Z30" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA30" s="161"/>
       <c r="AB30" s="162"/>
@@ -9667,7 +9659,7 @@
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="63">
         <f t="shared" si="13"/>
@@ -9680,7 +9672,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="83"/>
       <c r="H31" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31" s="299">
         <f t="shared" si="19"/>
@@ -9711,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R31" s="161"/>
       <c r="S31" s="162"/>
@@ -9724,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA31" s="161"/>
       <c r="AB31" s="162"/>
@@ -9811,7 +9803,7 @@
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B33" s="81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="63">
         <f t="shared" si="13"/>
@@ -9824,7 +9816,7 @@
       <c r="E33" s="82"/>
       <c r="F33" s="83"/>
       <c r="H33" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I33" s="299">
         <f t="shared" si="19"/>
@@ -9855,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R33" s="275"/>
       <c r="S33" s="220"/>
@@ -9868,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA33" s="275"/>
       <c r="AB33" s="220"/>
@@ -9883,7 +9875,7 @@
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34" s="81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="63">
         <f t="shared" si="13"/>
@@ -9896,7 +9888,7 @@
       <c r="E34" s="82"/>
       <c r="F34" s="83"/>
       <c r="H34" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="299">
         <f t="shared" si="19"/>
@@ -9927,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R34" s="275"/>
       <c r="S34" s="220"/>
@@ -9940,7 +9932,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AA34" s="275"/>
       <c r="AB34" s="220"/>
@@ -9955,7 +9947,7 @@
     </row>
     <row r="35" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="85">
         <f t="shared" si="13"/>
@@ -9968,7 +9960,7 @@
       <c r="E35" s="39"/>
       <c r="F35" s="28"/>
       <c r="H35" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="301">
         <f t="shared" si="19"/>
@@ -9999,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R35" s="277"/>
       <c r="S35" s="278"/>
@@ -10012,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA35" s="277"/>
       <c r="AB35" s="278"/>
@@ -10027,7 +10019,7 @@
     </row>
     <row r="36" spans="2:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="101">
         <f>SUM(C28:C35)</f>
@@ -10061,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I37" s="246"/>
     </row>
@@ -10115,16 +10107,16 @@
     </row>
     <row r="45" spans="2:33" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
         <v>115</v>
       </c>
-      <c r="C45" t="s">
+      <c r="G45" t="s">
         <v>116</v>
       </c>
-      <c r="G45" t="s">
+      <c r="L45" t="s">
         <v>117</v>
-      </c>
-      <c r="L45" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.25">
@@ -10132,27 +10124,27 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="D46" t="s">
-        <v>97</v>
-      </c>
       <c r="G46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" t="s">
         <v>96</v>
       </c>
-      <c r="H46" t="s">
-        <v>97</v>
-      </c>
       <c r="L46" t="s">
+        <v>95</v>
+      </c>
+      <c r="M46" t="s">
         <v>96</v>
-      </c>
-      <c r="M46" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" s="147">
         <v>0.04</v>
@@ -10177,7 +10169,7 @@
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="147">
         <v>0.44</v>
@@ -10202,7 +10194,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C49" s="147">
         <v>1.4999999999999999E-2</v>
@@ -10227,7 +10219,7 @@
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="148">
         <v>202</v>
@@ -10273,44 +10265,44 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
         <v>115</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G53" t="s">
         <v>116</v>
       </c>
-      <c r="G53" t="s">
+      <c r="L53" t="s">
         <v>117</v>
-      </c>
-      <c r="L53" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
         <v>96</v>
       </c>
-      <c r="D54" t="s">
-        <v>97</v>
-      </c>
       <c r="G54" t="s">
+        <v>95</v>
+      </c>
+      <c r="H54" t="s">
         <v>96</v>
       </c>
-      <c r="H54" t="s">
-        <v>97</v>
-      </c>
       <c r="L54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M54" t="s">
         <v>96</v>
-      </c>
-      <c r="M54" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" s="147">
         <v>4.2000000000000003E-2</v>
@@ -10335,7 +10327,7 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="147">
         <v>1.1000000000000001</v>
@@ -10360,7 +10352,7 @@
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C57" s="147">
         <v>5.6000000000000001E-2</v>
@@ -10385,7 +10377,7 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="148">
         <v>276</v>
@@ -10431,44 +10423,44 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
         <v>115</v>
       </c>
-      <c r="C61" t="s">
+      <c r="G61" t="s">
         <v>116</v>
       </c>
-      <c r="G61" t="s">
+      <c r="L61" t="s">
         <v>117</v>
-      </c>
-      <c r="L61" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" t="s">
         <v>96</v>
       </c>
-      <c r="D62" t="s">
-        <v>97</v>
-      </c>
       <c r="G62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" t="s">
         <v>96</v>
       </c>
-      <c r="H62" t="s">
-        <v>97</v>
-      </c>
       <c r="L62" t="s">
+        <v>95</v>
+      </c>
+      <c r="M62" t="s">
         <v>96</v>
-      </c>
-      <c r="M62" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="147">
         <v>0.2</v>
@@ -10493,7 +10485,7 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="147">
         <v>6</v>
@@ -10518,7 +10510,7 @@
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="147">
         <v>0.08</v>
@@ -10543,7 +10535,7 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="148">
         <v>1202</v>
@@ -10581,54 +10573,54 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" t="s">
         <v>124</v>
-      </c>
-      <c r="D68" t="s">
-        <v>125</v>
       </c>
       <c r="L68" s="150"/>
       <c r="M68" s="150"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
         <v>115</v>
       </c>
-      <c r="C69" t="s">
+      <c r="G69" t="s">
         <v>116</v>
       </c>
-      <c r="G69" t="s">
+      <c r="L69" t="s">
         <v>117</v>
-      </c>
-      <c r="L69" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" t="s">
         <v>96</v>
       </c>
-      <c r="D70" t="s">
-        <v>97</v>
-      </c>
       <c r="G70" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" t="s">
         <v>96</v>
       </c>
-      <c r="H70" t="s">
-        <v>97</v>
-      </c>
       <c r="L70" t="s">
+        <v>95</v>
+      </c>
+      <c r="M70" t="s">
         <v>96</v>
-      </c>
-      <c r="M70" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" s="147">
         <v>9.0999999999999998E-2</v>
@@ -10653,7 +10645,7 @@
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C72" s="147">
         <v>1.2</v>
@@ -10678,7 +10670,7 @@
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C73" s="147">
         <v>3.5000000000000003E-2</v>
@@ -10703,7 +10695,7 @@
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="148">
         <v>376</v>
@@ -10741,52 +10733,52 @@
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" t="s">
         <v>126</v>
-      </c>
-      <c r="D76" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
         <v>115</v>
       </c>
-      <c r="C77" t="s">
+      <c r="G77" t="s">
         <v>116</v>
       </c>
-      <c r="G77" t="s">
+      <c r="L77" t="s">
         <v>117</v>
-      </c>
-      <c r="L77" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
         <v>96</v>
       </c>
-      <c r="D78" t="s">
-        <v>97</v>
-      </c>
       <c r="G78" t="s">
+        <v>95</v>
+      </c>
+      <c r="H78" t="s">
         <v>96</v>
       </c>
-      <c r="H78" t="s">
-        <v>97</v>
-      </c>
       <c r="L78" t="s">
+        <v>95</v>
+      </c>
+      <c r="M78" t="s">
         <v>96</v>
-      </c>
-      <c r="M78" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" s="147">
         <v>0.31</v>
@@ -10811,7 +10803,7 @@
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" s="147">
         <v>9.6999999999999993</v>
@@ -10836,7 +10828,7 @@
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C81" s="147">
         <v>0.15</v>
@@ -10861,7 +10853,7 @@
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C82" s="148">
         <v>1652</v>
@@ -10899,18 +10891,18 @@
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" t="s">
         <v>182</v>
-      </c>
-      <c r="D85" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C86" s="149">
         <v>130</v>
@@ -10925,7 +10917,7 @@
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C87" s="149">
         <v>720</v>
@@ -10940,7 +10932,7 @@
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C88" s="149">
         <v>1840</v>
@@ -10955,7 +10947,7 @@
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C89" s="149">
         <v>3520</v>
@@ -10970,7 +10962,7 @@
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" s="149">
         <v>6030</v>
@@ -11016,22 +11008,22 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="69">
         <f>Diskonttaus!B4</f>
@@ -11042,7 +11034,7 @@
         <v>47</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>49</v>
@@ -11056,7 +11048,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="108">
         <f>Kayttajahyodyt!O78</f>
@@ -11076,7 +11068,7 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="108">
         <f>J8</f>
@@ -11114,7 +11106,7 @@
         <v>47</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>49</v>
@@ -11128,7 +11120,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="108">
         <f>Kayttajahyodyt!O85</f>
@@ -11148,7 +11140,7 @@
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="108">
         <f>J13</f>
@@ -11187,7 +11179,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -12136,7 +12128,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="159">
         <v>1.2</v>
@@ -12241,7 +12233,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="191">
         <v>300</v>
@@ -16298,7 +16290,7 @@
   <sheetData>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -16311,10 +16303,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" s="111" t="s">
         <v>133</v>
-      </c>
-      <c r="AA6" s="111" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
@@ -16413,7 +16405,7 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="271"/>
       <c r="D9" s="195"/>
@@ -16444,7 +16436,7 @@
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="192"/>
       <c r="D10" s="149"/>
@@ -16475,7 +16467,7 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="192"/>
       <c r="D11" s="149"/>
@@ -16506,7 +16498,7 @@
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="192"/>
       <c r="D12" s="149"/>
@@ -16537,7 +16529,7 @@
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="192"/>
       <c r="D13" s="149"/>
@@ -16568,7 +16560,7 @@
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="192"/>
       <c r="D14" s="149"/>
@@ -16599,7 +16591,7 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="192"/>
       <c r="D15" s="149"/>
@@ -16630,7 +16622,7 @@
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="192"/>
       <c r="D16" s="149"/>
@@ -16661,7 +16653,7 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="192"/>
       <c r="D17" s="149"/>
@@ -16692,7 +16684,7 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="192"/>
       <c r="D18" s="149"/>
@@ -16723,7 +16715,7 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="192"/>
       <c r="D19" s="149"/>
@@ -16754,7 +16746,7 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="192"/>
       <c r="D20" s="149"/>
@@ -16785,7 +16777,7 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="192"/>
       <c r="D21" s="149"/>
@@ -16816,7 +16808,7 @@
     </row>
     <row r="22" spans="2:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="272"/>
       <c r="D22" s="180"/>
@@ -16940,12 +16932,12 @@
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="15">
         <f>C9/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17034,7 +17026,7 @@
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28" s="15">
         <f>C10/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17123,7 +17115,7 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="15">
         <f>C11/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17212,7 +17204,7 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="15">
         <f>C12/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17301,7 +17293,7 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C31" s="15">
         <f>C13/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17390,7 +17382,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="15">
         <f>C14/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17479,7 +17471,7 @@
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="15">
         <f>C15/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17568,7 +17560,7 @@
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="15">
         <f>C16/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17657,7 +17649,7 @@
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="15">
         <f>C17/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17746,7 +17738,7 @@
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="15">
         <f>C18/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17835,7 +17827,7 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="15">
         <f>C19/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -17924,7 +17916,7 @@
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="15">
         <f>C20/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -18013,7 +18005,7 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="15">
         <f>C21/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -18102,7 +18094,7 @@
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" s="86">
         <f>C22/(1+Diskonttaus!$B$8)^(Investointikustannus!C$8-Diskonttaus!$B$2)</f>
@@ -18283,8 +18275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18317,38 +18309,38 @@
         <v>43</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="188" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="188" t="s">
-        <v>156</v>
-      </c>
       <c r="D2" s="188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="185" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="186" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="43" t="s">
         <v>155</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="193">
         <v>7.92</v>
@@ -18374,7 +18366,7 @@
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="192">
         <v>6.28</v>
@@ -18390,7 +18382,7 @@
     </row>
     <row r="5" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="197">
         <f>(13.67+12.31+11.37+10.95)/4</f>
@@ -18409,7 +18401,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="187">
         <v>1</v>
@@ -18421,7 +18413,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="187">
         <v>1</v>
@@ -18433,7 +18425,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8" s="187">
         <v>1</v>
@@ -18474,43 +18466,43 @@
         <v>2030</v>
       </c>
       <c r="C11" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>154</v>
-      </c>
       <c r="E11" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="G11" s="169" t="s">
+        <v>216</v>
+      </c>
+      <c r="H11" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="I11" s="169" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="169" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" s="169" t="s">
-        <v>219</v>
-      </c>
-      <c r="I11" s="169" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" s="43" t="s">
+      <c r="K11" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="27" t="s">
-        <v>160</v>
-      </c>
       <c r="L11" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O11" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="79" t="s">
         <v>8</v>
@@ -18792,41 +18784,41 @@
         <v>2050</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>154</v>
-      </c>
       <c r="E16" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="G16" s="169" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="169" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="169" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="169" t="s">
-        <v>219</v>
-      </c>
-      <c r="I16" s="169" t="s">
-        <v>220</v>
-      </c>
-      <c r="J16" s="43" t="s">
+      <c r="K16" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="K16" s="27" t="s">
-        <v>160</v>
-      </c>
       <c r="L16" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16" s="27"/>
       <c r="N16" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O16" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="79" t="s">
         <v>8</v>
@@ -19148,9 +19140,7 @@
       <c r="AH22" s="169"/>
     </row>
     <row r="23" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A23" s="9"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="F23" s="16"/>
@@ -19178,34 +19168,16 @@
       <c r="AH23" s="169"/>
     </row>
     <row r="24" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="79">
-        <f>Diskonttaus!B4</f>
-        <v>2030</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>154</v>
-      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="52"/>
       <c r="F24" s="176"/>
       <c r="J24" s="176"/>
       <c r="K24" s="176"/>
-      <c r="L24" s="154" t="s">
-        <v>64</v>
-      </c>
-      <c r="M24" t="s">
-        <v>223</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="O24" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q24" s="79" t="s">
-        <v>8</v>
-      </c>
+      <c r="L24" s="154"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="52"/>
+      <c r="Q24" s="79"/>
       <c r="R24" s="172"/>
       <c r="S24" s="172"/>
       <c r="T24" s="169"/>
@@ -19225,41 +19197,18 @@
       <c r="AH24" s="169"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="61">
-        <f>-E64*ha_tyo!F22</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="90">
-        <f>-E64*ha_muu!F22</f>
-        <v>0</v>
-      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="84"/>
       <c r="F25" s="177"/>
       <c r="J25" s="177"/>
       <c r="K25" s="177"/>
-      <c r="L25" s="207">
-        <f>-E67*ka!F22</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="91">
-        <f>-puolip!F22*$E$68</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="62">
-        <f>-E68*yhd!F22</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="90">
-        <f>-E65*pa!F22</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="202">
-        <f>SUM(C25:P25)</f>
-        <v>0</v>
-      </c>
+      <c r="L25" s="207"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="90"/>
+      <c r="Q25" s="202"/>
       <c r="R25" s="173"/>
       <c r="S25" s="173"/>
       <c r="T25" s="173"/>
@@ -19279,41 +19228,18 @@
       <c r="AH25" s="169"/>
     </row>
     <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="63">
-        <f>-E64*ha_tyo!F23</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="55">
-        <f>-E64*ha_muu!F23</f>
-        <v>0</v>
-      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="84"/>
       <c r="F26" s="177"/>
       <c r="J26" s="177"/>
       <c r="K26" s="177"/>
-      <c r="L26" s="167">
-        <f>-E67*ka!F23</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="91">
-        <f>-puolip!F23*$E$68</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="110">
-        <f>-E68*yhd!F23</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="55">
-        <f>-E65*pa!F23</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="203">
-        <f>SUM(C26:P26)</f>
-        <v>0</v>
-      </c>
+      <c r="L26" s="167"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="55"/>
+      <c r="Q26" s="203"/>
       <c r="R26" s="173"/>
       <c r="S26" s="173"/>
       <c r="T26" s="173"/>
@@ -19333,41 +19259,18 @@
       <c r="AH26" s="169"/>
     </row>
     <row r="27" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="85">
-        <f>SUM(C25:C26)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="165">
-        <f>SUM(D25:D26)</f>
-        <v>0</v>
-      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="84"/>
       <c r="F27" s="177"/>
       <c r="J27" s="177"/>
       <c r="K27" s="177"/>
-      <c r="L27" s="208">
-        <f>SUM(L25:L26)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="208">
-        <f>SUM(M25:M26)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="57">
-        <f>SUM(N25:N26)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="165">
-        <f>SUM(O25:O26)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="204">
-        <f>SUM(C27:P27)</f>
-        <v>0</v>
-      </c>
+      <c r="L27" s="208"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="165"/>
+      <c r="Q27" s="204"/>
       <c r="R27" s="173"/>
       <c r="S27" s="173"/>
       <c r="T27" s="173"/>
@@ -19409,34 +19312,16 @@
       <c r="AH28" s="169"/>
     </row>
     <row r="29" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="79">
-        <f>Diskonttaus!B6</f>
-        <v>2050</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>154</v>
-      </c>
+      <c r="B29" s="79"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="52"/>
       <c r="F29" s="178"/>
       <c r="J29" s="176"/>
       <c r="K29" s="178"/>
-      <c r="L29" s="154" t="s">
-        <v>64</v>
-      </c>
-      <c r="M29" t="s">
-        <v>223</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="O29" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q29" s="60" t="s">
-        <v>8</v>
-      </c>
+      <c r="L29" s="154"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="52"/>
+      <c r="Q29" s="60"/>
       <c r="R29" s="172"/>
       <c r="S29" s="172"/>
       <c r="T29" s="169"/>
@@ -19456,40 +19341,17 @@
       <c r="AH29" s="169"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="61">
-        <f>-E64*ha_tyo!F27</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="90">
-        <f>-E64*ha_muu!F27</f>
-        <v>0</v>
-      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="90"/>
       <c r="F30" s="177"/>
       <c r="J30" s="176"/>
       <c r="K30" s="177"/>
-      <c r="L30" s="207">
-        <f>-E67*ka!F27</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="91">
-        <f>-puolip!F27*$E$68</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="62">
-        <f>-E68*yhd!F27</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="90">
-        <f>-E65*pa!F27</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="202">
-        <f>SUM(C30:P30)</f>
-        <v>0</v>
-      </c>
+      <c r="L30" s="207"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="90"/>
+      <c r="Q30" s="202"/>
       <c r="R30" s="173"/>
       <c r="S30" s="173"/>
       <c r="T30" s="173"/>
@@ -19509,40 +19371,17 @@
       <c r="AH30" s="169"/>
     </row>
     <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="63">
-        <f>-E64*ha_tyo!F28</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="55">
-        <f>-E64*ha_muu!F28</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="30"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="55"/>
       <c r="F31" s="177"/>
       <c r="J31" s="176"/>
       <c r="K31" s="177"/>
-      <c r="L31" s="167">
-        <f>-E67*ka!F28</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="91">
-        <f>-puolip!F28*$E$68</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="110">
-        <f>-E68*yhd!F28</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="55">
-        <f>-E65*pa!F28</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="203">
-        <f>SUM(C31:P31)</f>
-        <v>0</v>
-      </c>
+      <c r="L31" s="167"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="55"/>
+      <c r="Q31" s="203"/>
       <c r="R31" s="173"/>
       <c r="S31" s="173"/>
       <c r="T31" s="173"/>
@@ -19562,40 +19401,17 @@
       <c r="AH31" s="169"/>
     </row>
     <row r="32" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="85">
-        <f>SUM(C30:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="165">
-        <f>SUM(D30:D31)</f>
-        <v>0</v>
-      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="165"/>
       <c r="F32" s="177"/>
       <c r="J32" s="176"/>
       <c r="K32" s="177"/>
-      <c r="L32" s="208">
-        <f>SUM(L30:L31)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="208">
-        <f>SUM(M30:M31)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="57">
-        <f>SUM(N30:N31)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="165">
-        <f>SUM(O30:O31)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="204">
-        <f>SUM(C32:P32)</f>
-        <v>0</v>
-      </c>
+      <c r="L32" s="208"/>
+      <c r="M32" s="208"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="165"/>
+      <c r="Q32" s="204"/>
       <c r="R32" s="173"/>
       <c r="S32" s="173"/>
       <c r="T32" s="173"/>
@@ -19634,13 +19450,8 @@
       <c r="AH33" s="169"/>
     </row>
     <row r="34" spans="1:34" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q34" s="206">
-        <f ca="1">IF(ISNUMBER(Diskonttaus!B27),Diskonttaus!B26*Kayttajahyodyt!Q27+Diskonttaus!B27*Kayttajahyodyt!Q32,Diskonttaus!B26*Kayttajahyodyt!Q27)</f>
-        <v>0</v>
-      </c>
+      <c r="B34" s="120"/>
+      <c r="Q34" s="206"/>
       <c r="R34" s="169"/>
       <c r="S34" s="169"/>
       <c r="T34" s="169"/>
@@ -19731,7 +19542,7 @@
     </row>
     <row r="38" spans="1:34" s="166" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -19770,39 +19581,39 @@
         <v>2030</v>
       </c>
       <c r="C39" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>154</v>
-      </c>
       <c r="E39" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="64" t="s">
-        <v>158</v>
-      </c>
       <c r="G39" s="169" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="I39" s="169" t="s">
         <v>218</v>
-      </c>
-      <c r="H39" s="169" t="s">
-        <v>219</v>
-      </c>
-      <c r="I39" s="169" t="s">
-        <v>220</v>
       </c>
       <c r="J39"/>
       <c r="K39" s="176"/>
       <c r="L39" s="154" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O39" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q39" s="79" t="s">
         <v>8</v>
@@ -20083,39 +19894,39 @@
         <v>2050</v>
       </c>
       <c r="C44" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>154</v>
-      </c>
       <c r="E44" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="64" t="s">
-        <v>158</v>
-      </c>
       <c r="G44" s="169" t="s">
+        <v>216</v>
+      </c>
+      <c r="H44" s="169" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" s="169" t="s">
         <v>218</v>
-      </c>
-      <c r="H44" s="169" t="s">
-        <v>219</v>
-      </c>
-      <c r="I44" s="169" t="s">
-        <v>220</v>
       </c>
       <c r="J44"/>
       <c r="K44" s="176"/>
       <c r="L44" s="154" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M44" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O44" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q44" s="79" t="s">
         <v>8</v>
@@ -20549,41 +20360,41 @@
     </row>
     <row r="60" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="D63" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="E63" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="24" t="s">
-        <v>61</v>
-      </c>
       <c r="G63" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="I63" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="23" t="s">
+      <c r="J63" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="J63" s="24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
@@ -20620,7 +20431,7 @@
     </row>
     <row r="65" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B65" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="133">
         <f>0.01*10.69</f>
@@ -20635,7 +20446,7 @@
         <v>0.188</v>
       </c>
       <c r="G65" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H65" s="133">
         <f>0.01*10.69</f>
@@ -20652,7 +20463,7 @@
     </row>
     <row r="66" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B66" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="133">
         <f>0.01*30.9</f>
@@ -20667,7 +20478,7 @@
         <v>0.4415</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H66" s="133">
         <f>0.01*30.9</f>
@@ -20684,7 +20495,7 @@
     </row>
     <row r="67" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B67" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="133">
         <f>0.01*22.34</f>
@@ -20699,7 +20510,7 @@
         <v>0.31890000000000002</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H67" s="133">
         <f>0.01*22.34</f>
@@ -20716,7 +20527,7 @@
     </row>
     <row r="68" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="135">
         <f>0.01*40</f>
@@ -20731,7 +20542,7 @@
         <v>0.64739999999999998</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H68" s="135">
         <f>0.01*40</f>
@@ -20752,7 +20563,7 @@
     <row r="71" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C72" s="79">
         <f>Diskonttaus!B4</f>
@@ -20761,13 +20572,13 @@
       <c r="D72" s="176"/>
       <c r="E72" s="176"/>
       <c r="G72" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H72" s="79"/>
       <c r="I72" s="176"/>
       <c r="J72" s="176"/>
       <c r="N72" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O72" s="60">
         <f>Diskonttaus!B4</f>
@@ -20807,7 +20618,7 @@
     </row>
     <row r="74" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B74" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!X20</f>
@@ -20816,7 +20627,7 @@
       <c r="D74" s="309"/>
       <c r="E74" s="309"/>
       <c r="G74" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H74" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!AG20</f>
@@ -20825,7 +20636,7 @@
       <c r="I74" s="309"/>
       <c r="J74" s="309"/>
       <c r="N74" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O74" s="307">
         <f t="shared" ref="O74:O77" si="9">I65*H74-D65*C74</f>
@@ -20836,7 +20647,7 @@
     </row>
     <row r="75" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!X15</f>
@@ -20845,7 +20656,7 @@
       <c r="D75" s="309"/>
       <c r="E75" s="309"/>
       <c r="G75" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H75" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!AG15</f>
@@ -20854,7 +20665,7 @@
       <c r="I75" s="309"/>
       <c r="J75" s="309"/>
       <c r="N75" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O75" s="307">
         <f t="shared" si="9"/>
@@ -20865,7 +20676,7 @@
     </row>
     <row r="76" spans="2:17 16384:16384" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!X21</f>
@@ -20874,7 +20685,7 @@
       <c r="D76" s="309"/>
       <c r="E76" s="309"/>
       <c r="G76" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H76" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!AG21</f>
@@ -20883,7 +20694,7 @@
       <c r="I76" s="309"/>
       <c r="J76" s="309"/>
       <c r="N76" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O76" s="307">
         <f t="shared" si="9"/>
@@ -20894,7 +20705,7 @@
     </row>
     <row r="77" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="305">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!X22</f>
@@ -20903,7 +20714,7 @@
       <c r="D77" s="309"/>
       <c r="E77" s="309"/>
       <c r="G77" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H77" s="305">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!AG22</f>
@@ -20912,7 +20723,7 @@
       <c r="I77" s="309"/>
       <c r="J77" s="309"/>
       <c r="N77" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O77" s="308">
         <f t="shared" si="9"/>
@@ -20928,7 +20739,7 @@
       <c r="J78" s="176"/>
       <c r="M78" s="21"/>
       <c r="N78" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O78" s="88">
         <f>SUM(O73:O77)</f>
@@ -20939,7 +20750,7 @@
     </row>
     <row r="79" spans="2:17 16384:16384" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C79" s="79">
         <f>Diskonttaus!B6</f>
@@ -20948,13 +20759,13 @@
       <c r="D79" s="176"/>
       <c r="E79" s="176"/>
       <c r="G79" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H79" s="79"/>
       <c r="I79" s="176"/>
       <c r="J79" s="176"/>
       <c r="N79" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O79" s="60">
         <f>Diskonttaus!B6</f>
@@ -20994,7 +20805,7 @@
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C81" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!X33</f>
@@ -21003,7 +20814,7 @@
       <c r="D81" s="309"/>
       <c r="E81" s="309"/>
       <c r="G81" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H81" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!AG33</f>
@@ -21012,7 +20823,7 @@
       <c r="I81" s="309"/>
       <c r="J81" s="309"/>
       <c r="N81" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O81" s="307">
         <f t="shared" ref="O81:O84" si="10">I65*H81-D65*C81</f>
@@ -21023,7 +20834,7 @@
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C82" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!X28</f>
@@ -21032,7 +20843,7 @@
       <c r="D82" s="309"/>
       <c r="E82" s="309"/>
       <c r="G82" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H82" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!AG28</f>
@@ -21041,7 +20852,7 @@
       <c r="I82" s="309"/>
       <c r="J82" s="309"/>
       <c r="N82" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O82" s="307">
         <f t="shared" si="10"/>
@@ -21052,7 +20863,7 @@
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C83" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!X34</f>
@@ -21061,7 +20872,7 @@
       <c r="D83" s="309"/>
       <c r="E83" s="309"/>
       <c r="G83" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H83" s="304">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!AG34</f>
@@ -21070,7 +20881,7 @@
       <c r="I83" s="309"/>
       <c r="J83" s="309"/>
       <c r="N83" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O83" s="307">
         <f t="shared" si="10"/>
@@ -21081,7 +20892,7 @@
     </row>
     <row r="84" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C84" s="305">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!X35</f>
@@ -21090,7 +20901,7 @@
       <c r="D84" s="309"/>
       <c r="E84" s="309"/>
       <c r="G84" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H84" s="305">
         <f>Diskonttaus!$B$11*Ulkoisvaikutukset!AG35</f>
@@ -21099,7 +20910,7 @@
       <c r="I84" s="309"/>
       <c r="J84" s="309"/>
       <c r="N84" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O84" s="308">
         <f t="shared" si="10"/>
@@ -21116,7 +20927,7 @@
       <c r="G85" s="21"/>
       <c r="M85" s="21"/>
       <c r="N85" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O85" s="88">
         <f>SUM(O80:O84)</f>
@@ -21127,7 +20938,7 @@
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
@@ -21166,12 +20977,12 @@
         <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21198,7 +21009,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21363,7 +21174,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21544,7 +21355,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21732,12 +21543,12 @@
         <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21764,7 +21575,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21929,7 +21740,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22110,7 +21921,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22298,12 +22109,12 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22330,7 +22141,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22495,7 +22306,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22676,7 +22487,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22864,12 +22675,12 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22896,7 +22707,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23061,7 +22872,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23242,7 +23053,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23430,12 +23241,12 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23462,7 +23273,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23627,7 +23438,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23808,7 +23619,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23996,12 +23807,12 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24028,7 +23839,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24193,7 +24004,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24374,7 +24185,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24543,6 +24354,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
+    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
+        </TermInfo>
+      </Terms>
+    </c7e7d47415304583b97cbceafb48fc9c>
+    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
+    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </gbd2c824d606482d8ac0e417e142bc2f>
+    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lf2a24d45b2949218b95d66f1d0b33a8>
+    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
+      <Value>2</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Työryhmän dokumentti" ma:contentTypeID="0x0101005AF0DAC6D8B8D046AA97775D0EA0A52C00597B3796DB9FF548BDFCB0DE8988F274" ma:contentTypeVersion="18" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="52111fa3d5fab8e48da38903eaacec4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xmlns:ns3="8dde8a50-f86d-46ca-ae54-a219d58ab0f1" xmlns:ns4="4468c9de-2a81-4c06-bf49-e269715ababb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb907d030b2bbafc68088718dbf26d11" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
@@ -24777,32 +24614,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DokumentinTila xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7" xsi:nil="true"/>
-    <c7e7d47415304583b97cbceafb48fc9c xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Taulukko</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">71909737-5f26-44ee-a6fd-ea06d44b9a81</TermId>
-        </TermInfo>
-      </Terms>
-    </c7e7d47415304583b97cbceafb48fc9c>
-    <TyoryhmanNimi xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">MAL 2019 - Kustannushyötyanalyysi</TyoryhmanNimi>
-    <gbd2c824d606482d8ac0e417e142bc2f xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </gbd2c824d606482d8ac0e417e142bc2f>
-    <lf2a24d45b2949218b95d66f1d0b33a8 xmlns="37b6a217-4fe1-4884-a4eb-572c5a1969c7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lf2a24d45b2949218b95d66f1d0b33a8>
-    <TaxCatchAll xmlns="8dde8a50-f86d-46ca-ae54-a219d58ab0f1">
-      <Value>2</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -24813,6 +24624,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD55EAC-37BA-4509-9765-6FB27F6E2583}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
+    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2FF8B0-9374-422E-84FD-E99C507D087D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24832,24 +24661,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD55EAC-37BA-4509-9765-6FB27F6E2583}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8dde8a50-f86d-46ca-ae54-a219d58ab0f1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4468c9de-2a81-4c06-bf49-e269715ababb"/>
-    <ds:schemaRef ds:uri="37b6a217-4fe1-4884-a4eb-572c5a1969c7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B210B1-4CBB-440B-90E0-17B0C211902F}">
   <ds:schemaRefs>
